--- a/Tableau métriques/moyenne/2021_2022/Stats Bomb/moyenne_metriques.xlsx
+++ b/Tableau métriques/moyenne/2021_2022/Stats Bomb/moyenne_metriques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J173"/>
+  <dimension ref="A1:J172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,8 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ratio Moyennes</t>
+          <t>Diff Moyennes
+(données normalisées)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -483,1497 +484,1497 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_gk_pg</t>
+          <t>team_season_gd</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.03576468206818689</v>
+        <v>24.6</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1159699449991</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>3.242582858083243</v>
+        <v>1.797428927871906</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0781889872652423</v>
+        <v>13.95707705789432</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08143954020406399</v>
+        <v>11.48415056874971</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1605986437613243</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.2611667311897403</v>
+        <v>-34</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0379026513798414</v>
+        <v>49</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01263494980766585</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_goal_ratio</t>
+          <t>team_season_gd_pg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1181818181818182</v>
+        <v>0.6382860998650473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03954980204980205</v>
+        <v>-0.2183499288762447</v>
       </c>
       <c r="D3" t="n">
-        <v>2.988177236209699</v>
+        <v>1.780546128771507</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04675000552437322</v>
+        <v>0.3729726599975151</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04029958265433332</v>
+        <v>0.3071795858458143</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0625</v>
+        <v>0.35</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0.918918918918919</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1875</v>
+        <v>1.289473684210526</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_xg_conceded_pg</t>
+          <t>team_season_xgd</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001864027887640594</v>
+        <v>16.46211164</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004582985396324292</v>
+        <v>-5.487370475999999</v>
       </c>
       <c r="D4" t="n">
-        <v>2.458646368282203</v>
+        <v>1.729633254796858</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0009172301422593595</v>
+        <v>12.10718718960486</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003347228088232239</v>
+        <v>7.689695992771734</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000788165403431968</v>
+        <v>7.5695252</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000561041267294633</v>
+        <v>-21.571327</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00329413549043238</v>
+        <v>37.76722</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0110827645679054</v>
+        <v>7.4898443</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_throw_in_conceded</t>
+          <t>team_season_xgd_pg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.339398868230323e-05</v>
+        <v>0.4272029465991959</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001962899957342735</v>
+        <v>-0.1452379757247869</v>
       </c>
       <c r="D5" t="n">
-        <v>2.353766726305149</v>
+        <v>1.718366745752598</v>
       </c>
       <c r="E5" t="n">
-        <v>4.077749054463114e-05</v>
+        <v>0.3216032804204463</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000149785346599824</v>
+        <v>0.2030087776324193</v>
       </c>
       <c r="G5" t="n">
-        <v>3.0718241364528e-05</v>
+        <v>0.1940903885242267</v>
       </c>
       <c r="H5" t="n">
-        <v>2.87713470407504e-05</v>
+        <v>-0.5676664937483636</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000142295275599601</v>
+        <v>0.9938741992962988</v>
       </c>
       <c r="J5" t="n">
-        <v>0.000522262680886397</v>
+        <v>0.1971011844120528</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_corners_conceded_pg</t>
+          <t>team_season_np_gd_pg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07734143049932524</v>
+        <v>0.6079217273954115</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1694642010431484</v>
+        <v>-0.2078710289236605</v>
       </c>
       <c r="D6" t="n">
-        <v>2.19111800685697</v>
+        <v>1.710542343837117</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05535849007509802</v>
+        <v>0.3910413995583376</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09060613990067799</v>
+        <v>0.3209047978263614</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07894736842105263</v>
+        <v>-0.972972972972973</v>
       </c>
       <c r="I6" t="n">
-        <v>0.131578947368421</v>
+        <v>1.263157894736842</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4324324324324325</v>
+        <v>0.1842105263157895</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_throw_ins_conceded_pg</t>
+          <t>team_season_possession</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01026315789473684</v>
+        <v>0.5508902683232708</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005310573731626364</v>
+        <v>0.482601792532653</v>
       </c>
       <c r="D7" t="n">
-        <v>1.932589285714286</v>
+        <v>1.658463951217771</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01406110527093952</v>
+        <v>0.04289243894874804</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01099502757997121</v>
+        <v>0.02544229698377877</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.4979002759028556</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.4367541259571595</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.6063871581500708</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.5271755916827701</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_goal_ratio_conceded</t>
+          <t>team_season_np_xgd_pg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000450724505419848</v>
+        <v>0.4081699306627437</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00023554660467449</v>
+        <v>-0.1387299134316971</v>
       </c>
       <c r="D8" t="n">
-        <v>1.913525801158203</v>
+        <v>1.622630727634441</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0006180702081460998</v>
+        <v>0.3355488461668543</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0004886352856782744</v>
+        <v>0.2236058198353376</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.1102961806150583</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>-0.5876664919288535</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00117370892018779</v>
+        <v>0.9744926165593298</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00124378109452736</v>
+        <v>0.1777141094207764</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_goal_ratio_conceded</t>
+          <t>team_season_passes_pg</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01955765795831942</v>
+        <v>530.609048582996</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03630363835623288</v>
+        <v>446.0417733522997</v>
       </c>
       <c r="D9" t="n">
-        <v>1.856236489747489</v>
+        <v>1.620173181063555</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01420499044646966</v>
+        <v>56.22635281031803</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01809631727425683</v>
+        <v>32.76013440005144</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>446.2368421052632</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0165745856353591</v>
+        <v>385.7567567567568</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0357142857142857</v>
+        <v>588.3846153846154</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0842105263157895</v>
+        <v>497.421052631579</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_goals_pg</t>
+          <t>team_season_op_passes_pg</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05170040485829959</v>
+        <v>479.7142105263158</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02807017543859649</v>
+        <v>392.76951161688</v>
       </c>
       <c r="D10" t="n">
-        <v>1.841826923076923</v>
+        <v>1.615589371526586</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01887737899021421</v>
+        <v>58.57010077347938</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03368107754853602</v>
+        <v>33.65149227652194</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02564102564102564</v>
+        <v>390.421052631579</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>331.4864864864865</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07894736842105263</v>
+        <v>537.4358974358975</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1052631578947368</v>
+        <v>444.9736842105263</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_throw_in</t>
+          <t>team_season_defensive_distance</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0001079745566636045</v>
+        <v>45.35638489101139</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001899140825330491</v>
+        <v>43.00171569288157</v>
       </c>
       <c r="D11" t="n">
-        <v>1.758878095000915</v>
+        <v>1.575430341230857</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0001607656409357142</v>
+        <v>1.194146743342781</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0001891751756512218</v>
+        <v>1.139613431346249</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>43.45739579143202</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>40.95089707580848</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003814738887205307</v>
+        <v>46.48390896851699</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0005361980335278944</v>
+        <v>44.90620568273906</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_gk_conceded_pg</t>
+          <t>team_season_deep_completions_pg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1396838789670438</v>
+        <v>3.371754385964913</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.07987683501803734</v>
+        <v>2.38819345661451</v>
       </c>
       <c r="D12" t="n">
-        <v>1.748740782424607</v>
+        <v>1.564429237713055</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1578513151302365</v>
+        <v>0.7064431939659027</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07069140386665274</v>
+        <v>0.40367721144244</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3648999816198882</v>
+        <v>2.368421052631579</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1965850032620916</v>
+        <v>1.789473684210526</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07342373192108967</v>
+        <v>4.358974358974359</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06949659600551869</v>
+        <v>3.131578947368421</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_corners_pg</t>
+          <t>team_season_goals_conceded_pg</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2075775978407557</v>
+        <v>0.8384278002699055</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1249407302038881</v>
+        <v>1.242342342342342</v>
       </c>
       <c r="D13" t="n">
-        <v>1.661408553495841</v>
+        <v>1.563449195882577</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1064429188240036</v>
+        <v>0.1968755885998623</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06658266043932422</v>
+        <v>0.2014299709938822</v>
       </c>
       <c r="G13" t="n">
-        <v>0.075</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3684210526315789</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2105263157894737</v>
+        <v>1.783783783783784</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_goal_ratio</t>
+          <t>team_season_passes_inside_box_pg</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0001877934272300469</v>
+        <v>2.224331983805668</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0003098892954471841</v>
+        <v>1.572925557136083</v>
       </c>
       <c r="D14" t="n">
-        <v>1.650160498256255</v>
+        <v>1.530310100209707</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0004199188690140451</v>
+        <v>0.4920406174063168</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0005338428738211818</v>
+        <v>0.275711658123833</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.394736842105263</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.131578947368421</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0009389671361502347</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001254705144291092</v>
+        <v>2.026315789473684</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_xg_pg</t>
+          <t>team_season_deep_progressions_conceded_pg</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002625752584518571</v>
+        <v>33.75834008097166</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004310803803548592</v>
+        <v>40.34286391654813</v>
       </c>
       <c r="D15" t="n">
-        <v>1.641740287704591</v>
+        <v>1.523584148678615</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00380052344697543</v>
+        <v>3.021653363500962</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004209446458640798</v>
+        <v>3.529883968686681</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>30.02631578947368</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>34.39473684210526</v>
       </c>
       <c r="I15" t="n">
-        <v>0.008945562783628703</v>
+        <v>38.30769230769231</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01241721722640489</v>
+        <v>46.26315789473684</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_goal_ratio</t>
+          <t>team_season_successful_passes_pg</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.007887360278845181</v>
+        <v>426.8917408906882</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004878127662815072</v>
+        <v>345.3349928876244</v>
       </c>
       <c r="D16" t="n">
-        <v>1.616882710751678</v>
+        <v>1.517590450231813</v>
       </c>
       <c r="E16" t="n">
-        <v>0.005072319692396551</v>
+        <v>60.64238006532347</v>
       </c>
       <c r="F16" t="n">
-        <v>0.002066488544685695</v>
+        <v>35.96492132828886</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00409836065573771</v>
+        <v>332.8157894736842</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00109769484083425</v>
+        <v>281.3783783783784</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0165892501658925</v>
+        <v>481.7179487179487</v>
       </c>
       <c r="J16" t="n">
-        <v>0.008426966292134829</v>
+        <v>401.1052631578947</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_goals_pg</t>
+          <t>team_season_deep_completions_conceded_pg</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3270377867746288</v>
+        <v>1.982010796221322</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2110004741583689</v>
+        <v>2.862731152204837</v>
       </c>
       <c r="D17" t="n">
-        <v>1.549938634399308</v>
+        <v>1.506873110641054</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1931508901577061</v>
+        <v>0.4799483381750095</v>
       </c>
       <c r="F17" t="n">
-        <v>0.09207737303557217</v>
+        <v>0.4630580198749262</v>
       </c>
       <c r="G17" t="n">
-        <v>0.175</v>
+        <v>1.657894736842105</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0526315789473684</v>
+        <v>1.921052631578947</v>
       </c>
       <c r="I17" t="n">
-        <v>0.657894736842105</v>
+        <v>2.820512820512821</v>
       </c>
       <c r="J17" t="n">
-        <v>0.394736842105263</v>
+        <v>3.552631578947369</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_throw_ins_conceded_pg</t>
+          <t>team_season_direct_free_kick_goal_ratio</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.05143724696356274</v>
+        <v>0.1181818181818182</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07923186344238976</v>
+        <v>0.03954980204980205</v>
       </c>
       <c r="D18" t="n">
-        <v>1.540359722177905</v>
+        <v>1.50403750567533</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02553706551220515</v>
+        <v>0.04675000552437322</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02642923311882962</v>
+        <v>0.04029958265433332</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.0625</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02631578947368421</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.1875</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.09523809523809521</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>team_season_second_yellow_cards_pg</t>
+          <t>team_season_corners_conceded_pg</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.03091093117408907</v>
+        <v>3.882739541160594</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04760550023707918</v>
+        <v>4.649122807017545</v>
       </c>
       <c r="D19" t="n">
-        <v>1.540086255213956</v>
+        <v>1.478154839810785</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02182295667333708</v>
+        <v>0.297966564822842</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04408071982518928</v>
+        <v>0.4486973053369678</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>3.86842105263158</v>
       </c>
       <c r="I19" t="n">
-        <v>0.05263157894736842</v>
+        <v>4.25641025641026</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1351351351351351</v>
+        <v>5.44736842105263</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_shot_ratio</t>
+          <t>team_season_obv_pass_conceded_pg</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.002280491406148333</v>
+        <v>0.5682314426708193</v>
       </c>
       <c r="C20" t="n">
-        <v>0.003402562032743012</v>
+        <v>0.7675023980915768</v>
       </c>
       <c r="D20" t="n">
-        <v>1.492030192952937</v>
+        <v>1.455566980038971</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002765058205434782</v>
+        <v>0.09456802845783567</v>
       </c>
       <c r="F20" t="n">
-        <v>0.002774196724203858</v>
+        <v>0.1165472794096365</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.4136851480916927</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.6081617631548157</v>
       </c>
       <c r="I20" t="n">
-        <v>0.006396588486140725</v>
+        <v>0.6650804212460151</v>
       </c>
       <c r="J20" t="n">
-        <v>0.009768009768009768</v>
+        <v>0.9656319129469527</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_shot_ratio_conceded</t>
+          <t>team_season_np_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.002298837912154342</v>
+        <v>0.7900890802792631</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003425164477637998</v>
+        <v>1.087084305786557</v>
       </c>
       <c r="D21" t="n">
-        <v>1.489954754760472</v>
+        <v>1.45316434392525</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001159481637723464</v>
+        <v>0.1829564401914798</v>
       </c>
       <c r="F21" t="n">
-        <v>0.001228210644603983</v>
+        <v>0.1627320881483028</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00102564102564103</v>
+        <v>0.5859373945154642</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00134952766531714</v>
+        <v>0.7920600203307051</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00352112676056338</v>
+        <v>0.997960987381446</v>
       </c>
       <c r="J21" t="n">
-        <v>0.00516129032258065</v>
+        <v>1.329671054273038</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_xg_conceded_pg</t>
+          <t>team_season_op_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.108784168199014</v>
+        <v>0.5977293458969587</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1616936215567599</v>
+        <v>0.8312676044235747</v>
       </c>
       <c r="D22" t="n">
-        <v>1.486370896001624</v>
+        <v>1.438198466013904</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03692179416839327</v>
+        <v>0.1341107319990624</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03738516127983852</v>
+        <v>0.1338691556320369</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0651464965194464</v>
+        <v>0.4599138557126647</v>
       </c>
       <c r="H22" t="n">
-        <v>0.108240442154439</v>
+        <v>0.5783345022876012</v>
       </c>
       <c r="I22" t="n">
-        <v>0.151077713375577</v>
+        <v>0.7442681512389427</v>
       </c>
       <c r="J22" t="n">
-        <v>0.242976974793955</v>
+        <v>1.014662309071502</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_goal_ratio</t>
+          <t>team_season_successful_passes_conceded_pg</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.004965984035224914</v>
+        <v>330.2283468286099</v>
       </c>
       <c r="C23" t="n">
-        <v>0.003344740631704283</v>
+        <v>378.3987197724039</v>
       </c>
       <c r="D23" t="n">
-        <v>1.48471423707809</v>
+        <v>1.426683962259968</v>
       </c>
       <c r="E23" t="n">
-        <v>0.007070358905944224</v>
+        <v>37.69450564522851</v>
       </c>
       <c r="F23" t="n">
-        <v>0.002298415853196976</v>
+        <v>24.51680657525147</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>275.2631578947368</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>330.3243243243243</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01739130434782609</v>
+        <v>381.1538461538461</v>
       </c>
       <c r="J23" t="n">
-        <v>0.006872852233676976</v>
+        <v>413.4736842105263</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_conceded_pg</t>
+          <t>team_season_passes_conceded_pg</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8384278002699055</v>
+        <v>432.2491767881241</v>
       </c>
       <c r="C24" t="n">
-        <v>1.242342342342342</v>
+        <v>479.6787577050735</v>
       </c>
       <c r="D24" t="n">
-        <v>1.48175232493771</v>
+        <v>1.426077900804412</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1968755885998623</v>
+        <v>38.48181184672534</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2014299709938822</v>
+        <v>23.54878227685404</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>374.1578947368421</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9473684210526315</v>
+        <v>432.9459459459459</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>479.3589743589744</v>
       </c>
       <c r="J24" t="n">
-        <v>1.783783783783784</v>
+        <v>513.2894736842105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>team_season_passes_inside_box_conceded_pg</t>
+          <t>team_season_fhalf_pressures_ratio</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.296167341430499</v>
+        <v>0.4779079432821405</v>
       </c>
       <c r="C25" t="n">
-        <v>1.889236605026078</v>
+        <v>0.4293512262796032</v>
       </c>
       <c r="D25" t="n">
-        <v>1.45755609221032</v>
+        <v>1.414655844950954</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3264450880106425</v>
+        <v>0.03656865007370138</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3917283364360866</v>
+        <v>0.02587354164030143</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.4357045143638851</v>
       </c>
       <c r="H25" t="n">
-        <v>1.105263157894737</v>
+        <v>0.380327868852459</v>
       </c>
       <c r="I25" t="n">
-        <v>1.82051282051282</v>
+        <v>0.5270917097453571</v>
       </c>
       <c r="J25" t="n">
-        <v>2.368421052631579</v>
+        <v>0.4793831713040563</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_goal_ratio</t>
+          <t>team_season_goals_pg</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.04079142557975032</v>
+        <v>1.476713900134953</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02816721422214759</v>
+        <v>1.023992413466098</v>
       </c>
       <c r="D26" t="n">
-        <v>1.448188140227103</v>
+        <v>1.411425936893672</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01702207106361531</v>
+        <v>0.4307780909170191</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01297827923263622</v>
+        <v>0.1976296241975265</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01421800947867299</v>
+        <v>1.026315789473684</v>
       </c>
       <c r="H26" t="n">
-        <v>0.007518796992481203</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="I26" t="n">
-        <v>0.06060606060606061</v>
+        <v>2.157894736842105</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0446927374301676</v>
+        <v>1.368421052631579</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>team_season_deep_completions_conceded_pg</t>
+          <t>team_season_obv_conceded_pg</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.982010796221322</v>
+        <v>1.28333636030282</v>
       </c>
       <c r="C27" t="n">
-        <v>2.862731152204837</v>
+        <v>1.681695000403559</v>
       </c>
       <c r="D27" t="n">
-        <v>1.444356992233643</v>
+        <v>1.402804395179061</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4799483381750095</v>
+        <v>0.1466826074388953</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4630580198749262</v>
+        <v>0.2579679755219159</v>
       </c>
       <c r="G27" t="n">
-        <v>1.657894736842105</v>
+        <v>1.098902865067909</v>
       </c>
       <c r="H27" t="n">
-        <v>1.921052631578947</v>
+        <v>1.313067628364814</v>
       </c>
       <c r="I27" t="n">
-        <v>2.820512820512821</v>
+        <v>1.439224595060715</v>
       </c>
       <c r="J27" t="n">
-        <v>3.552631578947369</v>
+        <v>2.246413158403861</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_pg</t>
+          <t>team_season_obv_pg</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.476713900134953</v>
+        <v>1.819633297045664</v>
       </c>
       <c r="C28" t="n">
-        <v>1.023992413466098</v>
+        <v>1.497479018401717</v>
       </c>
       <c r="D28" t="n">
-        <v>1.442114102326642</v>
+        <v>1.392918039213443</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4307780909170191</v>
+        <v>0.2069125522598693</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1976296241975265</v>
+        <v>0.1907450000670585</v>
       </c>
       <c r="G28" t="n">
-        <v>1.026315789473684</v>
+        <v>1.574891624482055</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7368421052631579</v>
+        <v>1.208470875985528</v>
       </c>
       <c r="I28" t="n">
-        <v>2.157894736842105</v>
+        <v>2.066048193919031</v>
       </c>
       <c r="J28" t="n">
-        <v>1.368421052631579</v>
+        <v>1.825071405055688</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>team_season_passes_inside_box_pg</t>
+          <t>team_season_op_passes_conceded_pg</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.224331983805668</v>
+        <v>379.5404183535762</v>
       </c>
       <c r="C29" t="n">
-        <v>1.572925557136083</v>
+        <v>427.0165955429113</v>
       </c>
       <c r="D29" t="n">
-        <v>1.414136844375292</v>
+        <v>1.389491136971656</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4920406174063168</v>
+        <v>39.80374757206337</v>
       </c>
       <c r="F29" t="n">
-        <v>0.275711658123833</v>
+        <v>24.72604431542254</v>
       </c>
       <c r="G29" t="n">
-        <v>1.394736842105263</v>
+        <v>318.8684210526316</v>
       </c>
       <c r="H29" t="n">
-        <v>1.131578947368421</v>
+        <v>378.972972972973</v>
       </c>
       <c r="I29" t="n">
-        <v>2.564102564102564</v>
+        <v>428.8717948717949</v>
       </c>
       <c r="J29" t="n">
-        <v>2.026315789473684</v>
+        <v>462.2368421052632</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>team_season_deep_completions_pg</t>
+          <t>team_season_opp_final_third_pass_ratio</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.371754385964913</v>
+        <v>0.5849607651107553</v>
       </c>
       <c r="C30" t="n">
-        <v>2.38819345661451</v>
+        <v>0.6178172313999398</v>
       </c>
       <c r="D30" t="n">
-        <v>1.411843071852602</v>
+        <v>1.387035106834887</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7064431939659027</v>
+        <v>0.01492266790690864</v>
       </c>
       <c r="F30" t="n">
-        <v>0.40367721144244</v>
+        <v>0.02118564007098061</v>
       </c>
       <c r="G30" t="n">
-        <v>2.368421052631579</v>
+        <v>0.5682683158896289</v>
       </c>
       <c r="H30" t="n">
-        <v>1.789473684210526</v>
+        <v>0.5643170051772203</v>
       </c>
       <c r="I30" t="n">
-        <v>4.358974358974359</v>
+        <v>0.6055701919458035</v>
       </c>
       <c r="J30" t="n">
-        <v>3.131578947368421</v>
+        <v>0.6498266468548787</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_direct_free_kick_conceded</t>
+          <t>team_season_defensive_distance_ppda</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.06865436946840503</v>
+        <v>6.100330299537314</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04868069688139951</v>
+        <v>4.841992817539686</v>
       </c>
       <c r="D31" t="n">
-        <v>1.410299643730805</v>
+        <v>1.366937289617386</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03429895263820037</v>
+        <v>1.022190935924643</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01053777744718556</v>
+        <v>0.6985208736947924</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0432929566928319</v>
+        <v>4.637701411333701</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0351177180806796</v>
+        <v>3.693345540060551</v>
       </c>
       <c r="I31" t="n">
-        <v>0.123735085129738</v>
+        <v>7.49487399914296</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0689270636614631</v>
+        <v>6.24798606882488</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_defensive_action_pg</t>
+          <t>team_season_fhalf_counterpressures_ratio</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2334514962476597</v>
+        <v>0.7367914450050373</v>
       </c>
       <c r="C32" t="n">
-        <v>0.326699207409697</v>
+        <v>0.6952144699430729</v>
       </c>
       <c r="D32" t="n">
-        <v>1.399430771105937</v>
+        <v>1.362763122715552</v>
       </c>
       <c r="E32" t="n">
-        <v>0.069059278231714</v>
+        <v>0.02208862322275619</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07742141651197322</v>
+        <v>0.02696866410642184</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1548089453166253</v>
+        <v>0.712082262210797</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2191494184203054</v>
+        <v>0.6461937716262975</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2975196187647107</v>
+        <v>0.7657873701039168</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5042453241583548</v>
+        <v>0.7398805573988055</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_goals_pg_conceded</t>
+          <t>team_season_high_press_shots_pg</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1854723346828609</v>
+        <v>2.729993252361674</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2594120436225699</v>
+        <v>2.116548127074443</v>
       </c>
       <c r="D33" t="n">
-        <v>1.398656268958594</v>
+        <v>1.348084373960931</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07668880055948207</v>
+        <v>0.5745392592983078</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1060573747714544</v>
+        <v>0.3173369792434441</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0789473684210526</v>
+        <v>1.923076923076923</v>
       </c>
       <c r="H33" t="n">
-        <v>0.157894736842105</v>
+        <v>1.68421052631579</v>
       </c>
       <c r="I33" t="n">
-        <v>0.263157894736842</v>
+        <v>3.157894736842105</v>
       </c>
       <c r="J33" t="n">
-        <v>0.594594594594595</v>
+        <v>2.736842105263158</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_xg_conceded_pg</t>
+          <t>team_season_passes_inside_box_conceded_pg</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.5977293458969587</v>
+        <v>1.296167341430499</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8312676044235747</v>
+        <v>1.889236605026078</v>
       </c>
       <c r="D34" t="n">
-        <v>1.390709039349852</v>
+        <v>1.344145471448391</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1341107319990624</v>
+        <v>0.3264450880106425</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1338691556320369</v>
+        <v>0.3917283364360866</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4599138557126647</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5783345022876012</v>
+        <v>1.105263157894737</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7442681512389427</v>
+        <v>1.82051282051282</v>
       </c>
       <c r="J34" t="n">
-        <v>1.014662309071502</v>
+        <v>2.368421052631579</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>team_season_penalties_won_pg</t>
+          <t>team_season_np_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.13889338731444</v>
+        <v>9.32165991902834</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1003319108582266</v>
+        <v>11.3814604077762</v>
       </c>
       <c r="D35" t="n">
-        <v>1.384339101352334</v>
+        <v>1.331205048450244</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1125327820782731</v>
+        <v>1.518472680797422</v>
       </c>
       <c r="F35" t="n">
-        <v>0.05813747338549872</v>
+        <v>1.274770075888047</v>
       </c>
       <c r="G35" t="n">
-        <v>0.05263157894736842</v>
+        <v>6.631578947368421</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02631578947368421</v>
+        <v>9.789473684210526</v>
       </c>
       <c r="I35" t="n">
-        <v>0.3333333333333333</v>
+        <v>10.28205128205128</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2368421052631579</v>
+        <v>14.73684210526316</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xg_conceded_pg</t>
+          <t>team_season_free_kicks_pg</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.7900890802792631</v>
+        <v>13.49228744939271</v>
       </c>
       <c r="C36" t="n">
-        <v>1.087084305786557</v>
+        <v>15.48022759601707</v>
       </c>
       <c r="D36" t="n">
-        <v>1.37590093689476</v>
+        <v>1.322441977111149</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1829564401914798</v>
+        <v>1.198719092853263</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1627320881483028</v>
+        <v>1.326297479894936</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5859373945154642</v>
+        <v>12.10526315789474</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7920600203307051</v>
+        <v>13.71052631578947</v>
       </c>
       <c r="I36" t="n">
-        <v>0.997960987381446</v>
+        <v>15.31578947368421</v>
       </c>
       <c r="J36" t="n">
-        <v>1.329671054273038</v>
+        <v>18.60526315789474</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_throw_ins_pg</t>
+          <t>team_season_opp_passing_ratio</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.05631578947368421</v>
+        <v>0.7626498666686146</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07743006164058795</v>
+        <v>0.7883165369442861</v>
       </c>
       <c r="D37" t="n">
-        <v>1.374926328197356</v>
+        <v>1.320659416046413</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0678518836609824</v>
+        <v>0.02225153593196714</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06084889594492069</v>
+        <v>0.01488825129394662</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.7356871571247714</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.7607106135039415</v>
       </c>
       <c r="I37" t="n">
-        <v>0.15</v>
+        <v>0.7951323883391281</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.8083983849259758</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>team_season_opposition_own_goals_pg</t>
+          <t>team_season_op_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0360391363022942</v>
+        <v>6.742408906882591</v>
       </c>
       <c r="C38" t="n">
-        <v>0.02636320531057373</v>
+        <v>8.130678046467519</v>
       </c>
       <c r="D38" t="n">
-        <v>1.367024073049253</v>
+        <v>1.311458228215239</v>
       </c>
       <c r="E38" t="n">
-        <v>0.02324157881258421</v>
+        <v>1.032270146253836</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02436437892030772</v>
+        <v>0.883244894642514</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>4.921052631578948</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.631578947368421</v>
       </c>
       <c r="I38" t="n">
-        <v>0.05263157894736842</v>
+        <v>7.435897435897436</v>
       </c>
       <c r="J38" t="n">
-        <v>0.07894736842105263</v>
+        <v>9.868421052631579</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_free_kicks_conceded_pg</t>
+          <t>team_season_deep_progressions_pg</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.06682186234817813</v>
+        <v>43.27894736842105</v>
       </c>
       <c r="C39" t="n">
-        <v>0.04935988620199147</v>
+        <v>37.10820293978188</v>
       </c>
       <c r="D39" t="n">
-        <v>1.35376856572822</v>
+        <v>1.309166798839535</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02229688142468864</v>
+        <v>4.621179817549691</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01714109907273685</v>
+        <v>3.929064734895229</v>
       </c>
       <c r="G39" t="n">
-        <v>0.05128205128205128</v>
+        <v>37.71052631578947</v>
       </c>
       <c r="H39" t="n">
-        <v>0.02631578947368421</v>
+        <v>31.42105263157895</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1025641025641026</v>
+        <v>49.18421052631579</v>
       </c>
       <c r="J39" t="n">
-        <v>0.08108108108108109</v>
+        <v>42.02702702702702</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_xg_pg</t>
+          <t>team_season_shots_in_clear_conceded_pg</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.184142127699494</v>
+        <v>1.631322537112011</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1361979098304321</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D40" t="n">
-        <v>1.352018749250652</v>
+        <v>1.275257679902617</v>
       </c>
       <c r="E40" t="n">
-        <v>0.06784290162835575</v>
+        <v>0.3480861117648543</v>
       </c>
       <c r="F40" t="n">
-        <v>0.03540053570582404</v>
+        <v>0.3746561212732519</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1406909122537726</v>
+        <v>1.157894736842105</v>
       </c>
       <c r="H40" t="n">
-        <v>0.08344722318610079</v>
+        <v>1.447368421052632</v>
       </c>
       <c r="I40" t="n">
-        <v>0.3024551306213987</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1834849621093756</v>
+        <v>2.945945945945946</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_pass_conceded_pg</t>
+          <t>team_season_corner_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.5682314426708193</v>
+        <v>0.108784168199014</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7675023980915768</v>
+        <v>0.1616936215567599</v>
       </c>
       <c r="D41" t="n">
-        <v>1.350686252918596</v>
+        <v>1.255525216062833</v>
       </c>
       <c r="E41" t="n">
-        <v>0.09456802845783567</v>
+        <v>0.03692179416839327</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1165472794096365</v>
+        <v>0.03738516127983852</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4136851480916927</v>
+        <v>0.0651464965194464</v>
       </c>
       <c r="H41" t="n">
-        <v>0.6081617631548157</v>
+        <v>0.108240442154439</v>
       </c>
       <c r="I41" t="n">
-        <v>0.6650804212460151</v>
+        <v>0.151077713375577</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9656319129469527</v>
+        <v>0.242976974793955</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_goal_ratio_conceded</t>
+          <t>team_season_op_xg_pg</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.004507291741950387</v>
+        <v>0.9263577340634768</v>
       </c>
       <c r="C42" t="n">
-        <v>0.003338972907754803</v>
+        <v>0.719339235021961</v>
       </c>
       <c r="D42" t="n">
-        <v>1.349903657942881</v>
+        <v>1.250885260626456</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001729628342794826</v>
+        <v>0.179073667303241</v>
       </c>
       <c r="F42" t="n">
-        <v>0.001238199826097087</v>
+        <v>0.1359640387540423</v>
       </c>
       <c r="G42" t="n">
-        <v>0.00318979266347687</v>
+        <v>0.7049552894344455</v>
       </c>
       <c r="H42" t="n">
-        <v>0.00163132137030995</v>
+        <v>0.4760530807175918</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0072463768115942</v>
+        <v>1.200391620397568</v>
       </c>
       <c r="J42" t="n">
-        <v>0.00569259962049336</v>
+        <v>0.9085548697291194</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_corners_conceded_pg</t>
+          <t>team_season_shots_in_clear_pg</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.38970310391363</v>
+        <v>2.394041835357625</v>
       </c>
       <c r="C43" t="n">
-        <v>1.868847795163585</v>
+        <v>1.906021811284969</v>
       </c>
       <c r="D43" t="n">
-        <v>1.344782054455089</v>
+        <v>1.240764170584125</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3171548708235545</v>
+        <v>0.405655453686298</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4286202845257656</v>
+        <v>0.3319539022417608</v>
       </c>
       <c r="G43" t="n">
-        <v>0.868421052631579</v>
+        <v>2.051282051282051</v>
       </c>
       <c r="H43" t="n">
         <v>1.289473684210526</v>
       </c>
       <c r="I43" t="n">
-        <v>1.692307692307692</v>
+        <v>3.078947368421053</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_goal_ratio_conceded</t>
+          <t>team_season_total_dribbles_pg</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.004444633505581637</v>
+        <v>14.40067476383266</v>
       </c>
       <c r="C44" t="n">
-        <v>0.005949094163206931</v>
+        <v>16.59573257467995</v>
       </c>
       <c r="D44" t="n">
-        <v>1.338489249054162</v>
+        <v>1.237929151580874</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001845229106258275</v>
+        <v>0.6138148972704661</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002366761557351394</v>
+        <v>1.758793376709689</v>
       </c>
       <c r="G44" t="n">
-        <v>0.00172910662824207</v>
+        <v>13.82051282051282</v>
       </c>
       <c r="H44" t="n">
-        <v>0.00382409177820268</v>
+        <v>13.8421052631579</v>
       </c>
       <c r="I44" t="n">
-        <v>0.00624219725343321</v>
+        <v>15.10526315789474</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0134803921568627</v>
+        <v>19.86486486486486</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_throw_ins_pg</t>
+          <t>team_season_completed_dribbles_pg</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.005263157894736842</v>
+        <v>7.792827260458838</v>
       </c>
       <c r="C45" t="n">
-        <v>0.007017543859649122</v>
+        <v>9.055097202465623</v>
       </c>
       <c r="D45" t="n">
-        <v>1.333333333333333</v>
+        <v>1.233298103543762</v>
       </c>
       <c r="E45" t="n">
-        <v>0.01176877882894626</v>
+        <v>0.1645542790182732</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01204572916360693</v>
+        <v>1.030513332148581</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>7.564102564102564</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>7.631578947368421</v>
       </c>
       <c r="I45" t="n">
-        <v>0.02631578947368421</v>
+        <v>7.948717948717949</v>
       </c>
       <c r="J45" t="n">
-        <v>0.02631578947368421</v>
+        <v>10.81578947368421</v>
       </c>
     </row>
     <row r="46">
@@ -1989,7 +1990,7 @@
         <v>0.2558167033334209</v>
       </c>
       <c r="D46" t="n">
-        <v>1.329886964330108</v>
+        <v>1.232448344697513</v>
       </c>
       <c r="E46" t="n">
         <v>0.05455468276913738</v>
@@ -2013,1633 +2014,1633 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_in_clear_conceded_pg</t>
+          <t>team_season_op_shots_pg</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.631322537112011</v>
+        <v>8.93448717948718</v>
       </c>
       <c r="C47" t="n">
-        <v>2.166666666666667</v>
+        <v>7.387434803224278</v>
       </c>
       <c r="D47" t="n">
-        <v>1.328165716696586</v>
+        <v>1.219454560300107</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3480861117648543</v>
+        <v>1.433330950994448</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3746561212732519</v>
+        <v>1.034967373787691</v>
       </c>
       <c r="G47" t="n">
-        <v>1.157894736842105</v>
+        <v>7.394736842105263</v>
       </c>
       <c r="H47" t="n">
-        <v>1.447368421052632</v>
+        <v>5.605263157894737</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>10.60526315789474</v>
       </c>
       <c r="J47" t="n">
-        <v>2.945945945945946</v>
+        <v>9.210526315789474</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_conceded_pg</t>
+          <t>team_season_np_xg_pg</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.28333636030282</v>
+        <v>1.198259010744682</v>
       </c>
       <c r="C48" t="n">
-        <v>1.681695000403559</v>
+        <v>0.9483543925562272</v>
       </c>
       <c r="D48" t="n">
-        <v>1.310408597794845</v>
+        <v>1.198328417370628</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1466826074388953</v>
+        <v>0.2466963656795867</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2579679755219159</v>
+        <v>0.1673709137930843</v>
       </c>
       <c r="G48" t="n">
-        <v>1.098902865067909</v>
+        <v>0.9753675176516959</v>
       </c>
       <c r="H48" t="n">
-        <v>1.313067628364814</v>
+        <v>0.6468112778996951</v>
       </c>
       <c r="I48" t="n">
-        <v>1.439224595060715</v>
+        <v>1.620399290793821</v>
       </c>
       <c r="J48" t="n">
-        <v>2.246413158403861</v>
+        <v>1.191629360380926</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>team_season_high_press_shots_pg</t>
+          <t>team_season_corners_pg</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.729993252361674</v>
+        <v>5.026929824561404</v>
       </c>
       <c r="C49" t="n">
-        <v>2.116548127074443</v>
+        <v>4.258274063537222</v>
       </c>
       <c r="D49" t="n">
-        <v>1.289832826119174</v>
+        <v>1.192174334734396</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5745392592983078</v>
+        <v>0.6679799811951361</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3173369792434441</v>
+        <v>0.5550851173680891</v>
       </c>
       <c r="G49" t="n">
-        <v>1.923076923076923</v>
+        <v>4.447368421052632</v>
       </c>
       <c r="H49" t="n">
-        <v>1.68421052631579</v>
+        <v>3.5</v>
       </c>
       <c r="I49" t="n">
-        <v>3.157894736842105</v>
+        <v>6.078947368421052</v>
       </c>
       <c r="J49" t="n">
-        <v>2.736842105263158</v>
+        <v>5.368421052631579</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_xg_pg</t>
+          <t>team_season_obv_pass_pg</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9263577340634768</v>
+        <v>0.8443029695672364</v>
       </c>
       <c r="C50" t="n">
-        <v>0.719339235021961</v>
+        <v>0.6735646379856113</v>
       </c>
       <c r="D50" t="n">
-        <v>1.287789806203461</v>
+        <v>1.172425372237177</v>
       </c>
       <c r="E50" t="n">
-        <v>0.179073667303241</v>
+        <v>0.1605770727198498</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1359640387540423</v>
+        <v>0.1229673944114415</v>
       </c>
       <c r="G50" t="n">
-        <v>0.7049552894344455</v>
+        <v>0.7220030819997192</v>
       </c>
       <c r="H50" t="n">
-        <v>0.4760530807175918</v>
+        <v>0.4820912465251781</v>
       </c>
       <c r="I50" t="n">
-        <v>1.200391620397568</v>
+        <v>1.126052873699289</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9085548697291194</v>
+        <v>0.910578160693771</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_direct_free_kick</t>
+          <t>team_season_ppda</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.06321697770194575</v>
+        <v>7.588421398550244</v>
       </c>
       <c r="C51" t="n">
-        <v>0.04950892436289932</v>
+        <v>9.033037926145138</v>
       </c>
       <c r="D51" t="n">
-        <v>1.27688045166497</v>
+        <v>1.148823375324149</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01732421443059217</v>
+        <v>1.152785170561273</v>
       </c>
       <c r="F51" t="n">
-        <v>0.01318992415958484</v>
+        <v>1.149014114370752</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0354030542075634</v>
+        <v>6.153729071537291</v>
       </c>
       <c r="H51" t="n">
-        <v>0.03328370716836718</v>
+        <v>7.187308868501529</v>
       </c>
       <c r="I51" t="n">
-        <v>0.08085437119007111</v>
+        <v>9.37046004842615</v>
       </c>
       <c r="J51" t="n">
-        <v>0.07938470840454101</v>
+        <v>11.08775137111517</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_sp_conceded</t>
+          <t>team_season_obv_defensive_action_pg</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.004629527621200208</v>
+        <v>0.2334514962476597</v>
       </c>
       <c r="C52" t="n">
-        <v>0.00587135420291127</v>
+        <v>0.326699207409697</v>
       </c>
       <c r="D52" t="n">
-        <v>1.268240452011628</v>
+        <v>1.132458890262349</v>
       </c>
       <c r="E52" t="n">
-        <v>0.001492668237117839</v>
+        <v>0.069059278231714</v>
       </c>
       <c r="F52" t="n">
-        <v>0.000846746815264595</v>
+        <v>0.07742141651197322</v>
       </c>
       <c r="G52" t="n">
-        <v>0.00276016982900306</v>
+        <v>0.1548089453166253</v>
       </c>
       <c r="H52" t="n">
-        <v>0.00441149846812035</v>
+        <v>0.2191494184203054</v>
       </c>
       <c r="I52" t="n">
-        <v>0.00664812021338836</v>
+        <v>0.2975196187647107</v>
       </c>
       <c r="J52" t="n">
-        <v>0.00737751254185974</v>
+        <v>0.5042453241583548</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xg_pg</t>
+          <t>team_season_sp_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1.198259010744682</v>
+        <v>2.579251012145749</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9483543925562272</v>
+        <v>3.250782361308677</v>
       </c>
       <c r="D53" t="n">
-        <v>1.263513956544086</v>
+        <v>1.126187753947558</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2466963656795867</v>
+        <v>0.4956987809816248</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1673709137930843</v>
+        <v>0.5629780946025184</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9753675176516959</v>
+        <v>1.710526315789474</v>
       </c>
       <c r="H53" t="n">
-        <v>0.6468112778996951</v>
+        <v>2.473684210526316</v>
       </c>
       <c r="I53" t="n">
-        <v>1.620399290793821</v>
+        <v>2.868421052631579</v>
       </c>
       <c r="J53" t="n">
-        <v>1.191629360380926</v>
+        <v>4.868421052631579</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kicks_conceded_pg</t>
+          <t>team_season_xg_per_sp_conceded</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.4427597840755736</v>
+        <v>0.004629527621200208</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5581792318634424</v>
+        <v>0.00587135420291127</v>
       </c>
       <c r="D54" t="n">
-        <v>1.260681868451196</v>
+        <v>1.116703655059175</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1482994740231086</v>
+        <v>0.001492668237117839</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1184953111088033</v>
+        <v>0.000846746815264595</v>
       </c>
       <c r="G54" t="n">
-        <v>0.210526315789474</v>
+        <v>0.00276016982900306</v>
       </c>
       <c r="H54" t="n">
-        <v>0.421052631578947</v>
+        <v>0.00441149846812035</v>
       </c>
       <c r="I54" t="n">
-        <v>0.58974358974359</v>
+        <v>0.00664812021338836</v>
       </c>
       <c r="J54" t="n">
-        <v>0.815789473684211</v>
+        <v>0.00737751254185974</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kicks_pg</t>
+          <t>team_season_high_press_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.442523616734143</v>
+        <v>1.954952766531714</v>
       </c>
       <c r="C55" t="n">
-        <v>0.557799905168326</v>
+        <v>2.380654338549076</v>
       </c>
       <c r="D55" t="n">
-        <v>1.260497483241529</v>
+        <v>1.114750725440961</v>
       </c>
       <c r="E55" t="n">
-        <v>0.06032313941335434</v>
+        <v>0.3843383878365977</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2208390503393319</v>
+        <v>0.3429086287987191</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4102564102564102</v>
+        <v>1.289473684210526</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2631578947368421</v>
+        <v>1.868421052631579</v>
       </c>
       <c r="I55" t="n">
-        <v>0.55</v>
+        <v>2.282051282051282</v>
       </c>
       <c r="J55" t="n">
-        <v>1.105263157894737</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shots_conceded_pg</t>
+          <t>team_season_shots_from_corners_conceded_pg</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2.579251012145749</v>
+        <v>1.38970310391363</v>
       </c>
       <c r="C56" t="n">
-        <v>3.250782361308677</v>
+        <v>1.868847795163585</v>
       </c>
       <c r="D56" t="n">
-        <v>1.260359052298777</v>
+        <v>1.09416476225492</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4956987809816248</v>
+        <v>0.3171548708235545</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5629780946025184</v>
+        <v>0.4286202845257656</v>
       </c>
       <c r="G56" t="n">
-        <v>1.710526315789474</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="H56" t="n">
-        <v>2.473684210526316</v>
+        <v>1.289473684210526</v>
       </c>
       <c r="I56" t="n">
-        <v>2.868421052631579</v>
+        <v>1.692307692307692</v>
       </c>
       <c r="J56" t="n">
-        <v>4.868421052631579</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>team_season_defensive_distance_ppda</t>
+          <t>team_season_shots_from_corners_pg</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>6.100330299537314</v>
+        <v>2.057267206477733</v>
       </c>
       <c r="C57" t="n">
-        <v>4.841992817539686</v>
+        <v>1.643243243243243</v>
       </c>
       <c r="D57" t="n">
-        <v>1.259880080251134</v>
+        <v>1.084627885343685</v>
       </c>
       <c r="E57" t="n">
-        <v>1.022190935924643</v>
+        <v>0.4467010645263259</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6985208736947924</v>
+        <v>0.3243921432709231</v>
       </c>
       <c r="G57" t="n">
-        <v>4.637701411333701</v>
+        <v>1.675</v>
       </c>
       <c r="H57" t="n">
-        <v>3.693345540060551</v>
+        <v>1.18421052631579</v>
       </c>
       <c r="I57" t="n">
-        <v>7.49487399914296</v>
+        <v>2.815789473684211</v>
       </c>
       <c r="J57" t="n">
-        <v>6.24798606882488</v>
+        <v>2.263157894736842</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_in_clear_pg</t>
+          <t>team_season_np_shots_pg</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.394041835357625</v>
+        <v>12.17318488529015</v>
       </c>
       <c r="C58" t="n">
-        <v>1.906021811284969</v>
+        <v>10.41626363205311</v>
       </c>
       <c r="D58" t="n">
-        <v>1.256041153980106</v>
+        <v>1.084617286398776</v>
       </c>
       <c r="E58" t="n">
-        <v>0.405655453686298</v>
+        <v>1.723216636808567</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3319539022417608</v>
+        <v>1.439871460933991</v>
       </c>
       <c r="G58" t="n">
-        <v>2.051282051282051</v>
+        <v>10.68421052631579</v>
       </c>
       <c r="H58" t="n">
-        <v>1.289473684210526</v>
+        <v>8.342105263157896</v>
       </c>
       <c r="I58" t="n">
-        <v>3.078947368421053</v>
+        <v>14.73684210526316</v>
       </c>
       <c r="J58" t="n">
-        <v>2.5</v>
+        <v>13.18421052631579</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>team_season_red_cards_pg</t>
+          <t>team_season_obv_shot_pg</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.06195006747638328</v>
+        <v>0.09642829212781127</v>
       </c>
       <c r="C59" t="n">
-        <v>0.07771455666192507</v>
+        <v>-0.02045183753932134</v>
       </c>
       <c r="D59" t="n">
-        <v>1.254470896122132</v>
+        <v>1.058225394707871</v>
       </c>
       <c r="E59" t="n">
-        <v>0.05315593370575416</v>
+        <v>0.1060999402038555</v>
       </c>
       <c r="F59" t="n">
-        <v>0.04704583675149276</v>
+        <v>0.1027212007109014</v>
       </c>
       <c r="G59" t="n">
-        <v>0.025</v>
+        <v>-0.02389112198725343</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>-0.295749404945889</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.2425509344499845</v>
       </c>
       <c r="J59" t="n">
-        <v>0.1891891891891892</v>
+        <v>0.08254975614775169</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_pass_pg</t>
+          <t>team_season_op_shots_outside_box_pg</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.8443029695672364</v>
+        <v>3.72966261808367</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6735646379856113</v>
+        <v>3.208345187292556</v>
       </c>
       <c r="D60" t="n">
-        <v>1.253484702065479</v>
+        <v>1.044559566749226</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1605770727198498</v>
+        <v>0.5347406726330466</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1229673944114415</v>
+        <v>0.4487009935122658</v>
       </c>
       <c r="G60" t="n">
-        <v>0.7220030819997192</v>
+        <v>3.128205128205128</v>
       </c>
       <c r="H60" t="n">
-        <v>0.4820912465251781</v>
+        <v>2.368421052631579</v>
       </c>
       <c r="I60" t="n">
-        <v>1.126052873699289</v>
+        <v>4.435897435897436</v>
       </c>
       <c r="J60" t="n">
-        <v>0.910578160693771</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_corners_pg</t>
+          <t>team_season_obv_shot_conceded_pg</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2.057267206477733</v>
+        <v>-0.08066632457957296</v>
       </c>
       <c r="C61" t="n">
-        <v>1.643243243243243</v>
+        <v>0.04107616597335236</v>
       </c>
       <c r="D61" t="n">
-        <v>1.251955372363094</v>
+        <v>1.035897733095005</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4467010645263259</v>
+        <v>0.07668061557260533</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3243921432709231</v>
+        <v>0.1186642645224556</v>
       </c>
       <c r="G61" t="n">
-        <v>1.675</v>
+        <v>-0.1653020683676004</v>
       </c>
       <c r="H61" t="n">
-        <v>1.18421052631579</v>
+        <v>-0.09471209773695782</v>
       </c>
       <c r="I61" t="n">
-        <v>2.815789473684211</v>
+        <v>0.007248228941208277</v>
       </c>
       <c r="J61" t="n">
-        <v>2.263157894736842</v>
+        <v>0.2778484193054405</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_corner_conceded</t>
+          <t>team_season_sp_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02772124220138026</v>
+        <v>0.06190606423036943</v>
       </c>
       <c r="C62" t="n">
-        <v>0.03462465457712586</v>
+        <v>0.07456103785302214</v>
       </c>
       <c r="D62" t="n">
-        <v>1.249029690862911</v>
+        <v>1.034132839963143</v>
       </c>
       <c r="E62" t="n">
-        <v>0.008086417029458056</v>
+        <v>0.01431008328975958</v>
       </c>
       <c r="F62" t="n">
-        <v>0.006423508822120294</v>
+        <v>0.01060778150605305</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0186132846918321</v>
+        <v>0.037463976945245</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0250801051535257</v>
+        <v>0.0609993510707333</v>
       </c>
       <c r="I62" t="n">
-        <v>0.036309326396269</v>
+        <v>0.074</v>
       </c>
       <c r="J62" t="n">
-        <v>0.0450396374958317</v>
+        <v>0.106998264893002</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>team_season_counter_attacking_shots_conceded_pg</t>
+          <t>team_season_goals_from_corners_conceded_pg</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.8637989203778677</v>
+        <v>0.07734143049932524</v>
       </c>
       <c r="C63" t="n">
-        <v>1.073352299668089</v>
+        <v>0.1694642010431484</v>
       </c>
       <c r="D63" t="n">
-        <v>1.242595092847016</v>
+        <v>1.033146897297732</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2611537516593461</v>
+        <v>0.05535849007509802</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2196174532407412</v>
+        <v>0.09060613990067799</v>
       </c>
       <c r="G63" t="n">
-        <v>0.4736842105263158</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="I63" t="n">
-        <v>1.205128205128205</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="J63" t="n">
-        <v>1.567567567567568</v>
+        <v>0.4324324324324325</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>team_season_successful_passes_pg</t>
+          <t>team_season_fhalf_pressures_pg</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>426.8917408906882</v>
+        <v>69.74803643724697</v>
       </c>
       <c r="C64" t="n">
-        <v>345.3349928876244</v>
+        <v>64.21958274063537</v>
       </c>
       <c r="D64" t="n">
-        <v>1.236167054259697</v>
+        <v>1.01956783689787</v>
       </c>
       <c r="E64" t="n">
-        <v>60.64238006532347</v>
+        <v>2.530211049380917</v>
       </c>
       <c r="F64" t="n">
-        <v>35.96492132828886</v>
+        <v>5.655689141422176</v>
       </c>
       <c r="G64" t="n">
-        <v>332.8157894736842</v>
+        <v>65.33333333333333</v>
       </c>
       <c r="H64" t="n">
-        <v>281.3783783783784</v>
+        <v>54.23684210526316</v>
       </c>
       <c r="I64" t="n">
-        <v>481.7179487179487</v>
+        <v>71.81578947368421</v>
       </c>
       <c r="J64" t="n">
-        <v>401.1052631578947</v>
+        <v>77.29729729729729</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_free_kicks_pg</t>
+          <t>team_season_pace_towards_goal</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.0624966261808367</v>
+        <v>2.65184141881265</v>
       </c>
       <c r="C65" t="n">
-        <v>0.05097202465623516</v>
+        <v>2.871442900712341</v>
       </c>
       <c r="D65" t="n">
-        <v>1.226096601073346</v>
+        <v>1.019483963450783</v>
       </c>
       <c r="E65" t="n">
-        <v>0.08461999053341351</v>
+        <v>0.2639877089735407</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0350487947528053</v>
+        <v>0.1829092865727852</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>2.262326863842777</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2.625415421407948</v>
       </c>
       <c r="I65" t="n">
-        <v>0.2105263157894737</v>
+        <v>2.993898212357507</v>
       </c>
       <c r="J65" t="n">
-        <v>0.1052631578947368</v>
+        <v>3.249054606472128</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_direct_free_kicks_conceded_pg</t>
+          <t>team_season_passing_ratio</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.4839271255060729</v>
+        <v>0.8018822021280114</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5933143669985774</v>
+        <v>0.7726256546226381</v>
       </c>
       <c r="D66" t="n">
-        <v>1.226040731604188</v>
+        <v>1.015931550794603</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1696721961106084</v>
+        <v>0.0332822208469228</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1322678407798334</v>
+        <v>0.02527787375848163</v>
       </c>
       <c r="G66" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.7458276817833344</v>
       </c>
       <c r="H66" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.729419183072935</v>
       </c>
       <c r="I66" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.8330666178958438</v>
       </c>
       <c r="J66" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8095668349720967</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_sp</t>
+          <t>team_season_corner_xg_pg</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.006476850575012275</v>
+        <v>0.184142127699494</v>
       </c>
       <c r="C67" t="n">
-        <v>0.005286324095655273</v>
+        <v>0.1361979098304321</v>
       </c>
       <c r="D67" t="n">
-        <v>1.22520875712775</v>
+        <v>1.015556083568278</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002308945534070532</v>
+        <v>0.06784290162835575</v>
       </c>
       <c r="F67" t="n">
-        <v>0.001148024273384705</v>
+        <v>0.03540053570582404</v>
       </c>
       <c r="G67" t="n">
-        <v>0.00513547446175337</v>
+        <v>0.1406909122537726</v>
       </c>
       <c r="H67" t="n">
-        <v>0.00340519909277706</v>
+        <v>0.08344722318610079</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0105907716099284</v>
+        <v>0.3024551306213987</v>
       </c>
       <c r="J67" t="n">
-        <v>0.00709348299906983</v>
+        <v>0.1834849621093756</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_passes_pg</t>
+          <t>team_season_xg_per_direct_free_kick_conceded</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>479.7142105263158</v>
+        <v>0.06865436946840503</v>
       </c>
       <c r="C68" t="n">
-        <v>392.76951161688</v>
+        <v>0.04868069688139951</v>
       </c>
       <c r="D68" t="n">
-        <v>1.221363156604285</v>
+        <v>1.014247979663471</v>
       </c>
       <c r="E68" t="n">
-        <v>58.57010077347938</v>
+        <v>0.03429895263820037</v>
       </c>
       <c r="F68" t="n">
-        <v>33.65149227652194</v>
+        <v>0.01053777744718556</v>
       </c>
       <c r="G68" t="n">
-        <v>390.421052631579</v>
+        <v>0.0432929566928319</v>
       </c>
       <c r="H68" t="n">
-        <v>331.4864864864865</v>
+        <v>0.0351177180806796</v>
       </c>
       <c r="I68" t="n">
-        <v>537.4358974358975</v>
+        <v>0.123735085129738</v>
       </c>
       <c r="J68" t="n">
-        <v>444.9736842105263</v>
+        <v>0.0689270636614631</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_shots_conceded_pg</t>
+          <t>team_season_goals_from_corners_pg</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>9.32165991902834</v>
+        <v>0.2075775978407557</v>
       </c>
       <c r="C69" t="n">
-        <v>11.3814604077762</v>
+        <v>0.1249407302038881</v>
       </c>
       <c r="D69" t="n">
-        <v>1.220969280862004</v>
+        <v>1.013380827760908</v>
       </c>
       <c r="E69" t="n">
-        <v>1.518472680797422</v>
+        <v>0.1064429188240036</v>
       </c>
       <c r="F69" t="n">
-        <v>1.274770075888047</v>
+        <v>0.06658266043932422</v>
       </c>
       <c r="G69" t="n">
-        <v>6.631578947368421</v>
+        <v>0.075</v>
       </c>
       <c r="H69" t="n">
-        <v>9.789473684210526</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I69" t="n">
-        <v>10.28205128205128</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="J69" t="n">
-        <v>14.73684210526316</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>team_season_high_press_shots_conceded_pg</t>
+          <t>team_season_shots_from_throw_ins_conceded_pg</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1.954952766531714</v>
+        <v>0.05143724696356274</v>
       </c>
       <c r="C70" t="n">
-        <v>2.380654338549076</v>
+        <v>0.07923186344238976</v>
       </c>
       <c r="D70" t="n">
-        <v>1.217755425760286</v>
+        <v>1.005420775644507</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3843383878365977</v>
+        <v>0.02553706551220515</v>
       </c>
       <c r="F70" t="n">
-        <v>0.3429086287987191</v>
+        <v>0.02642923311882962</v>
       </c>
       <c r="G70" t="n">
-        <v>1.289473684210526</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="H70" t="n">
-        <v>1.868421052631579</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I70" t="n">
-        <v>2.282051282051282</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>0.1081081081081081</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_pg</t>
+          <t>team_season_failed_dribbles_pg</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1.819633297045664</v>
+        <v>6.607847503373819</v>
       </c>
       <c r="C71" t="n">
-        <v>1.497479018401717</v>
+        <v>7.540635372214322</v>
       </c>
       <c r="D71" t="n">
-        <v>1.215131080092052</v>
+        <v>1.004713840243195</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2069125522598693</v>
+        <v>0.6724631728336077</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1907450000670585</v>
+        <v>0.9322507832009195</v>
       </c>
       <c r="G71" t="n">
-        <v>1.574891624482055</v>
+        <v>5.871794871794871</v>
       </c>
       <c r="H71" t="n">
-        <v>1.208470875985528</v>
+        <v>6.157894736842105</v>
       </c>
       <c r="I71" t="n">
-        <v>2.066048193919031</v>
+        <v>7.342105263157895</v>
       </c>
       <c r="J71" t="n">
-        <v>1.825071405055688</v>
+        <v>9.216216216216216</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shots_pg</t>
+          <t>team_season_xg_per_corner_conceded</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>8.93448717948718</v>
+        <v>0.02772124220138026</v>
       </c>
       <c r="C72" t="n">
-        <v>7.387434803224278</v>
+        <v>0.03462465457712586</v>
       </c>
       <c r="D72" t="n">
-        <v>1.20941672142916</v>
+        <v>0.9676509903417809</v>
       </c>
       <c r="E72" t="n">
-        <v>1.433330950994448</v>
+        <v>0.008086417029458056</v>
       </c>
       <c r="F72" t="n">
-        <v>1.034967373787691</v>
+        <v>0.006423508822120294</v>
       </c>
       <c r="G72" t="n">
-        <v>7.394736842105263</v>
+        <v>0.0186132846918321</v>
       </c>
       <c r="H72" t="n">
-        <v>5.605263157894737</v>
+        <v>0.0250801051535257</v>
       </c>
       <c r="I72" t="n">
-        <v>10.60526315789474</v>
+        <v>0.036309326396269</v>
       </c>
       <c r="J72" t="n">
-        <v>9.210526315789474</v>
+        <v>0.0450396374958317</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shots_conceded_pg</t>
+          <t>team_season_direct_free_kick_shot_ratio</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6.742408906882591</v>
+        <v>1.14659090909091</v>
       </c>
       <c r="C73" t="n">
-        <v>8.130678046467519</v>
+        <v>1.056138179559233</v>
       </c>
       <c r="D73" t="n">
-        <v>1.205901059807838</v>
+        <v>0.9670757561276255</v>
       </c>
       <c r="E73" t="n">
-        <v>1.032270146253836</v>
+        <v>0.07669402284725736</v>
       </c>
       <c r="F73" t="n">
-        <v>0.883244894642514</v>
+        <v>0.09287327012441843</v>
       </c>
       <c r="G73" t="n">
-        <v>4.921052631578948</v>
+        <v>1.04545454545455</v>
       </c>
       <c r="H73" t="n">
-        <v>6.631578947368421</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>7.435897435897436</v>
+        <v>1.25</v>
       </c>
       <c r="J73" t="n">
-        <v>9.868421052631579</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shot_ratio_conceded</t>
+          <t>team_season_sp_goal_ratio</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.06190606423036943</v>
+        <v>0.007887360278845181</v>
       </c>
       <c r="C74" t="n">
-        <v>0.07456103785302214</v>
+        <v>0.004878127662815072</v>
       </c>
       <c r="D74" t="n">
-        <v>1.204422196435556</v>
+        <v>0.9596570138643242</v>
       </c>
       <c r="E74" t="n">
-        <v>0.01431008328975958</v>
+        <v>0.005072319692396551</v>
       </c>
       <c r="F74" t="n">
-        <v>0.01060778150605305</v>
+        <v>0.002066488544685695</v>
       </c>
       <c r="G74" t="n">
-        <v>0.037463976945245</v>
+        <v>0.00409836065573771</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0609993510707333</v>
+        <v>0.00109769484083425</v>
       </c>
       <c r="I74" t="n">
-        <v>0.074</v>
+        <v>0.0165892501658925</v>
       </c>
       <c r="J74" t="n">
-        <v>0.106998264893002</v>
+        <v>0.008426966292134829</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>team_season_corners_conceded_pg</t>
+          <t>team_season_np_xg_per_shot_conceded</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3.882739541160594</v>
+        <v>0.0848334225557235</v>
       </c>
       <c r="C75" t="n">
-        <v>4.649122807017545</v>
+        <v>0.09547303011152364</v>
       </c>
       <c r="D75" t="n">
-        <v>1.197382095227503</v>
+        <v>0.9595633083807008</v>
       </c>
       <c r="E75" t="n">
-        <v>0.297966564822842</v>
+        <v>0.01307283235038108</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4486973053369678</v>
+        <v>0.009822570070924588</v>
       </c>
       <c r="G75" t="n">
-        <v>3.5</v>
+        <v>0.0656268838892646</v>
       </c>
       <c r="H75" t="n">
-        <v>3.86842105263158</v>
+        <v>0.08069243955228668</v>
       </c>
       <c r="I75" t="n">
-        <v>4.25641025641026</v>
+        <v>0.09878294116954513</v>
       </c>
       <c r="J75" t="n">
-        <v>5.44736842105263</v>
+        <v>0.1118132331154563</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>team_season_deep_progressions_conceded_pg</t>
+          <t>team_season_obv_gk_pg</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>33.75834008097166</v>
+        <v>-0.03576468206818689</v>
       </c>
       <c r="C76" t="n">
-        <v>40.34286391654813</v>
+        <v>-0.1159699449991</v>
       </c>
       <c r="D76" t="n">
-        <v>1.195048803341131</v>
+        <v>0.9537742800839926</v>
       </c>
       <c r="E76" t="n">
-        <v>3.021653363500962</v>
+        <v>0.0781889872652423</v>
       </c>
       <c r="F76" t="n">
-        <v>3.529883968686681</v>
+        <v>0.08143954020406399</v>
       </c>
       <c r="G76" t="n">
-        <v>30.02631578947368</v>
+        <v>-0.1605986437613243</v>
       </c>
       <c r="H76" t="n">
-        <v>34.39473684210526</v>
+        <v>-0.2611667311897403</v>
       </c>
       <c r="I76" t="n">
-        <v>38.30769230769231</v>
+        <v>0.0379026513798414</v>
       </c>
       <c r="J76" t="n">
-        <v>46.26315789473684</v>
+        <v>0.01263494980766585</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>team_season_ppda</t>
+          <t>team_season_op_shot_distance_conceded</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>7.588421398550244</v>
+        <v>18.85510597164794</v>
       </c>
       <c r="C77" t="n">
-        <v>9.033037926145138</v>
+        <v>18.0609062942218</v>
       </c>
       <c r="D77" t="n">
-        <v>1.190371152539168</v>
+        <v>0.9461321078995152</v>
       </c>
       <c r="E77" t="n">
-        <v>1.152785170561273</v>
+        <v>1.075360880564892</v>
       </c>
       <c r="F77" t="n">
-        <v>1.149014114370752</v>
+        <v>0.7122148745848672</v>
       </c>
       <c r="G77" t="n">
-        <v>6.153729071537291</v>
+        <v>17.93681196732955</v>
       </c>
       <c r="H77" t="n">
-        <v>7.187308868501529</v>
+        <v>16.80299068210133</v>
       </c>
       <c r="I77" t="n">
-        <v>9.37046004842615</v>
+        <v>20.57941664209905</v>
       </c>
       <c r="J77" t="n">
-        <v>11.08775137111517</v>
+        <v>18.92875992892976</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>team_season_passes_pg</t>
+          <t>team_season_corner_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>530.609048582996</v>
+        <v>0.01955765795831942</v>
       </c>
       <c r="C78" t="n">
-        <v>446.0417733522997</v>
+        <v>0.03630363835623288</v>
       </c>
       <c r="D78" t="n">
-        <v>1.189594966846081</v>
+        <v>0.9329703721246486</v>
       </c>
       <c r="E78" t="n">
-        <v>56.22635281031803</v>
+        <v>0.01420499044646966</v>
       </c>
       <c r="F78" t="n">
-        <v>32.76013440005144</v>
+        <v>0.01809631727425683</v>
       </c>
       <c r="G78" t="n">
-        <v>446.2368421052632</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>385.7567567567568</v>
+        <v>0.0165745856353591</v>
       </c>
       <c r="I78" t="n">
-        <v>588.3846153846154</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="J78" t="n">
-        <v>497.421052631579</v>
+        <v>0.0842105263157895</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_xg_pg</t>
+          <t>team_season_xg_per_direct_free_kick</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.2719012695304702</v>
+        <v>0.06321697770194575</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2290151557447049</v>
+        <v>0.04950892436289932</v>
       </c>
       <c r="D79" t="n">
-        <v>1.187263212542897</v>
+        <v>0.9304758013028117</v>
       </c>
       <c r="E79" t="n">
-        <v>0.08608677660169221</v>
+        <v>0.01732421443059217</v>
       </c>
       <c r="F79" t="n">
-        <v>0.04973530753037442</v>
+        <v>0.01318992415958484</v>
       </c>
       <c r="G79" t="n">
-        <v>0.2099419057082672</v>
+        <v>0.0354030542075634</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1632703541729011</v>
+        <v>0.03328370716836718</v>
       </c>
       <c r="I79" t="n">
-        <v>0.4200076660827586</v>
+        <v>0.08085437119007111</v>
       </c>
       <c r="J79" t="n">
-        <v>0.3144126627594233</v>
+        <v>0.07938470840454101</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>team_season_corners_pg</t>
+          <t>team_season_aggression</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>5.026929824561404</v>
+        <v>0.1992610516322046</v>
       </c>
       <c r="C80" t="n">
-        <v>4.258274063537222</v>
+        <v>0.1830576700062442</v>
       </c>
       <c r="D80" t="n">
-        <v>1.180508757669224</v>
+        <v>0.9303281743535529</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6679799811951361</v>
+        <v>0.02148817883156271</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5550851173680891</v>
+        <v>0.01520197726148563</v>
       </c>
       <c r="G80" t="n">
-        <v>4.447368421052632</v>
+        <v>0.1786373103243082</v>
       </c>
       <c r="H80" t="n">
-        <v>3.5</v>
+        <v>0.1616696061140506</v>
       </c>
       <c r="I80" t="n">
-        <v>6.078947368421052</v>
+        <v>0.2234491489660993</v>
       </c>
       <c r="J80" t="n">
-        <v>5.368421052631579</v>
+        <v>0.2127028441807712</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_goal_ratio_conceded</t>
+          <t>team_season_crosses_into_box_pg</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.07627268298623797</v>
+        <v>9.229669365721998</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0647366843738061</v>
+        <v>8.201517306780465</v>
       </c>
       <c r="D81" t="n">
-        <v>1.178198786731493</v>
+        <v>0.9288558103133049</v>
       </c>
       <c r="E81" t="n">
-        <v>0.03323574253774159</v>
+        <v>0.6864835825988114</v>
       </c>
       <c r="F81" t="n">
-        <v>0.04544645737642762</v>
+        <v>1.154354345899143</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0434782608695652</v>
+        <v>8.394736842105264</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>6.27027027027027</v>
       </c>
       <c r="I81" t="n">
-        <v>0.125</v>
+        <v>9.925000000000001</v>
       </c>
       <c r="J81" t="n">
-        <v>0.157894736842105</v>
+        <v>10.44736842105263</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>team_season_penalty_goals_conceded_pg</t>
+          <t>team_season_sp_goals_pg</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.07774628879892037</v>
+        <v>0.3270377867746288</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0914651493598862</v>
+        <v>0.2110004741583689</v>
       </c>
       <c r="D82" t="n">
-        <v>1.176456790065539</v>
+        <v>0.9196330802807207</v>
       </c>
       <c r="E82" t="n">
-        <v>0.02731870356059875</v>
+        <v>0.1931508901577061</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0504762526336161</v>
+        <v>0.09207737303557217</v>
       </c>
       <c r="G82" t="n">
-        <v>0.05</v>
+        <v>0.175</v>
       </c>
       <c r="H82" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.657894736842105</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.394736842105263</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>team_season_counter_attacking_shots_pg</t>
+          <t>team_season_goals_from_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1.14504048582996</v>
+        <v>0.06682186234817813</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9773826458036985</v>
+        <v>0.04935988620199147</v>
       </c>
       <c r="D83" t="n">
-        <v>1.171537565912475</v>
+        <v>0.9174328195450633</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3341398801489797</v>
+        <v>0.02229688142468864</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1362596661640797</v>
+        <v>0.01714109907273685</v>
       </c>
       <c r="G83" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="H83" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I83" t="n">
-        <v>1.552631578947368</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="J83" t="n">
-        <v>1.236842105263158</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_shots_pg</t>
+          <t>team_season_throw_in_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>12.17318488529015</v>
+        <v>0.002298837912154342</v>
       </c>
       <c r="C84" t="n">
-        <v>10.41626363205311</v>
+        <v>0.003425164477637998</v>
       </c>
       <c r="D84" t="n">
-        <v>1.168670966413582</v>
+        <v>0.9010049832320025</v>
       </c>
       <c r="E84" t="n">
-        <v>1.723216636808567</v>
+        <v>0.001159481637723464</v>
       </c>
       <c r="F84" t="n">
-        <v>1.439871460933991</v>
+        <v>0.001228210644603983</v>
       </c>
       <c r="G84" t="n">
-        <v>10.68421052631579</v>
+        <v>0.00102564102564103</v>
       </c>
       <c r="H84" t="n">
-        <v>8.342105263157896</v>
+        <v>0.00134952766531714</v>
       </c>
       <c r="I84" t="n">
-        <v>14.73684210526316</v>
+        <v>0.00352112676056338</v>
       </c>
       <c r="J84" t="n">
-        <v>13.18421052631579</v>
+        <v>0.00516129032258065</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>team_season_deep_progressions_pg</t>
+          <t>team_season_direct_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>43.27894736842105</v>
+        <v>0.4427597840755736</v>
       </c>
       <c r="C85" t="n">
-        <v>37.10820293978188</v>
+        <v>0.5581792318634424</v>
       </c>
       <c r="D85" t="n">
-        <v>1.166290575662014</v>
+        <v>0.8924706468086049</v>
       </c>
       <c r="E85" t="n">
-        <v>4.621179817549691</v>
+        <v>0.1482994740231086</v>
       </c>
       <c r="F85" t="n">
-        <v>3.929064734895229</v>
+        <v>0.1184953111088033</v>
       </c>
       <c r="G85" t="n">
-        <v>37.71052631578947</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="H85" t="n">
-        <v>31.42105263157895</v>
+        <v>0.421052631578947</v>
       </c>
       <c r="I85" t="n">
-        <v>49.18421052631579</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="J85" t="n">
-        <v>42.02702702702702</v>
+        <v>0.815789473684211</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_free_kicks_pg</t>
+          <t>team_season_counter_attacking_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.6206410256410256</v>
+        <v>0.8637989203778677</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7220483641536272</v>
+        <v>1.073352299668089</v>
       </c>
       <c r="D86" t="n">
-        <v>1.163391291137842</v>
+        <v>0.8884155107890688</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1332698636203924</v>
+        <v>0.2611537516593461</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1843952456212761</v>
+        <v>0.2196174532407412</v>
       </c>
       <c r="G86" t="n">
-        <v>0.475</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="H86" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="I86" t="n">
-        <v>0.8157894736842105</v>
+        <v>1.205128205128205</v>
       </c>
       <c r="J86" t="n">
-        <v>1.026315789473684</v>
+        <v>1.567567567567568</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shots_outside_box_pg</t>
+          <t>team_season_throw_in_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>3.72966261808367</v>
+        <v>0.001864027887640594</v>
       </c>
       <c r="C87" t="n">
-        <v>3.208345187292556</v>
+        <v>0.004582985396324292</v>
       </c>
       <c r="D87" t="n">
-        <v>1.162487949506157</v>
+        <v>0.8869604275376458</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5347406726330466</v>
+        <v>0.0009172301422593595</v>
       </c>
       <c r="F87" t="n">
-        <v>0.4487009935122658</v>
+        <v>0.003347228088232239</v>
       </c>
       <c r="G87" t="n">
-        <v>3.128205128205128</v>
+        <v>0.000788165403431968</v>
       </c>
       <c r="H87" t="n">
-        <v>2.368421052631579</v>
+        <v>0.000561041267294633</v>
       </c>
       <c r="I87" t="n">
-        <v>4.435897435897436</v>
+        <v>0.00329413549043238</v>
       </c>
       <c r="J87" t="n">
-        <v>4</v>
+        <v>0.0110827645679054</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>team_season_completed_dribbles_pg</t>
+          <t>team_season_np_shot_distance_conceded</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7.792827260458838</v>
+        <v>17.85245527254049</v>
       </c>
       <c r="C88" t="n">
-        <v>9.055097202465623</v>
+        <v>17.27151297495019</v>
       </c>
       <c r="D88" t="n">
-        <v>1.161978432193871</v>
+        <v>0.8815906028027034</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1645542790182732</v>
+        <v>0.9600889255660366</v>
       </c>
       <c r="F88" t="n">
-        <v>1.030513332148581</v>
+        <v>0.5163166249893929</v>
       </c>
       <c r="G88" t="n">
-        <v>7.564102564102564</v>
+        <v>17.03692530071925</v>
       </c>
       <c r="H88" t="n">
-        <v>7.631578947368421</v>
+        <v>16.36988192471591</v>
       </c>
       <c r="I88" t="n">
-        <v>7.948717948717949</v>
+        <v>19.44913519385027</v>
       </c>
       <c r="J88" t="n">
-        <v>10.81578947368421</v>
+        <v>18.1710254168063</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_direct_free_kicks_pg</t>
+          <t>team_season_corner_goal_ratio</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.5044736842105262</v>
+        <v>0.04079142557975032</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5861071597913703</v>
+        <v>0.02816721422214759</v>
       </c>
       <c r="D89" t="n">
-        <v>1.161819096091397</v>
+        <v>0.8801320637606793</v>
       </c>
       <c r="E89" t="n">
-        <v>0.04254028501647244</v>
+        <v>0.01702207106361531</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2308010818054663</v>
+        <v>0.01297827923263622</v>
       </c>
       <c r="G89" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="H89" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="I89" t="n">
-        <v>0.575</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="J89" t="n">
-        <v>1.157894736842105</v>
+        <v>0.0446927374301676</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>team_season_penalty_goals_pg</t>
+          <t>team_season_free_kick_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.09798920377867745</v>
+        <v>0.004507291741950387</v>
       </c>
       <c r="C90" t="n">
-        <v>0.08449502133712659</v>
+        <v>0.003338972907754803</v>
       </c>
       <c r="D90" t="n">
-        <v>1.159703876370543</v>
+        <v>0.8415300499744354</v>
       </c>
       <c r="E90" t="n">
-        <v>0.07157314472401941</v>
+        <v>0.001729628342794826</v>
       </c>
       <c r="F90" t="n">
-        <v>0.04246562155179719</v>
+        <v>0.001238199826097087</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.00318979266347687</v>
       </c>
       <c r="H90" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.00163132137030995</v>
       </c>
       <c r="I90" t="n">
-        <v>0.2051282051282051</v>
+        <v>0.0072463768115942</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.00569259962049336</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>team_season_own_goals_pg</t>
+          <t>team_season_sp_shot_distance</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.02591767881241565</v>
+        <v>14.5469123781394</v>
       </c>
       <c r="C91" t="n">
-        <v>0.02987197724039829</v>
+        <v>15.60732250012961</v>
       </c>
       <c r="D91" t="n">
-        <v>1.15257147280058</v>
+        <v>0.8325119127004061</v>
       </c>
       <c r="E91" t="n">
-        <v>0.01861743604072793</v>
+        <v>1.568777523356743</v>
       </c>
       <c r="F91" t="n">
-        <v>0.01955025573884892</v>
+        <v>1.14603822414624</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>12.37917604871616</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>14.18405638622636</v>
       </c>
       <c r="I91" t="n">
-        <v>0.05263157894736842</v>
+        <v>16.71035899286685</v>
       </c>
       <c r="J91" t="n">
-        <v>0.05263157894736842</v>
+        <v>18.60080035665761</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>team_season_total_dribbles_pg</t>
+          <t>team_season_counter_attacking_shots_pg</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>14.40067476383266</v>
+        <v>1.14504048582996</v>
       </c>
       <c r="C92" t="n">
-        <v>16.59573257467995</v>
+        <v>0.9773826458036985</v>
       </c>
       <c r="D92" t="n">
-        <v>1.152427427661944</v>
+        <v>0.8321021669947412</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6138148972704661</v>
+        <v>0.3341398801489797</v>
       </c>
       <c r="F92" t="n">
-        <v>1.758793376709689</v>
+        <v>0.1362596661640797</v>
       </c>
       <c r="G92" t="n">
-        <v>13.82051282051282</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="H92" t="n">
-        <v>13.8421052631579</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="I92" t="n">
-        <v>15.10526315789474</v>
+        <v>1.552631578947368</v>
       </c>
       <c r="J92" t="n">
-        <v>19.86486486486486</v>
+        <v>1.236842105263158</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kicks_pg</t>
+          <t>team_season_xg_per_throw_in_conceded</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>13.49228744939271</v>
+        <v>8.339398868230323e-05</v>
       </c>
       <c r="C93" t="n">
-        <v>15.48022759601707</v>
+        <v>0.0001962899957342735</v>
       </c>
       <c r="D93" t="n">
-        <v>1.147339000453465</v>
+        <v>0.8316636981899359</v>
       </c>
       <c r="E93" t="n">
-        <v>1.198719092853263</v>
+        <v>4.077749054463114e-05</v>
       </c>
       <c r="F93" t="n">
-        <v>1.326297479894936</v>
+        <v>0.000149785346599824</v>
       </c>
       <c r="G93" t="n">
-        <v>12.10526315789474</v>
+        <v>3.0718241364528e-05</v>
       </c>
       <c r="H93" t="n">
-        <v>13.71052631578947</v>
+        <v>2.87713470407504e-05</v>
       </c>
       <c r="I93" t="n">
-        <v>15.31578947368421</v>
+        <v>0.000142295275599601</v>
       </c>
       <c r="J93" t="n">
-        <v>18.60526315789474</v>
+        <v>0.000522262680886397</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>team_season_successful_passes_conceded_pg</t>
+          <t>team_season_possessions</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>330.2283468286099</v>
+        <v>192.2685222672065</v>
       </c>
       <c r="C94" t="n">
-        <v>378.3987197724039</v>
+        <v>195.5511142721669</v>
       </c>
       <c r="D94" t="n">
-        <v>1.145869890960011</v>
+        <v>0.8265750028000006</v>
       </c>
       <c r="E94" t="n">
-        <v>37.69450564522851</v>
+        <v>2.896484125129153</v>
       </c>
       <c r="F94" t="n">
-        <v>24.51680657525147</v>
+        <v>4.152976802407943</v>
       </c>
       <c r="G94" t="n">
-        <v>275.2631578947368</v>
+        <v>187.875</v>
       </c>
       <c r="H94" t="n">
-        <v>330.3243243243243</v>
+        <v>186.6052631578947</v>
       </c>
       <c r="I94" t="n">
-        <v>381.1538461538461</v>
+        <v>195.2564102564102</v>
       </c>
       <c r="J94" t="n">
-        <v>413.4736842105263</v>
+        <v>201.3947368421053</v>
       </c>
     </row>
     <row r="95">
@@ -3655,7 +3656,7 @@
         <v>0.2859824589407454</v>
       </c>
       <c r="D95" t="n">
-        <v>1.143110517068355</v>
+        <v>0.809470529744429</v>
       </c>
       <c r="E95" t="n">
         <v>0.02486415393163433</v>
@@ -3679,307 +3680,307 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>team_season_possession</t>
+          <t>team_season_xg_per_sp</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.5508902683232708</v>
+        <v>0.006476850575012275</v>
       </c>
       <c r="C96" t="n">
-        <v>0.482601792532653</v>
+        <v>0.005286324095655273</v>
       </c>
       <c r="D96" t="n">
-        <v>1.141500667521863</v>
+        <v>0.7928792595405905</v>
       </c>
       <c r="E96" t="n">
-        <v>0.04289243894874804</v>
+        <v>0.002308945534070532</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02544229698377877</v>
+        <v>0.001148024273384705</v>
       </c>
       <c r="G96" t="n">
-        <v>0.4979002759028556</v>
+        <v>0.00513547446175337</v>
       </c>
       <c r="H96" t="n">
-        <v>0.4367541259571595</v>
+        <v>0.00340519909277706</v>
       </c>
       <c r="I96" t="n">
-        <v>0.6063871581500708</v>
+        <v>0.0105907716099284</v>
       </c>
       <c r="J96" t="n">
-        <v>0.5271755916827701</v>
+        <v>0.00709348299906983</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>team_season_failed_dribbles_pg</t>
+          <t>team_season_shots_from_direct_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6.607847503373819</v>
+        <v>0.4839271255060729</v>
       </c>
       <c r="C97" t="n">
-        <v>7.540635372214322</v>
+        <v>0.5933143669985774</v>
       </c>
       <c r="D97" t="n">
-        <v>1.141163649488618</v>
+        <v>0.7687403141572683</v>
       </c>
       <c r="E97" t="n">
-        <v>0.6724631728336077</v>
+        <v>0.1696721961106084</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9322507832009195</v>
+        <v>0.1322678407798334</v>
       </c>
       <c r="G97" t="n">
-        <v>5.871794871794871</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="H97" t="n">
-        <v>6.157894736842105</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="I97" t="n">
-        <v>7.342105263157895</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="J97" t="n">
-        <v>9.216216216216216</v>
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_corner</t>
+          <t>team_season_direct_free_kick_goals_pg</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.03613222334362541</v>
+        <v>0.05170040485829959</v>
       </c>
       <c r="C98" t="n">
-        <v>0.03166291025382578</v>
+        <v>0.02807017543859649</v>
       </c>
       <c r="D98" t="n">
-        <v>1.141152946901323</v>
+        <v>0.7586977586747119</v>
       </c>
       <c r="E98" t="n">
-        <v>0.009084068994120653</v>
+        <v>0.01887737899021421</v>
       </c>
       <c r="F98" t="n">
-        <v>0.005515590091867703</v>
+        <v>0.03368107754853602</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02734650254814546</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="H98" t="n">
-        <v>0.02072545593860103</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0.04975451845111269</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03915389168341428</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>team_season_successful_crosses_into_box_pg</t>
+          <t>team_season_np_xg_per_shot</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2.462327935222672</v>
+        <v>0.09798854132972043</v>
       </c>
       <c r="C99" t="n">
-        <v>2.159933617828355</v>
+        <v>0.09092886403635123</v>
       </c>
       <c r="D99" t="n">
-        <v>1.140001671763575</v>
+        <v>0.7537280824929902</v>
       </c>
       <c r="E99" t="n">
-        <v>0.419712240517863</v>
+        <v>0.008483835355882994</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5350340838034146</v>
+        <v>0.009560970246982832</v>
       </c>
       <c r="G99" t="n">
-        <v>1.763157894736842</v>
+        <v>0.08971453743505571</v>
       </c>
       <c r="H99" t="n">
-        <v>1.432432432432432</v>
+        <v>0.07201718143298866</v>
       </c>
       <c r="I99" t="n">
-        <v>2.815789473684211</v>
+        <v>0.1099556582314627</v>
       </c>
       <c r="J99" t="n">
-        <v>3.368421052631579</v>
+        <v>0.1084342309606006</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_goals_conceded_pg</t>
+          <t>team_season_obv_dribble_carry_conceded_pg</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.03104588394062078</v>
+        <v>0.6106592772459905</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0352773826458037</v>
+        <v>0.6562354241413471</v>
       </c>
       <c r="D100" t="n">
-        <v>1.136298219540993</v>
+        <v>0.7476996702898955</v>
       </c>
       <c r="E100" t="n">
-        <v>0.01207573726208192</v>
+        <v>0.07280130747816523</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0239460371334788</v>
+        <v>0.05689655069839145</v>
       </c>
       <c r="G100" t="n">
-        <v>0.025</v>
+        <v>0.513841051804392</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>0.550296938701256</v>
       </c>
       <c r="I100" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.7117111582595569</v>
       </c>
       <c r="J100" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.7179678330492032</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_xg_conceded_pg</t>
+          <t>team_season_sp_goals_pg_conceded</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.05507700850730248</v>
+        <v>0.1854723346828609</v>
       </c>
       <c r="C101" t="n">
-        <v>0.06250706889100051</v>
+        <v>0.2594120436225699</v>
       </c>
       <c r="D101" t="n">
-        <v>1.134903121739317</v>
+        <v>0.7366387990439274</v>
       </c>
       <c r="E101" t="n">
-        <v>0.02133193352978316</v>
+        <v>0.07668880055948207</v>
       </c>
       <c r="F101" t="n">
-        <v>0.02374189812715511</v>
+        <v>0.1060573747714544</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0340393848570162</v>
+        <v>0.0789473684210526</v>
       </c>
       <c r="H101" t="n">
-        <v>0.0281106775479489</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="I101" t="n">
-        <v>0.08493125004072979</v>
+        <v>0.263157894736842</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0990994850075559</v>
+        <v>0.594594594594595</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xg_per_shot_conceded</t>
+          <t>team_season_np_shot_distance</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.0848334225557235</v>
+        <v>17.01694276372657</v>
       </c>
       <c r="C102" t="n">
-        <v>0.09547303011152364</v>
+        <v>17.56506528806393</v>
       </c>
       <c r="D102" t="n">
-        <v>1.125417638888864</v>
+        <v>0.7309829368897441</v>
       </c>
       <c r="E102" t="n">
-        <v>0.01307283235038108</v>
+        <v>0.7645263134055762</v>
       </c>
       <c r="F102" t="n">
-        <v>0.009822570070924588</v>
+        <v>0.7454935304161213</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0656268838892646</v>
+        <v>15.78048793247768</v>
       </c>
       <c r="H102" t="n">
-        <v>0.08069243955228668</v>
+        <v>16.10360271610014</v>
       </c>
       <c r="I102" t="n">
-        <v>0.09878294116954513</v>
+        <v>17.73719571486052</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1118132331154563</v>
+        <v>18.85024605545343</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>team_season_crosses_into_box_pg</t>
+          <t>team_season_sp_xg_pg</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>9.229669365721998</v>
+        <v>0.2719012695304702</v>
       </c>
       <c r="C103" t="n">
-        <v>8.201517306780465</v>
+        <v>0.2290151557447049</v>
       </c>
       <c r="D103" t="n">
-        <v>1.125361200919679</v>
+        <v>0.7189182424602577</v>
       </c>
       <c r="E103" t="n">
-        <v>0.6864835825988114</v>
+        <v>0.08608677660169221</v>
       </c>
       <c r="F103" t="n">
-        <v>1.154354345899143</v>
+        <v>0.04973530753037442</v>
       </c>
       <c r="G103" t="n">
-        <v>8.394736842105264</v>
+        <v>0.2099419057082672</v>
       </c>
       <c r="H103" t="n">
-        <v>6.27027027027027</v>
+        <v>0.1632703541729011</v>
       </c>
       <c r="I103" t="n">
-        <v>9.925000000000001</v>
+        <v>0.4200076660827586</v>
       </c>
       <c r="J103" t="n">
-        <v>10.44736842105263</v>
+        <v>0.3144126627594233</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_passes_conceded_pg</t>
+          <t>team_season_xg_per_corner</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>379.5404183535762</v>
+        <v>0.03613222334362541</v>
       </c>
       <c r="C104" t="n">
-        <v>427.0165955429113</v>
+        <v>0.03166291025382578</v>
       </c>
       <c r="D104" t="n">
-        <v>1.125088593713639</v>
+        <v>0.6933999175780289</v>
       </c>
       <c r="E104" t="n">
-        <v>39.80374757206337</v>
+        <v>0.009084068994120653</v>
       </c>
       <c r="F104" t="n">
-        <v>24.72604431542254</v>
+        <v>0.005515590091867703</v>
       </c>
       <c r="G104" t="n">
-        <v>318.8684210526316</v>
+        <v>0.02734650254814546</v>
       </c>
       <c r="H104" t="n">
-        <v>378.972972972973</v>
+        <v>0.02072545593860103</v>
       </c>
       <c r="I104" t="n">
-        <v>428.8717948717949</v>
+        <v>0.04975451845111269</v>
       </c>
       <c r="J104" t="n">
-        <v>462.2368421052632</v>
+        <v>0.03915389168341428</v>
       </c>
     </row>
     <row r="105">
@@ -3995,7 +3996,7 @@
         <v>0.3987763519428118</v>
       </c>
       <c r="D105" t="n">
-        <v>1.119972010035506</v>
+        <v>0.6853579482402548</v>
       </c>
       <c r="E105" t="n">
         <v>0.07053433390714692</v>
@@ -4019,647 +4020,647 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_free_kick_conceded</t>
+          <t>team_season_sp_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.003724205389623976</v>
+        <v>0.004444633505581637</v>
       </c>
       <c r="C106" t="n">
-        <v>0.004167442068899712</v>
+        <v>0.005949094163206931</v>
       </c>
       <c r="D106" t="n">
-        <v>1.119015100646876</v>
+        <v>0.6710424174964209</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0016165111552317</v>
+        <v>0.001845229106258275</v>
       </c>
       <c r="F106" t="n">
-        <v>0.001535896182968151</v>
+        <v>0.002366761557351394</v>
       </c>
       <c r="G106" t="n">
-        <v>0.00208965526451394</v>
+        <v>0.00172910662824207</v>
       </c>
       <c r="H106" t="n">
-        <v>0.00218446976324288</v>
+        <v>0.00382409177820268</v>
       </c>
       <c r="I106" t="n">
-        <v>0.00600057710771975</v>
+        <v>0.00624219725343321</v>
       </c>
       <c r="J106" t="n">
-        <v>0.00667691568956307</v>
+        <v>0.0134803921568627</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>team_season_fhalf_pressures_ratio</t>
+          <t>team_season_op_shots_conceded_outside_box_pg</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.4779079432821405</v>
+        <v>3.083286099865048</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4293512262796032</v>
+        <v>3.427121858700807</v>
       </c>
       <c r="D107" t="n">
-        <v>1.113093230042194</v>
+        <v>0.6538200906159815</v>
       </c>
       <c r="E107" t="n">
-        <v>0.03656865007370138</v>
+        <v>0.7890431740531725</v>
       </c>
       <c r="F107" t="n">
-        <v>0.02587354164030143</v>
+        <v>0.4307351384177693</v>
       </c>
       <c r="G107" t="n">
-        <v>0.4357045143638851</v>
+        <v>1.868421052631579</v>
       </c>
       <c r="H107" t="n">
-        <v>0.380327868852459</v>
+        <v>2.736842105263158</v>
       </c>
       <c r="I107" t="n">
-        <v>0.5270917097453571</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="J107" t="n">
-        <v>0.4793831713040563</v>
+        <v>4.263157894736842</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shots_conceded_outside_box_pg</t>
+          <t>team_season_defensive_action_regains_pg</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>3.083286099865048</v>
+        <v>49.87765856950067</v>
       </c>
       <c r="C108" t="n">
-        <v>3.427121858700807</v>
+        <v>51.95410146989094</v>
       </c>
       <c r="D108" t="n">
-        <v>1.111516008472522</v>
+        <v>0.6304713170243622</v>
       </c>
       <c r="E108" t="n">
-        <v>0.7890431740531725</v>
+        <v>3.718846973320991</v>
       </c>
       <c r="F108" t="n">
-        <v>0.4307351384177693</v>
+        <v>3.223263561717185</v>
       </c>
       <c r="G108" t="n">
-        <v>1.868421052631579</v>
+        <v>43.36842105263158</v>
       </c>
       <c r="H108" t="n">
-        <v>2.736842105263158</v>
+        <v>45.39473684210526</v>
       </c>
       <c r="I108" t="n">
-        <v>3.947368421052631</v>
+        <v>52.5</v>
       </c>
       <c r="J108" t="n">
-        <v>4.263157894736842</v>
+        <v>58.02702702702702</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>team_season_passes_conceded_pg</t>
+          <t>team_season_obv_gk_conceded_pg</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>432.2491767881241</v>
+        <v>-0.1396838789670438</v>
       </c>
       <c r="C109" t="n">
-        <v>479.6787577050735</v>
+        <v>-0.07987683501803734</v>
       </c>
       <c r="D109" t="n">
-        <v>1.109727406005444</v>
+        <v>0.6251588903268168</v>
       </c>
       <c r="E109" t="n">
-        <v>38.48181184672534</v>
+        <v>0.1578513151302365</v>
       </c>
       <c r="F109" t="n">
-        <v>23.54878227685404</v>
+        <v>0.07069140386665274</v>
       </c>
       <c r="G109" t="n">
-        <v>374.1578947368421</v>
+        <v>-0.3648999816198882</v>
       </c>
       <c r="H109" t="n">
-        <v>432.9459459459459</v>
+        <v>-0.1965850032620916</v>
       </c>
       <c r="I109" t="n">
-        <v>479.3589743589744</v>
+        <v>0.07342373192108967</v>
       </c>
       <c r="J109" t="n">
-        <v>513.2894736842105</v>
+        <v>0.06949659600551869</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>team_season_counterpressure_regains_pg</t>
+          <t>team_season_ball_in_play_time</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>3.823454790823212</v>
+        <v>52.7635936</v>
       </c>
       <c r="C110" t="n">
-        <v>3.462399241346609</v>
+        <v>51.7257286</v>
       </c>
       <c r="D110" t="n">
-        <v>1.104279005484122</v>
+        <v>0.6247893688693348</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4269170821797029</v>
+        <v>2.343041648639925</v>
       </c>
       <c r="F110" t="n">
-        <v>0.7562153935923963</v>
+        <v>1.443933990606061</v>
       </c>
       <c r="G110" t="n">
-        <v>3.384615384615385</v>
+        <v>49.59622</v>
       </c>
       <c r="H110" t="n">
-        <v>1.921052631578947</v>
+        <v>49.011845</v>
       </c>
       <c r="I110" t="n">
-        <v>4.358974358974359</v>
+        <v>55.590843</v>
       </c>
       <c r="J110" t="n">
-        <v>5.162162162162162</v>
+        <v>53.63584</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shot_ratio</t>
+          <t>team_season_obv_dribble_carry_pg</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.0770463198182994</v>
+        <v>0.6804818746692145</v>
       </c>
       <c r="C111" t="n">
-        <v>0.06982046082675625</v>
+        <v>0.6325371648467134</v>
       </c>
       <c r="D111" t="n">
-        <v>1.103491997989995</v>
+        <v>0.6111767785437808</v>
       </c>
       <c r="E111" t="n">
-        <v>0.01577306544285294</v>
+        <v>0.1196083941432018</v>
       </c>
       <c r="F111" t="n">
-        <v>0.01131312078174039</v>
+        <v>0.06393771851376098</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0673302107728337</v>
+        <v>0.4923866561761028</v>
       </c>
       <c r="H111" t="n">
-        <v>0.0523221634332745</v>
+        <v>0.5381548236075201</v>
       </c>
       <c r="I111" t="n">
-        <v>0.104180491041805</v>
+        <v>0.8164950502224457</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0919610231425091</v>
+        <v>0.7451192386247016</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_defensive_action_conceded_pg</t>
+          <t>team_season_successful_crosses_into_box_pg</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.3243431458028986</v>
+        <v>2.462327935222672</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2957828986991485</v>
+        <v>2.159933617828355</v>
       </c>
       <c r="D112" t="n">
-        <v>1.096558141898527</v>
+        <v>0.6014774275041179</v>
       </c>
       <c r="E112" t="n">
-        <v>0.04808406948917983</v>
+        <v>0.419712240517863</v>
       </c>
       <c r="F112" t="n">
-        <v>0.07188222850179173</v>
+        <v>0.5350340838034146</v>
       </c>
       <c r="G112" t="n">
-        <v>0.2576282177215967</v>
+        <v>1.763157894736842</v>
       </c>
       <c r="H112" t="n">
-        <v>0.1632175965626773</v>
+        <v>1.432432432432432</v>
       </c>
       <c r="I112" t="n">
-        <v>0.3889468626047556</v>
+        <v>2.815789473684211</v>
       </c>
       <c r="J112" t="n">
-        <v>0.3908229517309289</v>
+        <v>3.368421052631579</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_xg_pg</t>
+          <t>team_season_direct_free_kicks_pg</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.05692076141545712</v>
+        <v>0.442523616734143</v>
       </c>
       <c r="C113" t="n">
-        <v>0.06202411557275726</v>
+        <v>0.557799905168326</v>
       </c>
       <c r="D113" t="n">
-        <v>1.089657166039144</v>
+        <v>0.5964119753874196</v>
       </c>
       <c r="E113" t="n">
-        <v>0.02425299705571426</v>
+        <v>0.06032313941335434</v>
       </c>
       <c r="F113" t="n">
-        <v>0.01887388618630545</v>
+        <v>0.2208390503393319</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03052614299723735</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="H113" t="n">
-        <v>0.02735947055350009</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="I113" t="n">
-        <v>0.09053589285988557</v>
+        <v>0.55</v>
       </c>
       <c r="J113" t="n">
-        <v>0.08771039540634344</v>
+        <v>1.105263157894737</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>team_season_aggression</t>
+          <t>team_season_shots_from_free_kicks_pg</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.1992610516322046</v>
+        <v>0.6206410256410256</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1830576700062442</v>
+        <v>0.7220483641536272</v>
       </c>
       <c r="D114" t="n">
-        <v>1.088515174619057</v>
+        <v>0.5926156970826721</v>
       </c>
       <c r="E114" t="n">
-        <v>0.02148817883156271</v>
+        <v>0.1332698636203924</v>
       </c>
       <c r="F114" t="n">
-        <v>0.01520197726148563</v>
+        <v>0.1843952456212761</v>
       </c>
       <c r="G114" t="n">
-        <v>0.1786373103243082</v>
+        <v>0.475</v>
       </c>
       <c r="H114" t="n">
-        <v>0.1616696061140506</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="I114" t="n">
-        <v>0.2234491489660993</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="J114" t="n">
-        <v>0.2127028441807712</v>
+        <v>1.026315789473684</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>team_season_fhalf_pressures_pg</t>
+          <t>team_season_sp_shot_ratio</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>69.74803643724697</v>
+        <v>0.0770463198182994</v>
       </c>
       <c r="C115" t="n">
-        <v>64.21958274063537</v>
+        <v>0.06982046082675625</v>
       </c>
       <c r="D115" t="n">
-        <v>1.086086727142707</v>
+        <v>0.5916903923255169</v>
       </c>
       <c r="E115" t="n">
-        <v>2.530211049380917</v>
+        <v>0.01577306544285294</v>
       </c>
       <c r="F115" t="n">
-        <v>5.655689141422176</v>
+        <v>0.01131312078174039</v>
       </c>
       <c r="G115" t="n">
-        <v>65.33333333333333</v>
+        <v>0.0673302107728337</v>
       </c>
       <c r="H115" t="n">
-        <v>54.23684210526316</v>
+        <v>0.0523221634332745</v>
       </c>
       <c r="I115" t="n">
-        <v>71.81578947368421</v>
+        <v>0.104180491041805</v>
       </c>
       <c r="J115" t="n">
-        <v>77.29729729729729</v>
+        <v>0.0919610231425091</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_shot_ratio</t>
+          <t>team_season_gk_pass_distance</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1.14659090909091</v>
+        <v>41.91080498115398</v>
       </c>
       <c r="C116" t="n">
-        <v>1.056138179559233</v>
+        <v>44.01364684220866</v>
       </c>
       <c r="D116" t="n">
-        <v>1.085644787095403</v>
+        <v>0.5850528758987361</v>
       </c>
       <c r="E116" t="n">
-        <v>0.07669402284725736</v>
+        <v>6.161535949472192</v>
       </c>
       <c r="F116" t="n">
-        <v>0.09287327012441843</v>
+        <v>2.534562441625311</v>
       </c>
       <c r="G116" t="n">
-        <v>1.04545454545455</v>
+        <v>32.42383122519841</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>40.57152106353591</v>
       </c>
       <c r="I116" t="n">
-        <v>1.25</v>
+        <v>49.00303903967868</v>
       </c>
       <c r="J116" t="n">
-        <v>1.3</v>
+        <v>50.63002328856152</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_free_kicks_conceded_pg</t>
+          <t>team_season_op_shot_distance</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.6541835357624831</v>
+        <v>17.94825884533643</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7093883357041252</v>
+        <v>18.38194562126602</v>
       </c>
       <c r="D117" t="n">
-        <v>1.084387326986605</v>
+        <v>0.5457052084981907</v>
       </c>
       <c r="E117" t="n">
-        <v>0.1588767947309874</v>
+        <v>0.5338016994555087</v>
       </c>
       <c r="F117" t="n">
-        <v>0.2158157407895815</v>
+        <v>0.8777704635904616</v>
       </c>
       <c r="G117" t="n">
-        <v>0.4102564102564102</v>
+        <v>17.10556204443238</v>
       </c>
       <c r="H117" t="n">
-        <v>0.3947368421052632</v>
+        <v>16.51326465229743</v>
       </c>
       <c r="I117" t="n">
-        <v>0.7948717948717948</v>
+        <v>18.51567365435943</v>
       </c>
       <c r="J117" t="n">
-        <v>1.105263157894737</v>
+        <v>19.75203890413851</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>team_season_pace_towards_goal</t>
+          <t>team_season_penalties_won_pg</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2.65184141881265</v>
+        <v>0.13889338731444</v>
       </c>
       <c r="C118" t="n">
-        <v>2.871442900712341</v>
+        <v>0.1003319108582266</v>
       </c>
       <c r="D118" t="n">
-        <v>1.082810940481508</v>
+        <v>0.5359115444276829</v>
       </c>
       <c r="E118" t="n">
-        <v>0.2639877089735407</v>
+        <v>0.1125327820782731</v>
       </c>
       <c r="F118" t="n">
-        <v>0.1829092865727852</v>
+        <v>0.05813747338549872</v>
       </c>
       <c r="G118" t="n">
-        <v>2.262326863842777</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="H118" t="n">
-        <v>2.625415421407948</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I118" t="n">
-        <v>2.993898212357507</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J118" t="n">
-        <v>3.249054606472128</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_shot_ratio_conceded</t>
+          <t>team_season_counterpressure_regains_pg</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.04353134247079564</v>
+        <v>3.823454790823212</v>
       </c>
       <c r="C119" t="n">
-        <v>0.04712763291096028</v>
+        <v>3.462399241346609</v>
       </c>
       <c r="D119" t="n">
-        <v>1.082613818826684</v>
+        <v>0.5316557653202806</v>
       </c>
       <c r="E119" t="n">
-        <v>0.01102818417208833</v>
+        <v>0.4269170821797029</v>
       </c>
       <c r="F119" t="n">
-        <v>0.01249091528785177</v>
+        <v>0.7562153935923963</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0295748613678373</v>
+        <v>3.384615384615385</v>
       </c>
       <c r="H119" t="n">
-        <v>0.0294659300184162</v>
+        <v>1.921052631578947</v>
       </c>
       <c r="I119" t="n">
-        <v>0.0561594202898551</v>
+        <v>4.358974358974359</v>
       </c>
       <c r="J119" t="n">
-        <v>0.07011686143572619</v>
+        <v>5.162162162162162</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xg_per_shot</t>
+          <t>team_season_fhalf_counterpressures_pg</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.09798854132972043</v>
+        <v>23.61336707152497</v>
       </c>
       <c r="C120" t="n">
-        <v>0.09092886403635123</v>
+        <v>22.30711237553343</v>
       </c>
       <c r="D120" t="n">
-        <v>1.077639563280444</v>
+        <v>0.5237024957178777</v>
       </c>
       <c r="E120" t="n">
-        <v>0.008483835355882994</v>
+        <v>1.625720577809868</v>
       </c>
       <c r="F120" t="n">
-        <v>0.009560970246982832</v>
+        <v>2.770469511356176</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08971453743505571</v>
+        <v>21.30769230769231</v>
       </c>
       <c r="H120" t="n">
-        <v>0.07201718143298866</v>
+        <v>19.65789473684211</v>
       </c>
       <c r="I120" t="n">
-        <v>0.1099556582314627</v>
+        <v>25.21052631578947</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1084342309606006</v>
+        <v>30.13513513513514</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_dribble_carry_pg</t>
+          <t>team_season_direct_free_kick_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.6804818746692145</v>
+        <v>1.092835829984166</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6325371648467134</v>
+        <v>1.062573224120813</v>
       </c>
       <c r="D121" t="n">
-        <v>1.075797459006412</v>
+        <v>0.4929363735262829</v>
       </c>
       <c r="E121" t="n">
-        <v>0.1196083941432018</v>
+        <v>0.054695244237237</v>
       </c>
       <c r="F121" t="n">
-        <v>0.06393771851376098</v>
+        <v>0.06545456702080467</v>
       </c>
       <c r="G121" t="n">
-        <v>0.4923866561761028</v>
+        <v>1.04761904761905</v>
       </c>
       <c r="H121" t="n">
-        <v>0.5381548236075201</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>0.8164950502224457</v>
+        <v>1.17391304347826</v>
       </c>
       <c r="J121" t="n">
-        <v>0.7451192386247016</v>
+        <v>1.22222222222222</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_dribble_carry_conceded_pg</t>
+          <t>team_season_corner_shot_ratio</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.6106592772459905</v>
+        <v>0.4087194463184513</v>
       </c>
       <c r="C122" t="n">
-        <v>0.6562354241413471</v>
+        <v>0.3851402809853095</v>
       </c>
       <c r="D122" t="n">
-        <v>1.074634331440767</v>
+        <v>0.4760081806384765</v>
       </c>
       <c r="E122" t="n">
-        <v>0.07280130747816523</v>
+        <v>0.05862912395947725</v>
       </c>
       <c r="F122" t="n">
-        <v>0.05689655069839145</v>
+        <v>0.04872688506607367</v>
       </c>
       <c r="G122" t="n">
-        <v>0.513841051804392</v>
+        <v>0.3175355450236967</v>
       </c>
       <c r="H122" t="n">
-        <v>0.550296938701256</v>
+        <v>0.281437125748503</v>
       </c>
       <c r="I122" t="n">
-        <v>0.7117111582595569</v>
+        <v>0.4632034632034632</v>
       </c>
       <c r="J122" t="n">
-        <v>0.7179678330492032</v>
+        <v>0.4540229885057471</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shot_distance</t>
+          <t>team_season_xg_per_throw_in</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>14.5469123781394</v>
+        <v>0.0001079745566636045</v>
       </c>
       <c r="C123" t="n">
-        <v>15.60732250012961</v>
+        <v>0.0001899140825330491</v>
       </c>
       <c r="D123" t="n">
-        <v>1.072895889823586</v>
+        <v>0.4618302915260203</v>
       </c>
       <c r="E123" t="n">
-        <v>1.568777523356743</v>
+        <v>0.0001607656409357142</v>
       </c>
       <c r="F123" t="n">
-        <v>1.14603822414624</v>
+        <v>0.0001891751756512218</v>
       </c>
       <c r="G123" t="n">
-        <v>12.37917604871616</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>14.18405638622636</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>16.71035899286685</v>
+        <v>0.0003814738887205307</v>
       </c>
       <c r="J123" t="n">
-        <v>18.60080035665761</v>
+        <v>0.0005361980335278944</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shots_pg</t>
+          <t>team_season_sp_pg_conceded</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>3.238697705802969</v>
+        <v>42.09585020242916</v>
       </c>
       <c r="C124" t="n">
-        <v>3.028828828828829</v>
+        <v>43.53352299668089</v>
       </c>
       <c r="D124" t="n">
-        <v>1.069290438263324</v>
+        <v>0.4599344684970391</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5272812274521664</v>
+        <v>2.648744225382269</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5095801599849946</v>
+        <v>3.376397710993406</v>
       </c>
       <c r="G124" t="n">
-        <v>2.871794871794872</v>
+        <v>38.4615384615385</v>
       </c>
       <c r="H124" t="n">
-        <v>2.342105263157895</v>
+        <v>37.0526315789474</v>
       </c>
       <c r="I124" t="n">
-        <v>4.131578947368421</v>
+        <v>45.6578947368421</v>
       </c>
       <c r="J124" t="n">
-        <v>4</v>
+        <v>49.1052631578947</v>
       </c>
     </row>
     <row r="125">
@@ -4675,7 +4676,7 @@
         <v>1.832053105737316</v>
       </c>
       <c r="D125" t="n">
-        <v>1.068004619074157</v>
+        <v>0.4554971511001779</v>
       </c>
       <c r="E125" t="n">
         <v>0.2514507146267743</v>
@@ -4699,1633 +4700,1599 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_xg_pg</t>
+          <t>team_season_obv_defensive_action_conceded_pg</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.02821263080803104</v>
+        <v>0.3243431458028986</v>
       </c>
       <c r="C126" t="n">
-        <v>0.02648232635523507</v>
+        <v>0.2957828986991485</v>
       </c>
       <c r="D126" t="n">
-        <v>1.065338083580181</v>
+        <v>0.4390095600545553</v>
       </c>
       <c r="E126" t="n">
-        <v>0.009554344130146015</v>
+        <v>0.04808406948917983</v>
       </c>
       <c r="F126" t="n">
-        <v>0.009025996952654061</v>
+        <v>0.07188222850179173</v>
       </c>
       <c r="G126" t="n">
-        <v>0.01490654965470496</v>
+        <v>0.2576282177215967</v>
       </c>
       <c r="H126" t="n">
-        <v>0.01552731286440241</v>
+        <v>0.1632175965626773</v>
       </c>
       <c r="I126" t="n">
-        <v>0.04066517212195322</v>
+        <v>0.3889468626047556</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04291065336783995</v>
+        <v>0.3908229517309289</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_shot_ratio</t>
+          <t>team_season_box_cross_ratio</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.4087194463184513</v>
+        <v>0.3146670386906131</v>
       </c>
       <c r="C127" t="n">
-        <v>0.3851402809853095</v>
+        <v>0.3259221362755724</v>
       </c>
       <c r="D127" t="n">
-        <v>1.061222277952384</v>
+        <v>0.438108900166273</v>
       </c>
       <c r="E127" t="n">
-        <v>0.05862912395947725</v>
+        <v>0.01628486278954462</v>
       </c>
       <c r="F127" t="n">
-        <v>0.04872688506607367</v>
+        <v>0.02886406923169875</v>
       </c>
       <c r="G127" t="n">
-        <v>0.3175355450236967</v>
+        <v>0.3015332197614992</v>
       </c>
       <c r="H127" t="n">
-        <v>0.281437125748503</v>
+        <v>0.2866300366300366</v>
       </c>
       <c r="I127" t="n">
-        <v>0.4632034632034632</v>
+        <v>0.3378723404255319</v>
       </c>
       <c r="J127" t="n">
-        <v>0.4540229885057471</v>
+        <v>0.3938492063492063</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>team_season_fhalf_counterpressures_ratio</t>
+          <t>team_season_goals_from_throw_ins_conceded_pg</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.7367914450050373</v>
+        <v>0.01026315789473684</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6952144699430729</v>
+        <v>0.005310573731626364</v>
       </c>
       <c r="D128" t="n">
-        <v>1.059804530629762</v>
+        <v>0.4364477732379577</v>
       </c>
       <c r="E128" t="n">
-        <v>0.02208862322275619</v>
+        <v>0.01406110527093952</v>
       </c>
       <c r="F128" t="n">
-        <v>0.02696866410642184</v>
+        <v>0.01099502757997121</v>
       </c>
       <c r="G128" t="n">
-        <v>0.712082262210797</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>0.6461937716262975</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0.7657873701039168</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="J128" t="n">
-        <v>0.7398805573988055</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>team_season_fhalf_counterpressures_pg</t>
+          <t>team_season_free_kick_goal_ratio</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>23.61336707152497</v>
+        <v>0.004965984035224914</v>
       </c>
       <c r="C129" t="n">
-        <v>22.30711237553343</v>
+        <v>0.003344740631704283</v>
       </c>
       <c r="D129" t="n">
-        <v>1.058557767316591</v>
+        <v>0.4304042130055393</v>
       </c>
       <c r="E129" t="n">
-        <v>1.625720577809868</v>
+        <v>0.007070358905944224</v>
       </c>
       <c r="F129" t="n">
-        <v>2.770469511356176</v>
+        <v>0.002298415853196976</v>
       </c>
       <c r="G129" t="n">
-        <v>21.30769230769231</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>19.65789473684211</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>25.21052631578947</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="J129" t="n">
-        <v>30.13513513513514</v>
+        <v>0.006872852233676976</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>team_season_opp_final_third_pass_ratio</t>
+          <t>team_season_second_yellow_cards_pg</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.5849607651107553</v>
+        <v>0.03091093117408907</v>
       </c>
       <c r="C130" t="n">
-        <v>0.6178172313999398</v>
+        <v>0.04760550023707918</v>
       </c>
       <c r="D130" t="n">
-        <v>1.056168666770264</v>
+        <v>0.4299522099984271</v>
       </c>
       <c r="E130" t="n">
-        <v>0.01492266790690864</v>
+        <v>0.02182295667333708</v>
       </c>
       <c r="F130" t="n">
-        <v>0.02118564007098061</v>
+        <v>0.04408071982518928</v>
       </c>
       <c r="G130" t="n">
-        <v>0.5682683158896289</v>
+        <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>0.5643170051772203</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0.6055701919458035</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J130" t="n">
-        <v>0.6498266468548787</v>
+        <v>0.1351351351351351</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>team_season_defensive_distance</t>
+          <t>team_season_throw_in_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>45.35638489101139</v>
+        <v>0.000450724505419848</v>
       </c>
       <c r="C131" t="n">
-        <v>43.00171569288157</v>
+        <v>0.00023554660467449</v>
       </c>
       <c r="D131" t="n">
-        <v>1.054757563975979</v>
+        <v>0.428458670946194</v>
       </c>
       <c r="E131" t="n">
-        <v>1.194146743342781</v>
+        <v>0.0006180702081460998</v>
       </c>
       <c r="F131" t="n">
-        <v>1.139613431346249</v>
+        <v>0.0004886352856782744</v>
       </c>
       <c r="G131" t="n">
-        <v>43.45739579143202</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>40.95089707580848</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>46.48390896851699</v>
+        <v>0.00117370892018779</v>
       </c>
       <c r="J131" t="n">
-        <v>44.90620568273906</v>
+        <v>0.00124378109452736</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_free_kick</t>
+          <t>team_season_throw_in_xg_pg</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.004270763208160232</v>
+        <v>0.002625752584518571</v>
       </c>
       <c r="C132" t="n">
-        <v>0.004063397033010101</v>
+        <v>0.004310803803548592</v>
       </c>
       <c r="D132" t="n">
-        <v>1.051032713137687</v>
+        <v>0.4235884631953045</v>
       </c>
       <c r="E132" t="n">
-        <v>0.002005802673782669</v>
+        <v>0.00380052344697543</v>
       </c>
       <c r="F132" t="n">
-        <v>0.001360144642286228</v>
+        <v>0.004209446458640798</v>
       </c>
       <c r="G132" t="n">
-        <v>0.002216982441907489</v>
+        <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>0.001470522968232885</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0.007479052958281144</v>
+        <v>0.008945562783628703</v>
       </c>
       <c r="J132" t="n">
-        <v>0.006194014924501503</v>
+        <v>0.01241721722640489</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>team_season_gk_pass_distance</t>
+          <t>team_season_sp_shots_pg</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>41.91080498115398</v>
+        <v>3.238697705802969</v>
       </c>
       <c r="C133" t="n">
-        <v>44.01364684220866</v>
+        <v>3.028828828828829</v>
       </c>
       <c r="D133" t="n">
-        <v>1.050174217889641</v>
+        <v>0.4234517200950347</v>
       </c>
       <c r="E133" t="n">
-        <v>6.161535949472192</v>
+        <v>0.5272812274521664</v>
       </c>
       <c r="F133" t="n">
-        <v>2.534562441625311</v>
+        <v>0.5095801599849946</v>
       </c>
       <c r="G133" t="n">
-        <v>32.42383122519841</v>
+        <v>2.871794871794872</v>
       </c>
       <c r="H133" t="n">
-        <v>40.57152106353591</v>
+        <v>2.342105263157895</v>
       </c>
       <c r="I133" t="n">
-        <v>49.00303903967868</v>
+        <v>4.131578947368421</v>
       </c>
       <c r="J133" t="n">
-        <v>50.63002328856152</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shot_distance_conceded</t>
+          <t>team_season_throw_in_shot_ratio</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>18.85510597164794</v>
+        <v>0.002280491406148333</v>
       </c>
       <c r="C134" t="n">
-        <v>18.0609062942218</v>
+        <v>0.003402562032743012</v>
       </c>
       <c r="D134" t="n">
-        <v>1.043973412213551</v>
+        <v>0.419557365189306</v>
       </c>
       <c r="E134" t="n">
-        <v>1.075360880564892</v>
+        <v>0.002765058205434782</v>
       </c>
       <c r="F134" t="n">
-        <v>0.7122148745848672</v>
+        <v>0.002774196724203858</v>
       </c>
       <c r="G134" t="n">
-        <v>17.93681196732955</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>16.80299068210133</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>20.57941664209905</v>
+        <v>0.006396588486140725</v>
       </c>
       <c r="J134" t="n">
-        <v>18.92875992892976</v>
+        <v>0.009768009768009768</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>team_season_defensive_action_regains_pg</t>
+          <t>team_season_opposition_own_goals_pg</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>49.87765856950067</v>
+        <v>0.0360391363022942</v>
       </c>
       <c r="C135" t="n">
-        <v>51.95410146989094</v>
+        <v>0.02636320531057373</v>
       </c>
       <c r="D135" t="n">
-        <v>1.041630721247608</v>
+        <v>0.4159528291637459</v>
       </c>
       <c r="E135" t="n">
-        <v>3.718846973320991</v>
+        <v>0.02324157881258421</v>
       </c>
       <c r="F135" t="n">
-        <v>3.223263561717185</v>
+        <v>0.02436437892030772</v>
       </c>
       <c r="G135" t="n">
-        <v>43.36842105263158</v>
+        <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>45.39473684210526</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>52.5</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J135" t="n">
-        <v>58.02702702702702</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>team_season_penalties_conceded_pg</t>
+          <t>team_season_shots_from_direct_free_kicks_pg</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.1133940620782726</v>
+        <v>0.5044736842105262</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1090564248458985</v>
+        <v>0.5861071597913703</v>
       </c>
       <c r="D136" t="n">
-        <v>1.039774247491639</v>
+        <v>0.413899016850877</v>
       </c>
       <c r="E136" t="n">
-        <v>0.01383903444119035</v>
+        <v>0.04254028501647244</v>
       </c>
       <c r="F136" t="n">
-        <v>0.05686766731725924</v>
+        <v>0.2308010818054663</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1025641025641026</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="H136" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="I136" t="n">
-        <v>0.131578947368421</v>
+        <v>0.575</v>
       </c>
       <c r="J136" t="n">
-        <v>0.2105263157894737</v>
+        <v>1.157894736842105</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>team_season_passing_ratio</t>
+          <t>team_season_sp_pg</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.8018822021280114</v>
+        <v>42.37522267206479</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7726256546226381</v>
+        <v>43.43124703651019</v>
       </c>
       <c r="D137" t="n">
-        <v>1.0378663940685</v>
+        <v>0.3966412863699045</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0332822208469228</v>
+        <v>3.655732434480587</v>
       </c>
       <c r="F137" t="n">
-        <v>0.02527787375848163</v>
+        <v>2.451381195817097</v>
       </c>
       <c r="G137" t="n">
-        <v>0.7458276817833344</v>
+        <v>38.9230769230769</v>
       </c>
       <c r="H137" t="n">
-        <v>0.729419183072935</v>
+        <v>38.9473684210526</v>
       </c>
       <c r="I137" t="n">
-        <v>0.8330666178958438</v>
+        <v>48.2105263157895</v>
       </c>
       <c r="J137" t="n">
-        <v>0.8095668349720967</v>
+        <v>47.9473684210526</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>team_season_box_cross_ratio</t>
+          <t>team_season_pressures_pg</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.3146670386906131</v>
+        <v>146.404358974359</v>
       </c>
       <c r="C138" t="n">
-        <v>0.3259221362755724</v>
+        <v>149.5352773826458</v>
       </c>
       <c r="D138" t="n">
-        <v>1.03576827630817</v>
+        <v>0.3750625268166121</v>
       </c>
       <c r="E138" t="n">
-        <v>0.01628486278954462</v>
+        <v>8.448628299607757</v>
       </c>
       <c r="F138" t="n">
-        <v>0.02886406923169875</v>
+        <v>8.748112687102278</v>
       </c>
       <c r="G138" t="n">
-        <v>0.3015332197614992</v>
+        <v>133.9230769230769</v>
       </c>
       <c r="H138" t="n">
-        <v>0.2866300366300366</v>
+        <v>137.1842105263158</v>
       </c>
       <c r="I138" t="n">
-        <v>0.3378723404255319</v>
+        <v>157.15</v>
       </c>
       <c r="J138" t="n">
-        <v>0.3938492063492063</v>
+        <v>165</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_pg_conceded</t>
+          <t>team_season_shots_from_throw_ins_pg</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>42.09585020242916</v>
+        <v>0.05631578947368421</v>
       </c>
       <c r="C139" t="n">
-        <v>43.53352299668089</v>
+        <v>0.07743006164058795</v>
       </c>
       <c r="D139" t="n">
-        <v>1.034152363887136</v>
+        <v>0.3520915286996119</v>
       </c>
       <c r="E139" t="n">
-        <v>2.648744225382269</v>
+        <v>0.0678518836609824</v>
       </c>
       <c r="F139" t="n">
-        <v>3.376397710993406</v>
+        <v>0.06084889594492069</v>
       </c>
       <c r="G139" t="n">
-        <v>38.4615384615385</v>
+        <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>37.0526315789474</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>45.6578947368421</v>
+        <v>0.15</v>
       </c>
       <c r="J139" t="n">
-        <v>49.1052631578947</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>team_season_opp_passing_ratio</t>
+          <t>team_season_red_cards_pg</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.7626498666686146</v>
+        <v>0.06195006747638328</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7883165369442861</v>
+        <v>0.07771455666192507</v>
       </c>
       <c r="D140" t="n">
-        <v>1.033654592228263</v>
+        <v>0.3391173071869628</v>
       </c>
       <c r="E140" t="n">
-        <v>0.02225153593196714</v>
+        <v>0.05315593370575416</v>
       </c>
       <c r="F140" t="n">
-        <v>0.01488825129394662</v>
+        <v>0.04704583675149276</v>
       </c>
       <c r="G140" t="n">
-        <v>0.7356871571247714</v>
+        <v>0.025</v>
       </c>
       <c r="H140" t="n">
-        <v>0.7607106135039415</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0.7951323883391281</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="J140" t="n">
-        <v>0.8083983849259758</v>
+        <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_shot_distance_conceded</t>
+          <t>team_season_opposition_dribble_ratio</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>17.85245527254049</v>
+        <v>0.551369378</v>
       </c>
       <c r="C141" t="n">
-        <v>17.27151297495019</v>
+        <v>0.542547972</v>
       </c>
       <c r="D141" t="n">
-        <v>1.033635866089604</v>
+        <v>0.3388141732425104</v>
       </c>
       <c r="E141" t="n">
-        <v>0.9600889255660366</v>
+        <v>0.02783420632858014</v>
       </c>
       <c r="F141" t="n">
-        <v>0.5163166249893929</v>
+        <v>0.02694810192021249</v>
       </c>
       <c r="G141" t="n">
-        <v>17.03692530071925</v>
+        <v>0.53521127</v>
       </c>
       <c r="H141" t="n">
-        <v>16.36988192471591</v>
+        <v>0.49679488</v>
       </c>
       <c r="I141" t="n">
-        <v>19.44913519385027</v>
+        <v>0.6009693</v>
       </c>
       <c r="J141" t="n">
-        <v>18.1710254168063</v>
+        <v>0.5966102</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_shot_distance</t>
+          <t>team_season_free_kick_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>17.01694276372657</v>
+        <v>0.05507700850730248</v>
       </c>
       <c r="C142" t="n">
-        <v>17.56506528806393</v>
+        <v>0.06250706889100051</v>
       </c>
       <c r="D142" t="n">
-        <v>1.032210399479379</v>
+        <v>0.3336411620066056</v>
       </c>
       <c r="E142" t="n">
-        <v>0.7645263134055762</v>
+        <v>0.02133193352978316</v>
       </c>
       <c r="F142" t="n">
-        <v>0.7454935304161213</v>
+        <v>0.02374189812715511</v>
       </c>
       <c r="G142" t="n">
-        <v>15.78048793247768</v>
+        <v>0.0340393848570162</v>
       </c>
       <c r="H142" t="n">
-        <v>16.10360271610014</v>
+        <v>0.0281106775479489</v>
       </c>
       <c r="I142" t="n">
-        <v>17.73719571486052</v>
+        <v>0.08493125004072979</v>
       </c>
       <c r="J142" t="n">
-        <v>18.85024605545343</v>
+        <v>0.0990994850075559</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_ins_conceded_pg</t>
+          <t>team_season_aggressive_actions_pg</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>22.70732793522266</v>
+        <v>85.66145074224022</v>
       </c>
       <c r="C143" t="n">
-        <v>23.37776197249882</v>
+        <v>87.64376481744902</v>
       </c>
       <c r="D143" t="n">
-        <v>1.02952500792646</v>
+        <v>0.3238427553242445</v>
       </c>
       <c r="E143" t="n">
-        <v>2.008101994084564</v>
+        <v>6.608172047441241</v>
       </c>
       <c r="F143" t="n">
-        <v>2.438910563879793</v>
+        <v>6.324442673508451</v>
       </c>
       <c r="G143" t="n">
-        <v>20.0769230769231</v>
+        <v>76.97435897435898</v>
       </c>
       <c r="H143" t="n">
-        <v>19.5</v>
+        <v>78.5</v>
       </c>
       <c r="I143" t="n">
-        <v>25.6578947368421</v>
+        <v>94.675</v>
       </c>
       <c r="J143" t="n">
-        <v>27.8157894736842</v>
+        <v>102.5789473684211</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_shot_ratio_conceded</t>
+          <t>team_season_penalty_goals_conceded_pg</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1.092835829984166</v>
+        <v>0.07774628879892037</v>
       </c>
       <c r="C144" t="n">
-        <v>1.062573224120813</v>
+        <v>0.0914651493598862</v>
       </c>
       <c r="D144" t="n">
-        <v>1.028480489792497</v>
+        <v>0.3092432594211937</v>
       </c>
       <c r="E144" t="n">
-        <v>0.054695244237237</v>
+        <v>0.02731870356059875</v>
       </c>
       <c r="F144" t="n">
-        <v>0.06545456702080467</v>
+        <v>0.0504762526336161</v>
       </c>
       <c r="G144" t="n">
-        <v>1.04761904761905</v>
+        <v>0.05</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I144" t="n">
-        <v>1.17391304347826</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J144" t="n">
-        <v>1.22222222222222</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>team_season_gk_long_pass_ratio</t>
+          <t>team_season_free_kick_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.4350846065153859</v>
+        <v>0.04353134247079564</v>
       </c>
       <c r="C145" t="n">
-        <v>0.4234627973618956</v>
+        <v>0.04712763291096028</v>
       </c>
       <c r="D145" t="n">
-        <v>1.027444699335791</v>
+        <v>0.3084187786442235</v>
       </c>
       <c r="E145" t="n">
-        <v>0.07368219366130248</v>
+        <v>0.01102818417208833</v>
       </c>
       <c r="F145" t="n">
-        <v>0.04386157135472663</v>
+        <v>0.01249091528785177</v>
       </c>
       <c r="G145" t="n">
-        <v>0.3534743202416918</v>
+        <v>0.0295748613678373</v>
       </c>
       <c r="H145" t="n">
-        <v>0.3477124183006536</v>
+        <v>0.0294659300184162</v>
       </c>
       <c r="I145" t="n">
-        <v>0.5465686274509803</v>
+        <v>0.0561594202898551</v>
       </c>
       <c r="J145" t="n">
-        <v>0.4869976359338061</v>
+        <v>0.07011686143572619</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>team_season_completed_dribbles_conceded_pg</t>
+          <t>team_season_throw_ins_conceded_pg</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>8.902935222672065</v>
+        <v>22.70732793522266</v>
       </c>
       <c r="C146" t="n">
-        <v>8.669084874348032</v>
+        <v>23.37776197249882</v>
       </c>
       <c r="D146" t="n">
-        <v>1.026975205770104</v>
+        <v>0.2982042759486022</v>
       </c>
       <c r="E146" t="n">
-        <v>0.6543180179616166</v>
+        <v>2.008101994084564</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9493793037822441</v>
+        <v>2.438910563879793</v>
       </c>
       <c r="G146" t="n">
-        <v>8</v>
+        <v>20.0769230769231</v>
       </c>
       <c r="H146" t="n">
-        <v>7.052631578947368</v>
+        <v>19.5</v>
       </c>
       <c r="I146" t="n">
-        <v>9.538461538461538</v>
+        <v>25.6578947368421</v>
       </c>
       <c r="J146" t="n">
-        <v>10.31578947368421</v>
+        <v>27.8157894736842</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_pg</t>
+          <t>team_season_xg_per_free_kick_conceded</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>42.37522267206479</v>
+        <v>0.003724205389623976</v>
       </c>
       <c r="C147" t="n">
-        <v>43.43124703651019</v>
+        <v>0.004167442068899712</v>
       </c>
       <c r="D147" t="n">
-        <v>1.024920798000705</v>
+        <v>0.2981032404346489</v>
       </c>
       <c r="E147" t="n">
-        <v>3.655732434480587</v>
+        <v>0.0016165111552317</v>
       </c>
       <c r="F147" t="n">
-        <v>2.451381195817097</v>
+        <v>0.001535896182968151</v>
       </c>
       <c r="G147" t="n">
-        <v>38.9230769230769</v>
+        <v>0.00208965526451394</v>
       </c>
       <c r="H147" t="n">
-        <v>38.9473684210526</v>
+        <v>0.00218446976324288</v>
       </c>
       <c r="I147" t="n">
-        <v>48.2105263157895</v>
+        <v>0.00600057710771975</v>
       </c>
       <c r="J147" t="n">
-        <v>47.9473684210526</v>
+        <v>0.00667691568956307</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>team_season_matches</t>
+          <t>team_season_shots_from_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>38.8</v>
+        <v>0.6541835357624831</v>
       </c>
       <c r="C148" t="n">
-        <v>37.86666666666667</v>
+        <v>0.7093883357041252</v>
       </c>
       <c r="D148" t="n">
-        <v>1.024647887323944</v>
+        <v>0.2823662627681787</v>
       </c>
       <c r="E148" t="n">
-        <v>0.8366600265340756</v>
+        <v>0.1588767947309874</v>
       </c>
       <c r="F148" t="n">
-        <v>0.3518657752744984</v>
+        <v>0.2158157407895815</v>
       </c>
       <c r="G148" t="n">
-        <v>38</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="H148" t="n">
-        <v>37</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="I148" t="n">
-        <v>40</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="J148" t="n">
-        <v>38</v>
+        <v>1.105263157894737</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shot_distance</t>
+          <t>team_season_direct_free_kick_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>17.94825884533643</v>
+        <v>0.07627268298623797</v>
       </c>
       <c r="C149" t="n">
-        <v>18.38194562126602</v>
+        <v>0.0647366843738061</v>
       </c>
       <c r="D149" t="n">
-        <v>1.024163167005042</v>
+        <v>0.2804794287874978</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5338016994555087</v>
+        <v>0.03323574253774159</v>
       </c>
       <c r="F149" t="n">
-        <v>0.8777704635904616</v>
+        <v>0.04544645737642762</v>
       </c>
       <c r="G149" t="n">
-        <v>17.10556204443238</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="H149" t="n">
-        <v>16.51326465229743</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>18.51567365435943</v>
+        <v>0.125</v>
       </c>
       <c r="J149" t="n">
-        <v>19.75203890413851</v>
+        <v>0.157894736842105</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>team_season_aggressive_actions_pg</t>
+          <t>team_season_penalty_goals_pg</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>85.66145074224022</v>
+        <v>0.09798920377867745</v>
       </c>
       <c r="C150" t="n">
-        <v>87.64376481744902</v>
+        <v>0.08449502133712659</v>
       </c>
       <c r="D150" t="n">
-        <v>1.023141262003298</v>
+        <v>0.2800964044464875</v>
       </c>
       <c r="E150" t="n">
-        <v>6.608172047441241</v>
+        <v>0.07157314472401941</v>
       </c>
       <c r="F150" t="n">
-        <v>6.324442673508451</v>
+        <v>0.04246562155179719</v>
       </c>
       <c r="G150" t="n">
-        <v>76.97435897435898</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H150" t="n">
-        <v>78.5</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I150" t="n">
-        <v>94.675</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="J150" t="n">
-        <v>102.5789473684211</v>
+        <v>0.1842105263157895</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>team_season_pressures_pg</t>
+          <t>team_season_completed_dribbles_conceded_pg</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>146.404358974359</v>
+        <v>8.902935222672065</v>
       </c>
       <c r="C151" t="n">
-        <v>149.5352773826458</v>
+        <v>8.669084874348032</v>
       </c>
       <c r="D151" t="n">
-        <v>1.021385417963103</v>
+        <v>0.2743021008175187</v>
       </c>
       <c r="E151" t="n">
-        <v>8.448628299607757</v>
+        <v>0.6543180179616166</v>
       </c>
       <c r="F151" t="n">
-        <v>8.748112687102278</v>
+        <v>0.9493793037822441</v>
       </c>
       <c r="G151" t="n">
-        <v>133.9230769230769</v>
+        <v>8</v>
       </c>
       <c r="H151" t="n">
-        <v>137.1842105263158</v>
+        <v>7.052631578947368</v>
       </c>
       <c r="I151" t="n">
-        <v>157.15</v>
+        <v>9.538461538461538</v>
       </c>
       <c r="J151" t="n">
-        <v>165</v>
+        <v>10.31578947368421</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>team_season_ball_in_play_time</t>
+          <t>team_season_free_kick_xg_pg</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>52.7635936</v>
+        <v>0.05692076141545712</v>
       </c>
       <c r="C152" t="n">
-        <v>51.7257286</v>
+        <v>0.06202411557275726</v>
       </c>
       <c r="D152" t="n">
-        <v>1.020064772949375</v>
+        <v>0.2646387864850334</v>
       </c>
       <c r="E152" t="n">
-        <v>2.343041648639925</v>
+        <v>0.02425299705571426</v>
       </c>
       <c r="F152" t="n">
-        <v>1.443933990606061</v>
+        <v>0.01887388618630545</v>
       </c>
       <c r="G152" t="n">
-        <v>49.59622</v>
+        <v>0.03052614299723735</v>
       </c>
       <c r="H152" t="n">
-        <v>49.011845</v>
+        <v>0.02735947055350009</v>
       </c>
       <c r="I152" t="n">
-        <v>55.590843</v>
+        <v>0.09053589285988557</v>
       </c>
       <c r="J152" t="n">
-        <v>53.63584</v>
+        <v>0.08771039540634344</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>team_season_possessions</t>
+          <t>team_season_throw_in_goal_ratio</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>192.2685222672065</v>
+        <v>0.0001877934272300469</v>
       </c>
       <c r="C153" t="n">
-        <v>195.5511142721669</v>
+        <v>0.0003098892954471841</v>
       </c>
       <c r="D153" t="n">
-        <v>1.017072955917341</v>
+        <v>0.2505073491041857</v>
       </c>
       <c r="E153" t="n">
-        <v>2.896484125129153</v>
+        <v>0.0004199188690140451</v>
       </c>
       <c r="F153" t="n">
-        <v>4.152976802407943</v>
+        <v>0.0005338428738211818</v>
       </c>
       <c r="G153" t="n">
-        <v>187.875</v>
+        <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>186.6052631578947</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>195.2564102564102</v>
+        <v>0.0009389671361502347</v>
       </c>
       <c r="J153" t="n">
-        <v>201.3947368421053</v>
+        <v>0.001254705144291092</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>team_season_opposition_dribble_ratio</t>
+          <t>team_season_goals_from_free_kicks_pg</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.551369378</v>
+        <v>0.0624966261808367</v>
       </c>
       <c r="C154" t="n">
-        <v>0.542547972</v>
+        <v>0.05097202465623516</v>
       </c>
       <c r="D154" t="n">
-        <v>1.016259218456723</v>
+        <v>0.2394263114140151</v>
       </c>
       <c r="E154" t="n">
-        <v>0.02783420632858014</v>
+        <v>0.08461999053341351</v>
       </c>
       <c r="F154" t="n">
-        <v>0.02694810192021249</v>
+        <v>0.0350487947528053</v>
       </c>
       <c r="G154" t="n">
-        <v>0.53521127</v>
+        <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>0.49679488</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0.6009693</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="J154" t="n">
-        <v>0.5966102</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_xg_conceded_pg</t>
+          <t>team_season_gk_long_pass_ratio</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.02663453044152382</v>
+        <v>0.4350846065153859</v>
       </c>
       <c r="C155" t="n">
-        <v>0.02703302819418711</v>
+        <v>0.4234627973618956</v>
       </c>
       <c r="D155" t="n">
-        <v>1.014961696191273</v>
+        <v>0.234421976067241</v>
       </c>
       <c r="E155" t="n">
-        <v>0.00516047681427126</v>
+        <v>0.07368219366130248</v>
       </c>
       <c r="F155" t="n">
-        <v>0.007530366190686477</v>
+        <v>0.04386157135472663</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0215025489218533</v>
+        <v>0.3534743202416918</v>
       </c>
       <c r="H155" t="n">
-        <v>0.0152887852715426</v>
+        <v>0.3477124183006536</v>
       </c>
       <c r="I155" t="n">
-        <v>0.0351488482541381</v>
+        <v>0.5465686274509803</v>
       </c>
       <c r="J155" t="n">
-        <v>0.0456878484324797</v>
+        <v>0.4869976359338061</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_ins_pg</t>
+          <t>team_season_own_goals_pg</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>23.41348178137652</v>
+        <v>0.02591767881241565</v>
       </c>
       <c r="C156" t="n">
-        <v>23.13494547178758</v>
+        <v>0.02987197724039829</v>
       </c>
       <c r="D156" t="n">
-        <v>1.012039635447968</v>
+        <v>0.2145142947330362</v>
       </c>
       <c r="E156" t="n">
-        <v>2.882509667937712</v>
+        <v>0.01861743604072793</v>
       </c>
       <c r="F156" t="n">
-        <v>1.413342647959478</v>
+        <v>0.01955025573884892</v>
       </c>
       <c r="G156" t="n">
-        <v>20.8974358974359</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>20.55263157894737</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>28.02631578947368</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J156" t="n">
-        <v>25.39473684210526</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>team_season_total_dribbles_conceded_pg</t>
+          <t>team_season_direct_free_kick_goals_conceded_pg</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>16.15016194331984</v>
+        <v>0.03104588394062078</v>
       </c>
       <c r="C157" t="n">
-        <v>15.98345187292556</v>
+        <v>0.0352773826458037</v>
       </c>
       <c r="D157" t="n">
-        <v>1.010430166882579</v>
+        <v>0.2031392983516858</v>
       </c>
       <c r="E157" t="n">
-        <v>0.9668687774827177</v>
+        <v>0.01207573726208192</v>
       </c>
       <c r="F157" t="n">
-        <v>1.598614845457701</v>
+        <v>0.0239460371334788</v>
       </c>
       <c r="G157" t="n">
-        <v>14.94736842105263</v>
+        <v>0.025</v>
       </c>
       <c r="H157" t="n">
-        <v>13.05263157894737</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>17.35</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J157" t="n">
-        <v>18.71052631578947</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>team_season_failed_dribbles_conceded_pg</t>
+          <t>team_season_direct_free_kick_xg_pg</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>7.247226720647774</v>
+        <v>0.02821263080803104</v>
       </c>
       <c r="C158" t="n">
-        <v>7.314366998577525</v>
+        <v>0.02648232635523507</v>
       </c>
       <c r="D158" t="n">
-        <v>1.009264271771499</v>
+        <v>0.1986802761615885</v>
       </c>
       <c r="E158" t="n">
-        <v>0.6521606704127869</v>
+        <v>0.009554344130146015</v>
       </c>
       <c r="F158" t="n">
-        <v>0.863444607664858</v>
+        <v>0.009025996952654061</v>
       </c>
       <c r="G158" t="n">
-        <v>6.333333333333333</v>
+        <v>0.01490654965470496</v>
       </c>
       <c r="H158" t="n">
-        <v>5.710526315789473</v>
+        <v>0.01552731286440241</v>
       </c>
       <c r="I158" t="n">
-        <v>7.975</v>
+        <v>0.04066517212195322</v>
       </c>
       <c r="J158" t="n">
-        <v>8.486486486486486</v>
+        <v>0.04291065336783995</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_shot_ratio</t>
+          <t>team_season_directness</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.04643866040683808</v>
+        <v>0.8652773618911078</v>
       </c>
       <c r="C159" t="n">
-        <v>0.0468543765871102</v>
+        <v>0.8675129458985338</v>
       </c>
       <c r="D159" t="n">
-        <v>1.008951941693196</v>
+        <v>0.1711906264281823</v>
       </c>
       <c r="E159" t="n">
-        <v>0.01222554365377121</v>
+        <v>0.01251363547963737</v>
       </c>
       <c r="F159" t="n">
-        <v>0.01252283228872295</v>
+        <v>0.01405514797133368</v>
       </c>
       <c r="G159" t="n">
-        <v>0.03538175046554935</v>
+        <v>0.8513061397373659</v>
       </c>
       <c r="H159" t="n">
-        <v>0.02425373134328358</v>
+        <v>0.8454262269202945</v>
       </c>
       <c r="I159" t="n">
-        <v>0.06739130434782609</v>
+        <v>0.8843172884059471</v>
       </c>
       <c r="J159" t="n">
-        <v>0.06607142857142857</v>
+        <v>0.8988229546185537</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kicks_conceded_pg</t>
+          <t>team_season_throw_ins_pg</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>15.06302294197032</v>
+        <v>23.41348178137652</v>
       </c>
       <c r="C160" t="n">
-        <v>14.94845898530108</v>
+        <v>23.13494547178758</v>
       </c>
       <c r="D160" t="n">
-        <v>1.007663930896281</v>
+        <v>0.1588502257367511</v>
       </c>
       <c r="E160" t="n">
-        <v>1.238114097010811</v>
+        <v>2.882509667937712</v>
       </c>
       <c r="F160" t="n">
-        <v>1.408735844655925</v>
+        <v>1.413342647959478</v>
       </c>
       <c r="G160" t="n">
-        <v>13.8717948717949</v>
+        <v>20.8974358974359</v>
       </c>
       <c r="H160" t="n">
-        <v>11.9210526315789</v>
+        <v>20.55263157894737</v>
       </c>
       <c r="I160" t="n">
-        <v>16.5</v>
+        <v>28.02631578947368</v>
       </c>
       <c r="J160" t="n">
-        <v>16.7027027027027</v>
+        <v>25.39473684210526</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>team_season_dribble_ratio</t>
+          <t>team_season_goals_from_throw_ins_pg</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.542015828</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="C161" t="n">
-        <v>0.5458494473333334</v>
+        <v>0.007017543859649122</v>
       </c>
       <c r="D161" t="n">
-        <v>1.007072891851662</v>
+        <v>0.1539600717839001</v>
       </c>
       <c r="E161" t="n">
-        <v>0.02806256943475187</v>
+        <v>0.01176877882894626</v>
       </c>
       <c r="F161" t="n">
-        <v>0.02593005496588672</v>
+        <v>0.01204572916360693</v>
       </c>
       <c r="G161" t="n">
-        <v>0.51138353</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>0.47217807</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0.57513916</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="J161" t="n">
-        <v>0.5796897</v>
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>team_season_pressure_regains_pg</t>
+          <t>team_season_dribble_ratio</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>29.06888663967612</v>
+        <v>0.542015828</v>
       </c>
       <c r="C162" t="n">
-        <v>29.2325746799431</v>
+        <v>0.5458494473333334</v>
       </c>
       <c r="D162" t="n">
-        <v>1.005631039203392</v>
+        <v>0.1526243037991419</v>
       </c>
       <c r="E162" t="n">
-        <v>1.489921438979488</v>
+        <v>0.02806256943475187</v>
       </c>
       <c r="F162" t="n">
-        <v>2.55837167424816</v>
+        <v>0.02593005496588672</v>
       </c>
       <c r="G162" t="n">
-        <v>27.05263157894737</v>
+        <v>0.51138353</v>
       </c>
       <c r="H162" t="n">
-        <v>25.05263157894737</v>
+        <v>0.47217807</v>
       </c>
       <c r="I162" t="n">
-        <v>31.10526315789474</v>
+        <v>0.57513916</v>
       </c>
       <c r="J162" t="n">
-        <v>33.56756756756756</v>
+        <v>0.5796897</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>team_season_directness</t>
+          <t>team_season_xg_per_free_kick</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.8652773618911078</v>
+        <v>0.004270763208160232</v>
       </c>
       <c r="C163" t="n">
-        <v>0.8675129458985338</v>
+        <v>0.004063397033010101</v>
       </c>
       <c r="D163" t="n">
-        <v>1.002583661731933</v>
+        <v>0.1428343971499126</v>
       </c>
       <c r="E163" t="n">
-        <v>0.01251363547963737</v>
+        <v>0.002005802673782669</v>
       </c>
       <c r="F163" t="n">
-        <v>0.01405514797133368</v>
+        <v>0.001360144642286228</v>
       </c>
       <c r="G163" t="n">
-        <v>0.8513061397373659</v>
+        <v>0.002216982441907489</v>
       </c>
       <c r="H163" t="n">
-        <v>0.8454262269202945</v>
+        <v>0.001470522968232885</v>
       </c>
       <c r="I163" t="n">
-        <v>0.8843172884059471</v>
+        <v>0.007479052958281144</v>
       </c>
       <c r="J163" t="n">
-        <v>0.8988229546185537</v>
+        <v>0.006194014924501503</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>team_season_counterpressures_pg</t>
+          <t>team_season_total_dribbles_conceded_pg</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>32.03044534412955</v>
+        <v>16.15016194331984</v>
       </c>
       <c r="C164" t="n">
-        <v>32.04774774774775</v>
+        <v>15.98345187292556</v>
       </c>
       <c r="D164" t="n">
-        <v>1.00054018617076</v>
+        <v>0.118443488718684</v>
       </c>
       <c r="E164" t="n">
-        <v>1.586156732386431</v>
+        <v>0.9668687774827177</v>
       </c>
       <c r="F164" t="n">
-        <v>3.272761722762894</v>
+        <v>1.598614845457701</v>
       </c>
       <c r="G164" t="n">
-        <v>29.92307692307692</v>
+        <v>14.94736842105263</v>
       </c>
       <c r="H164" t="n">
-        <v>27.73684210526316</v>
+        <v>13.05263157894737</v>
       </c>
       <c r="I164" t="n">
-        <v>33.69230769230769</v>
+        <v>17.35</v>
       </c>
       <c r="J164" t="n">
-        <v>40.72972972972973</v>
+        <v>18.71052631578947</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shot_distance_conceded</t>
+          <t>team_season_penalties_conceded_pg</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>15.21794609009905</v>
+        <v>0.1133940620782726</v>
       </c>
       <c r="C165" t="n">
-        <v>15.22243710346092</v>
+        <v>0.1090564248458985</v>
       </c>
       <c r="D165" t="n">
-        <v>1.000295112976172</v>
+        <v>0.09033640010921858</v>
       </c>
       <c r="E165" t="n">
-        <v>1.209083639344046</v>
+        <v>0.01383903444119035</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9095012272718603</v>
+        <v>0.05686766731725924</v>
       </c>
       <c r="G165" t="n">
-        <v>13.95862916138795</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="H165" t="n">
-        <v>13.48204355791581</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I165" t="n">
-        <v>16.70120659224484</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="J165" t="n">
-        <v>16.75449339811467</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_shot_pg</t>
+          <t>team_season_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.09642829212781127</v>
+        <v>15.06302294197032</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.02045183753932134</v>
+        <v>14.94845898530108</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.212093744356826</v>
+        <v>0.08791253149128378</v>
       </c>
       <c r="E166" t="n">
-        <v>0.1060999402038555</v>
+        <v>1.238114097010811</v>
       </c>
       <c r="F166" t="n">
-        <v>0.1027212007109014</v>
+        <v>1.408735844655925</v>
       </c>
       <c r="G166" t="n">
-        <v>-0.02389112198725343</v>
+        <v>13.8717948717949</v>
       </c>
       <c r="H166" t="n">
-        <v>-0.295749404945889</v>
+        <v>11.9210526315789</v>
       </c>
       <c r="I166" t="n">
-        <v>0.2425509344499845</v>
+        <v>16.5</v>
       </c>
       <c r="J166" t="n">
-        <v>0.08254975614775169</v>
+        <v>16.7027027027027</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>team_season_xgd</t>
+          <t>team_season_failed_dribbles_conceded_pg</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>16.46211164</v>
+        <v>7.247226720647774</v>
       </c>
       <c r="C167" t="n">
-        <v>-5.487370475999999</v>
+        <v>7.314366998577525</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.3333333290406478</v>
+        <v>0.08612092158493619</v>
       </c>
       <c r="E167" t="n">
-        <v>12.10718718960486</v>
+        <v>0.6521606704127869</v>
       </c>
       <c r="F167" t="n">
-        <v>7.689695992771734</v>
+        <v>0.863444607664858</v>
       </c>
       <c r="G167" t="n">
-        <v>7.5695252</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="H167" t="n">
-        <v>-21.571327</v>
+        <v>5.710526315789473</v>
       </c>
       <c r="I167" t="n">
-        <v>37.76722</v>
+        <v>7.975</v>
       </c>
       <c r="J167" t="n">
-        <v>7.4898443</v>
+        <v>8.486486486486486</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>team_season_gd</t>
+          <t>team_season_pressure_regains_pg</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>24.6</v>
+        <v>29.06888663967612</v>
       </c>
       <c r="C168" t="n">
-        <v>-8.199999999999999</v>
+        <v>29.2325746799431</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.3333333333333333</v>
+        <v>0.07297993555292702</v>
       </c>
       <c r="E168" t="n">
-        <v>13.95707705789432</v>
+        <v>1.489921438979488</v>
       </c>
       <c r="F168" t="n">
-        <v>11.48415056874971</v>
+        <v>2.55837167424816</v>
       </c>
       <c r="G168" t="n">
-        <v>14</v>
+        <v>27.05263157894737</v>
       </c>
       <c r="H168" t="n">
-        <v>-34</v>
+        <v>25.05263157894737</v>
       </c>
       <c r="I168" t="n">
-        <v>49</v>
+        <v>31.10526315789474</v>
       </c>
       <c r="J168" t="n">
-        <v>9</v>
+        <v>33.56756756756756</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xgd_pg</t>
+          <t>team_season_direct_free_kick_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.4081699306627437</v>
+        <v>0.02663453044152382</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.1387299134316971</v>
+        <v>0.02703302819418711</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.3398827375805022</v>
+        <v>0.05937131889741232</v>
       </c>
       <c r="E169" t="n">
-        <v>0.3355488461668543</v>
+        <v>0.00516047681427126</v>
       </c>
       <c r="F169" t="n">
-        <v>0.2236058198353376</v>
+        <v>0.007530366190686477</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1102961806150583</v>
+        <v>0.0215025489218533</v>
       </c>
       <c r="H169" t="n">
-        <v>-0.5876664919288535</v>
+        <v>0.0152887852715426</v>
       </c>
       <c r="I169" t="n">
-        <v>0.9744926165593298</v>
+        <v>0.0351488482541381</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1777141094207764</v>
+        <v>0.0456878484324797</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>team_season_xgd_pg</t>
+          <t>team_season_free_kick_shot_ratio</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.4272029465991959</v>
+        <v>0.04643866040683808</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.1452379757247869</v>
+        <v>0.0468543765871102</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.3399741899745133</v>
+        <v>0.03517211973285044</v>
       </c>
       <c r="E170" t="n">
-        <v>0.3216032804204463</v>
+        <v>0.01222554365377121</v>
       </c>
       <c r="F170" t="n">
-        <v>0.2030087776324193</v>
+        <v>0.01252283228872295</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1940903885242267</v>
+        <v>0.03538175046554935</v>
       </c>
       <c r="H170" t="n">
-        <v>-0.5676664937483636</v>
+        <v>0.02425373134328358</v>
       </c>
       <c r="I170" t="n">
-        <v>0.9938741992962988</v>
+        <v>0.06739130434782609</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1971011844120528</v>
+        <v>0.06607142857142857</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_gd_pg</t>
+          <t>team_season_counterpressures_pg</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.6079217273954115</v>
+        <v>32.03044534412955</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.2078710289236605</v>
+        <v>32.04774774774775</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.3419371599272591</v>
+        <v>0.006116974319914932</v>
       </c>
       <c r="E171" t="n">
-        <v>0.3910413995583376</v>
+        <v>1.586156732386431</v>
       </c>
       <c r="F171" t="n">
-        <v>0.3209047978263614</v>
+        <v>3.272761722762894</v>
       </c>
       <c r="G171" t="n">
-        <v>0.282051282051282</v>
+        <v>29.92307692307692</v>
       </c>
       <c r="H171" t="n">
-        <v>-0.972972972972973</v>
+        <v>27.73684210526316</v>
       </c>
       <c r="I171" t="n">
-        <v>1.263157894736842</v>
+        <v>33.69230769230769</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1842105263157895</v>
+        <v>40.72972972972973</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>team_season_gd_pg</t>
+          <t>team_season_sp_shot_distance_conceded</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.6382860998650473</v>
+        <v>15.21794609009905</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.2183499288762447</v>
+        <v>15.22243710346092</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.3420878645522915</v>
+        <v>0.004810960481021864</v>
       </c>
       <c r="E172" t="n">
-        <v>0.3729726599975151</v>
+        <v>1.209083639344046</v>
       </c>
       <c r="F172" t="n">
-        <v>0.3071795858458143</v>
+        <v>0.9095012272718603</v>
       </c>
       <c r="G172" t="n">
-        <v>0.35</v>
+        <v>13.95862916138795</v>
       </c>
       <c r="H172" t="n">
-        <v>-0.918918918918919</v>
+        <v>13.48204355791581</v>
       </c>
       <c r="I172" t="n">
-        <v>1.289473684210526</v>
+        <v>16.70120659224484</v>
       </c>
       <c r="J172" t="n">
-        <v>0.2368421052631579</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="inlineStr">
-        <is>
-          <t>team_season_obv_shot_conceded_pg</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>-0.08066632457957296</v>
-      </c>
-      <c r="C173" t="n">
-        <v>0.04107616597335236</v>
-      </c>
-      <c r="D173" t="n">
-        <v>-0.5092108285265055</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0.07668061557260533</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0.1186642645224556</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-0.1653020683676004</v>
-      </c>
-      <c r="H173" t="n">
-        <v>-0.09471209773695782</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0.007248228941208277</v>
-      </c>
-      <c r="J173" t="n">
-        <v>0.2778484193054405</v>
+        <v>16.75449339811467</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau métriques/moyenne/2021_2022/Stats Bomb/moyenne_metriques.xlsx
+++ b/Tableau métriques/moyenne/2021_2022/Stats Bomb/moyenne_metriques.xlsx
@@ -446,8 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Diff Moyennes
-(données normalisées)</t>
+          <t>Diff. Top 5 avec Bottom 15 en %</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -484,1327 +483,1327 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>team_season_gd</t>
+          <t>team_season_obv_shot_pg</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.6</v>
+        <v>0.09642829212781127</v>
       </c>
       <c r="C2" t="n">
-        <v>-8.199999999999999</v>
+        <v>-0.02045183753932133</v>
       </c>
       <c r="D2" t="n">
-        <v>1.797428927871906</v>
+        <v>571.49</v>
       </c>
       <c r="E2" t="n">
-        <v>13.95707705789432</v>
+        <v>0.1060999402038555</v>
       </c>
       <c r="F2" t="n">
-        <v>11.48415056874971</v>
+        <v>0.1027212007109014</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>-0.02389112198725343</v>
       </c>
       <c r="H2" t="n">
-        <v>-34</v>
+        <v>-0.295749404945889</v>
       </c>
       <c r="I2" t="n">
-        <v>49</v>
+        <v>0.2425509344499845</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>0.08254975614775169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>team_season_gd_pg</t>
+          <t>team_season_xgd</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6382860998650473</v>
+        <v>16.46211164</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2183499288762447</v>
+        <v>-5.487370475999999</v>
       </c>
       <c r="D3" t="n">
-        <v>1.780546128771507</v>
+        <v>400</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3729726599975151</v>
+        <v>12.10718718960486</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3071795858458143</v>
+        <v>7.689695992771734</v>
       </c>
       <c r="G3" t="n">
-        <v>0.35</v>
+        <v>7.5695252</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.918918918918919</v>
+        <v>-21.571327</v>
       </c>
       <c r="I3" t="n">
-        <v>1.289473684210526</v>
+        <v>37.76722</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2368421052631579</v>
+        <v>7.4898443</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>team_season_xgd</t>
+          <t>team_season_gd</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.46211164</v>
+        <v>24.6</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.487370475999999</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>1.729633254796858</v>
+        <v>400</v>
       </c>
       <c r="E4" t="n">
-        <v>12.10718718960486</v>
+        <v>13.95707705789432</v>
       </c>
       <c r="F4" t="n">
-        <v>7.689695992771734</v>
+        <v>11.48415056874971</v>
       </c>
       <c r="G4" t="n">
-        <v>7.5695252</v>
+        <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>-21.571327</v>
+        <v>-34</v>
       </c>
       <c r="I4" t="n">
-        <v>37.76722</v>
+        <v>49</v>
       </c>
       <c r="J4" t="n">
-        <v>7.4898443</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>team_season_xgd_pg</t>
+          <t>team_season_np_xgd_pg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4272029465991959</v>
+        <v>0.4081699306627437</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1452379757247869</v>
+        <v>-0.1387299134316971</v>
       </c>
       <c r="D5" t="n">
-        <v>1.718366745752598</v>
+        <v>394.22</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3216032804204463</v>
+        <v>0.3355488461668543</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2030087776324193</v>
+        <v>0.2236058198353376</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1940903885242267</v>
+        <v>0.1102961806150583</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5676664937483636</v>
+        <v>-0.5876664919288535</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9938741992962988</v>
+        <v>0.9744926165593298</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1971011844120528</v>
+        <v>0.1777141094207764</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_gd_pg</t>
+          <t>team_season_xgd_pg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6079217273954115</v>
+        <v>0.4272029465991959</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2078710289236605</v>
+        <v>-0.1452379757247869</v>
       </c>
       <c r="D6" t="n">
-        <v>1.710542343837117</v>
+        <v>394.14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3910413995583376</v>
+        <v>0.3216032804204463</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3209047978263614</v>
+        <v>0.2030087776324193</v>
       </c>
       <c r="G6" t="n">
-        <v>0.282051282051282</v>
+        <v>0.1940903885242267</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.972972972972973</v>
+        <v>-0.5676664937483636</v>
       </c>
       <c r="I6" t="n">
-        <v>1.263157894736842</v>
+        <v>0.9938741992962988</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1971011844120528</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>team_season_possession</t>
+          <t>team_season_np_gd_pg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5508902683232708</v>
+        <v>0.6079217273954115</v>
       </c>
       <c r="C7" t="n">
-        <v>0.482601792532653</v>
+        <v>-0.2078710289236605</v>
       </c>
       <c r="D7" t="n">
-        <v>1.658463951217771</v>
+        <v>392.45</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04289243894874804</v>
+        <v>0.3910413995583376</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02544229698377877</v>
+        <v>0.3209047978263614</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4979002759028556</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4367541259571595</v>
+        <v>-0.972972972972973</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6063871581500708</v>
+        <v>1.263157894736842</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5271755916827701</v>
+        <v>0.1842105263157895</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xgd_pg</t>
+          <t>team_season_gd_pg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4081699306627437</v>
+        <v>0.6382860998650473</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1387299134316971</v>
+        <v>-0.2183499288762447</v>
       </c>
       <c r="D8" t="n">
-        <v>1.622630727634441</v>
+        <v>392.32</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3355488461668543</v>
+        <v>0.3729726599975149</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2236058198353376</v>
+        <v>0.3071795858458143</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1102961806150583</v>
+        <v>0.35</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5876664919288535</v>
+        <v>-0.918918918918919</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9744926165593298</v>
+        <v>1.289473684210526</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1777141094207764</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>team_season_passes_pg</t>
+          <t>team_season_obv_shot_conceded_pg</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>530.609048582996</v>
+        <v>-0.08066632457957293</v>
       </c>
       <c r="C9" t="n">
-        <v>446.0417733522997</v>
+        <v>0.04107616597335236</v>
       </c>
       <c r="D9" t="n">
-        <v>1.620173181063555</v>
+        <v>-296.38</v>
       </c>
       <c r="E9" t="n">
-        <v>56.22635281031803</v>
+        <v>0.07668061557260532</v>
       </c>
       <c r="F9" t="n">
-        <v>32.76013440005144</v>
+        <v>0.1186642645224556</v>
       </c>
       <c r="G9" t="n">
-        <v>446.2368421052632</v>
+        <v>-0.1653020683676004</v>
       </c>
       <c r="H9" t="n">
-        <v>385.7567567567568</v>
+        <v>-0.09471209773695782</v>
       </c>
       <c r="I9" t="n">
-        <v>588.3846153846154</v>
+        <v>0.007248228941208277</v>
       </c>
       <c r="J9" t="n">
-        <v>497.421052631579</v>
+        <v>0.2778484193054405</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_passes_pg</t>
+          <t>team_season_direct_free_kick_goal_ratio</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>479.7142105263158</v>
+        <v>0.1181818181818182</v>
       </c>
       <c r="C10" t="n">
-        <v>392.76951161688</v>
+        <v>0.03954980204980205</v>
       </c>
       <c r="D10" t="n">
-        <v>1.615589371526586</v>
+        <v>198.82</v>
       </c>
       <c r="E10" t="n">
-        <v>58.57010077347938</v>
+        <v>0.04675000552437322</v>
       </c>
       <c r="F10" t="n">
-        <v>33.65149227652194</v>
+        <v>0.04029958265433332</v>
       </c>
       <c r="G10" t="n">
-        <v>390.421052631579</v>
+        <v>0.0625</v>
       </c>
       <c r="H10" t="n">
-        <v>331.4864864864865</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>537.4358974358975</v>
+        <v>0.1875</v>
       </c>
       <c r="J10" t="n">
-        <v>444.9736842105263</v>
+        <v>0.09523809523809521</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>team_season_defensive_distance</t>
+          <t>team_season_goals_from_throw_ins_conceded_pg</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45.35638489101139</v>
+        <v>0.01026315789473684</v>
       </c>
       <c r="C11" t="n">
-        <v>43.00171569288157</v>
+        <v>0.005310573731626364</v>
       </c>
       <c r="D11" t="n">
-        <v>1.575430341230857</v>
+        <v>93.26000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>1.194146743342781</v>
+        <v>0.01406110527093952</v>
       </c>
       <c r="F11" t="n">
-        <v>1.139613431346249</v>
+        <v>0.01099502757997121</v>
       </c>
       <c r="G11" t="n">
-        <v>43.45739579143202</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>40.95089707580848</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>46.48390896851699</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="J11" t="n">
-        <v>44.90620568273906</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>team_season_deep_completions_pg</t>
+          <t>team_season_throw_in_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.371754385964913</v>
+        <v>0.000450724505419848</v>
       </c>
       <c r="C12" t="n">
-        <v>2.38819345661451</v>
+        <v>0.00023554660467449</v>
       </c>
       <c r="D12" t="n">
-        <v>1.564429237713055</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7064431939659027</v>
+        <v>0.0006180702081460998</v>
       </c>
       <c r="F12" t="n">
-        <v>0.40367721144244</v>
+        <v>0.0004886352856782744</v>
       </c>
       <c r="G12" t="n">
-        <v>2.368421052631579</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.789473684210526</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4.358974358974359</v>
+        <v>0.00117370892018779</v>
       </c>
       <c r="J12" t="n">
-        <v>3.131578947368421</v>
+        <v>0.00124378109452736</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_conceded_pg</t>
+          <t>team_season_direct_free_kick_goals_pg</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8384278002699055</v>
+        <v>0.05170040485829959</v>
       </c>
       <c r="C13" t="n">
-        <v>1.242342342342342</v>
+        <v>0.02807017543859649</v>
       </c>
       <c r="D13" t="n">
-        <v>1.563449195882577</v>
+        <v>84.18000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1968755885998623</v>
+        <v>0.01887737899021421</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2014299709938822</v>
+        <v>0.03368107754853601</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9473684210526315</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="J13" t="n">
-        <v>1.783783783783784</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>team_season_passes_inside_box_pg</t>
+          <t>team_season_obv_gk_conceded_pg</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.224331983805668</v>
+        <v>-0.1396838789670438</v>
       </c>
       <c r="C14" t="n">
-        <v>1.572925557136083</v>
+        <v>-0.07987683501803734</v>
       </c>
       <c r="D14" t="n">
-        <v>1.530310100209707</v>
+        <v>-74.87</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4920406174063168</v>
+        <v>0.1578513151302365</v>
       </c>
       <c r="F14" t="n">
-        <v>0.275711658123833</v>
+        <v>0.07069140386665274</v>
       </c>
       <c r="G14" t="n">
-        <v>1.394736842105263</v>
+        <v>-0.3648999816198882</v>
       </c>
       <c r="H14" t="n">
-        <v>1.131578947368421</v>
+        <v>-0.1965850032620916</v>
       </c>
       <c r="I14" t="n">
-        <v>2.564102564102564</v>
+        <v>0.07342373192108967</v>
       </c>
       <c r="J14" t="n">
-        <v>2.026315789473684</v>
+        <v>0.06949659600551869</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>team_season_deep_progressions_conceded_pg</t>
+          <t>team_season_obv_gk_pg</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>33.75834008097166</v>
+        <v>-0.03576468206818691</v>
       </c>
       <c r="C15" t="n">
-        <v>40.34286391654813</v>
+        <v>-0.1159699449990999</v>
       </c>
       <c r="D15" t="n">
-        <v>1.523584148678615</v>
+        <v>69.16</v>
       </c>
       <c r="E15" t="n">
-        <v>3.021653363500962</v>
+        <v>0.07818898726524233</v>
       </c>
       <c r="F15" t="n">
-        <v>3.529883968686681</v>
+        <v>0.08143954020406399</v>
       </c>
       <c r="G15" t="n">
-        <v>30.02631578947368</v>
+        <v>-0.1605986437613243</v>
       </c>
       <c r="H15" t="n">
-        <v>34.39473684210526</v>
+        <v>-0.2611667311897403</v>
       </c>
       <c r="I15" t="n">
-        <v>38.30769230769231</v>
+        <v>0.0379026513798414</v>
       </c>
       <c r="J15" t="n">
-        <v>46.26315789473684</v>
+        <v>0.01263494980766585</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>team_season_successful_passes_pg</t>
+          <t>team_season_goals_from_corners_pg</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>426.8917408906882</v>
+        <v>0.2075775978407557</v>
       </c>
       <c r="C16" t="n">
-        <v>345.3349928876244</v>
+        <v>0.1249407302038881</v>
       </c>
       <c r="D16" t="n">
-        <v>1.517590450231813</v>
+        <v>66.14</v>
       </c>
       <c r="E16" t="n">
-        <v>60.64238006532347</v>
+        <v>0.1064429188240036</v>
       </c>
       <c r="F16" t="n">
-        <v>35.96492132828886</v>
+        <v>0.06658266043932423</v>
       </c>
       <c r="G16" t="n">
-        <v>332.8157894736842</v>
+        <v>0.075</v>
       </c>
       <c r="H16" t="n">
-        <v>281.3783783783784</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I16" t="n">
-        <v>481.7179487179487</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="J16" t="n">
-        <v>401.1052631578947</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>team_season_deep_completions_conceded_pg</t>
+          <t>team_season_sp_goal_ratio</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.982010796221322</v>
+        <v>0.007887360278845181</v>
       </c>
       <c r="C17" t="n">
-        <v>2.862731152204837</v>
+        <v>0.004878127662815072</v>
       </c>
       <c r="D17" t="n">
-        <v>1.506873110641054</v>
+        <v>61.69</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4799483381750095</v>
+        <v>0.005072319692396551</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4630580198749262</v>
+        <v>0.002066488544685695</v>
       </c>
       <c r="G17" t="n">
-        <v>1.657894736842105</v>
+        <v>0.00409836065573771</v>
       </c>
       <c r="H17" t="n">
-        <v>1.921052631578947</v>
+        <v>0.00109769484083425</v>
       </c>
       <c r="I17" t="n">
-        <v>2.820512820512821</v>
+        <v>0.0165892501658925</v>
       </c>
       <c r="J17" t="n">
-        <v>3.552631578947369</v>
+        <v>0.008426966292134829</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_goal_ratio</t>
+          <t>team_season_throw_in_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1181818181818182</v>
+        <v>0.001864027887640594</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03954980204980205</v>
+        <v>0.004582985396324292</v>
       </c>
       <c r="D18" t="n">
-        <v>1.50403750567533</v>
+        <v>-59.33</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04675000552437322</v>
+        <v>0.0009172301422593595</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04029958265433332</v>
+        <v>0.003347228088232239</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0625</v>
+        <v>0.000788165403431968</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.000561041267294633</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1875</v>
+        <v>0.00329413549043238</v>
       </c>
       <c r="J18" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.0110827645679054</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>team_season_corners_conceded_pg</t>
+          <t>team_season_xg_per_throw_in_conceded</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.882739541160594</v>
+        <v>8.339398868230323e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>4.649122807017545</v>
+        <v>0.0001962899957342735</v>
       </c>
       <c r="D19" t="n">
-        <v>1.478154839810785</v>
+        <v>-57.51</v>
       </c>
       <c r="E19" t="n">
-        <v>0.297966564822842</v>
+        <v>4.077749054463114e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4486973053369678</v>
+        <v>0.000149785346599824</v>
       </c>
       <c r="G19" t="n">
-        <v>3.5</v>
+        <v>3.0718241364528e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>3.86842105263158</v>
+        <v>2.87713470407504e-05</v>
       </c>
       <c r="I19" t="n">
-        <v>4.25641025641026</v>
+        <v>0.000142295275599601</v>
       </c>
       <c r="J19" t="n">
-        <v>5.44736842105263</v>
+        <v>0.000522262680886397</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_pass_conceded_pg</t>
+          <t>team_season_sp_goals_pg</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5682314426708193</v>
+        <v>0.3270377867746288</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7675023980915768</v>
+        <v>0.2110004741583689</v>
       </c>
       <c r="D20" t="n">
-        <v>1.455566980038971</v>
+        <v>54.99</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09456802845783567</v>
+        <v>0.1931508901577061</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1165472794096365</v>
+        <v>0.09207737303557217</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4136851480916927</v>
+        <v>0.175</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6081617631548157</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6650804212460151</v>
+        <v>0.657894736842105</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9656319129469527</v>
+        <v>0.394736842105263</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xg_conceded_pg</t>
+          <t>team_season_goals_from_corners_conceded_pg</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7900890802792631</v>
+        <v>0.07734143049932521</v>
       </c>
       <c r="C21" t="n">
-        <v>1.087084305786557</v>
+        <v>0.1694642010431484</v>
       </c>
       <c r="D21" t="n">
-        <v>1.45316434392525</v>
+        <v>-54.36</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1829564401914798</v>
+        <v>0.05535849007509801</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1627320881483028</v>
+        <v>0.09060613990067801</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5859373945154642</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7920600203307051</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="I21" t="n">
-        <v>0.997960987381446</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="J21" t="n">
-        <v>1.329671054273038</v>
+        <v>0.4324324324324325</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_xg_conceded_pg</t>
+          <t>team_season_free_kick_goal_ratio</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5977293458969587</v>
+        <v>0.004965984035224915</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8312676044235747</v>
+        <v>0.003344740631704283</v>
       </c>
       <c r="D22" t="n">
-        <v>1.438198466013904</v>
+        <v>48.47</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1341107319990624</v>
+        <v>0.007070358905944225</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1338691556320369</v>
+        <v>0.002298415853196976</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4599138557126647</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5783345022876012</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7442681512389427</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="J22" t="n">
-        <v>1.014662309071502</v>
+        <v>0.006872852233676976</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>team_season_successful_passes_conceded_pg</t>
+          <t>team_season_corner_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>330.2283468286099</v>
+        <v>0.01955765795831942</v>
       </c>
       <c r="C23" t="n">
-        <v>378.3987197724039</v>
+        <v>0.03630363835623288</v>
       </c>
       <c r="D23" t="n">
-        <v>1.426683962259968</v>
+        <v>-46.13</v>
       </c>
       <c r="E23" t="n">
-        <v>37.69450564522851</v>
+        <v>0.01420499044646966</v>
       </c>
       <c r="F23" t="n">
-        <v>24.51680657525147</v>
+        <v>0.01809631727425683</v>
       </c>
       <c r="G23" t="n">
-        <v>275.2631578947368</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>330.3243243243243</v>
+        <v>0.0165745856353591</v>
       </c>
       <c r="I23" t="n">
-        <v>381.1538461538461</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="J23" t="n">
-        <v>413.4736842105263</v>
+        <v>0.0842105263157895</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>team_season_passes_conceded_pg</t>
+          <t>team_season_corner_goal_ratio</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>432.2491767881241</v>
+        <v>0.04079142557975032</v>
       </c>
       <c r="C24" t="n">
-        <v>479.6787577050735</v>
+        <v>0.02816721422214759</v>
       </c>
       <c r="D24" t="n">
-        <v>1.426077900804412</v>
+        <v>44.82</v>
       </c>
       <c r="E24" t="n">
-        <v>38.48181184672534</v>
+        <v>0.01702207106361531</v>
       </c>
       <c r="F24" t="n">
-        <v>23.54878227685404</v>
+        <v>0.01297827923263622</v>
       </c>
       <c r="G24" t="n">
-        <v>374.1578947368421</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="H24" t="n">
-        <v>432.9459459459459</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="I24" t="n">
-        <v>479.3589743589744</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="J24" t="n">
-        <v>513.2894736842105</v>
+        <v>0.0446927374301676</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>team_season_fhalf_pressures_ratio</t>
+          <t>team_season_goals_pg</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4779079432821405</v>
+        <v>1.476713900134953</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4293512262796032</v>
+        <v>1.023992413466098</v>
       </c>
       <c r="D25" t="n">
-        <v>1.414655844950954</v>
+        <v>44.21</v>
       </c>
       <c r="E25" t="n">
-        <v>0.03656865007370138</v>
+        <v>0.430778090917019</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02587354164030143</v>
+        <v>0.1976296241975266</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4357045143638851</v>
+        <v>1.026315789473684</v>
       </c>
       <c r="H25" t="n">
-        <v>0.380327868852459</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5270917097453571</v>
+        <v>2.157894736842105</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4793831713040563</v>
+        <v>1.368421052631579</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_pg</t>
+          <t>team_season_xg_per_throw_in</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.476713900134953</v>
+        <v>0.0001079745566636045</v>
       </c>
       <c r="C26" t="n">
-        <v>1.023992413466098</v>
+        <v>0.0001899140825330491</v>
       </c>
       <c r="D26" t="n">
-        <v>1.411425936893672</v>
+        <v>-43.15</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4307780909170191</v>
+        <v>0.0001607656409357142</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1976296241975265</v>
+        <v>0.0001891751756512218</v>
       </c>
       <c r="G26" t="n">
-        <v>1.026315789473684</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.7368421052631579</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.157894736842105</v>
+        <v>0.0003814738887205307</v>
       </c>
       <c r="J26" t="n">
-        <v>1.368421052631579</v>
+        <v>0.0005361980335278944</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_conceded_pg</t>
+          <t>team_season_passes_inside_box_pg</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.28333636030282</v>
+        <v>2.224331983805668</v>
       </c>
       <c r="C27" t="n">
-        <v>1.681695000403559</v>
+        <v>1.572925557136083</v>
       </c>
       <c r="D27" t="n">
-        <v>1.402804395179061</v>
+        <v>41.41</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1466826074388953</v>
+        <v>0.4920406174063169</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2579679755219159</v>
+        <v>0.2757116581238331</v>
       </c>
       <c r="G27" t="n">
-        <v>1.098902865067909</v>
+        <v>1.394736842105263</v>
       </c>
       <c r="H27" t="n">
-        <v>1.313067628364814</v>
+        <v>1.131578947368421</v>
       </c>
       <c r="I27" t="n">
-        <v>1.439224595060715</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="J27" t="n">
-        <v>2.246413158403861</v>
+        <v>2.026315789473684</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_pg</t>
+          <t>team_season_deep_completions_pg</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.819633297045664</v>
+        <v>3.371754385964913</v>
       </c>
       <c r="C28" t="n">
-        <v>1.497479018401717</v>
+        <v>2.388193456614509</v>
       </c>
       <c r="D28" t="n">
-        <v>1.392918039213443</v>
+        <v>41.18</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2069125522598693</v>
+        <v>0.7064431939659026</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1907450000670585</v>
+        <v>0.4036772114424399</v>
       </c>
       <c r="G28" t="n">
-        <v>1.574891624482055</v>
+        <v>2.368421052631579</v>
       </c>
       <c r="H28" t="n">
-        <v>1.208470875985528</v>
+        <v>1.789473684210526</v>
       </c>
       <c r="I28" t="n">
-        <v>2.066048193919031</v>
+        <v>4.358974358974359</v>
       </c>
       <c r="J28" t="n">
-        <v>1.825071405055688</v>
+        <v>3.131578947368421</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_passes_conceded_pg</t>
+          <t>team_season_xg_per_direct_free_kick_conceded</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>379.5404183535762</v>
+        <v>0.06865436946840503</v>
       </c>
       <c r="C29" t="n">
-        <v>427.0165955429113</v>
+        <v>0.04868069688139951</v>
       </c>
       <c r="D29" t="n">
-        <v>1.389491136971656</v>
+        <v>41.03</v>
       </c>
       <c r="E29" t="n">
-        <v>39.80374757206337</v>
+        <v>0.03429895263820037</v>
       </c>
       <c r="F29" t="n">
-        <v>24.72604431542254</v>
+        <v>0.01053777744718556</v>
       </c>
       <c r="G29" t="n">
-        <v>318.8684210526316</v>
+        <v>0.0432929566928319</v>
       </c>
       <c r="H29" t="n">
-        <v>378.972972972973</v>
+        <v>0.0351177180806796</v>
       </c>
       <c r="I29" t="n">
-        <v>428.8717948717949</v>
+        <v>0.123735085129738</v>
       </c>
       <c r="J29" t="n">
-        <v>462.2368421052632</v>
+        <v>0.0689270636614631</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>team_season_opp_final_third_pass_ratio</t>
+          <t>team_season_throw_in_goal_ratio</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.5849607651107553</v>
+        <v>0.0001877934272300469</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6178172313999398</v>
+        <v>0.0003098892954471841</v>
       </c>
       <c r="D30" t="n">
-        <v>1.387035106834887</v>
+        <v>-39.4</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01492266790690864</v>
+        <v>0.0004199188690140451</v>
       </c>
       <c r="F30" t="n">
-        <v>0.02118564007098061</v>
+        <v>0.0005338428738211818</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5682683158896289</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5643170051772203</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6055701919458035</v>
+        <v>0.0009389671361502347</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6498266468548787</v>
+        <v>0.001254705144291092</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>team_season_defensive_distance_ppda</t>
+          <t>team_season_throw_in_xg_pg</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.100330299537314</v>
+        <v>0.002625752584518571</v>
       </c>
       <c r="C31" t="n">
-        <v>4.841992817539686</v>
+        <v>0.004310803803548592</v>
       </c>
       <c r="D31" t="n">
-        <v>1.366937289617386</v>
+        <v>-39.09</v>
       </c>
       <c r="E31" t="n">
-        <v>1.022190935924643</v>
+        <v>0.00380052344697543</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6985208736947924</v>
+        <v>0.004209446458640797</v>
       </c>
       <c r="G31" t="n">
-        <v>4.637701411333701</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>3.693345540060551</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>7.49487399914296</v>
+        <v>0.008945562783628703</v>
       </c>
       <c r="J31" t="n">
-        <v>6.24798606882488</v>
+        <v>0.01241721722640489</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>team_season_fhalf_counterpressures_ratio</t>
+          <t>team_season_penalties_won_pg</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.7367914450050373</v>
+        <v>0.13889338731444</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6952144699430729</v>
+        <v>0.1003319108582266</v>
       </c>
       <c r="D32" t="n">
-        <v>1.362763122715552</v>
+        <v>38.43</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02208862322275619</v>
+        <v>0.1125327820782731</v>
       </c>
       <c r="F32" t="n">
-        <v>0.02696866410642184</v>
+        <v>0.05813747338549873</v>
       </c>
       <c r="G32" t="n">
-        <v>0.712082262210797</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6461937716262975</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I32" t="n">
-        <v>0.7657873701039168</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J32" t="n">
-        <v>0.7398805573988055</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>team_season_high_press_shots_pg</t>
+          <t>team_season_opposition_own_goals_pg</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.729993252361674</v>
+        <v>0.0360391363022942</v>
       </c>
       <c r="C33" t="n">
-        <v>2.116548127074443</v>
+        <v>0.02636320531057373</v>
       </c>
       <c r="D33" t="n">
-        <v>1.348084373960931</v>
+        <v>36.7</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5745392592983078</v>
+        <v>0.02324157881258421</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3173369792434441</v>
+        <v>0.02436437892030772</v>
       </c>
       <c r="G33" t="n">
-        <v>1.923076923076923</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1.68421052631579</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>3.157894736842105</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J33" t="n">
-        <v>2.736842105263158</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>team_season_passes_inside_box_conceded_pg</t>
+          <t>team_season_goals_from_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.296167341430499</v>
+        <v>0.06682186234817813</v>
       </c>
       <c r="C34" t="n">
-        <v>1.889236605026078</v>
+        <v>0.04935988620199147</v>
       </c>
       <c r="D34" t="n">
-        <v>1.344145471448391</v>
+        <v>35.38</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3264450880106425</v>
+        <v>0.02229688142468866</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3917283364360866</v>
+        <v>0.01714109907273685</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="H34" t="n">
-        <v>1.105263157894737</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I34" t="n">
-        <v>1.82051282051282</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="J34" t="n">
-        <v>2.368421052631579</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_shots_conceded_pg</t>
+          <t>team_season_corner_xg_pg</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.32165991902834</v>
+        <v>0.1841421276994939</v>
       </c>
       <c r="C35" t="n">
-        <v>11.3814604077762</v>
+        <v>0.1361979098304322</v>
       </c>
       <c r="D35" t="n">
-        <v>1.331205048450244</v>
+        <v>35.2</v>
       </c>
       <c r="E35" t="n">
-        <v>1.518472680797422</v>
+        <v>0.06784290162835577</v>
       </c>
       <c r="F35" t="n">
-        <v>1.274770075888047</v>
+        <v>0.03540053570582403</v>
       </c>
       <c r="G35" t="n">
-        <v>6.631578947368421</v>
+        <v>0.1406909122537726</v>
       </c>
       <c r="H35" t="n">
-        <v>9.789473684210526</v>
+        <v>0.08344722318610079</v>
       </c>
       <c r="I35" t="n">
-        <v>10.28205128205128</v>
+        <v>0.3024551306213987</v>
       </c>
       <c r="J35" t="n">
-        <v>14.73684210526316</v>
+        <v>0.1834849621093756</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kicks_pg</t>
+          <t>team_season_shots_from_throw_ins_conceded_pg</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>13.49228744939271</v>
+        <v>0.05143724696356274</v>
       </c>
       <c r="C36" t="n">
-        <v>15.48022759601707</v>
+        <v>0.07923186344238974</v>
       </c>
       <c r="D36" t="n">
-        <v>1.322441977111149</v>
+        <v>-35.08</v>
       </c>
       <c r="E36" t="n">
-        <v>1.198719092853263</v>
+        <v>0.02553706551220515</v>
       </c>
       <c r="F36" t="n">
-        <v>1.326297479894936</v>
+        <v>0.02642923311882961</v>
       </c>
       <c r="G36" t="n">
-        <v>12.10526315789474</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="H36" t="n">
-        <v>13.71052631578947</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I36" t="n">
-        <v>15.31578947368421</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="J36" t="n">
-        <v>18.60526315789474</v>
+        <v>0.1081081081081081</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>team_season_opp_passing_ratio</t>
+          <t>team_season_second_yellow_cards_pg</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.7626498666686146</v>
+        <v>0.03091093117408907</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7883165369442861</v>
+        <v>0.04760550023707918</v>
       </c>
       <c r="D37" t="n">
-        <v>1.320659416046413</v>
+        <v>-35.07</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02225153593196714</v>
+        <v>0.02182295667333708</v>
       </c>
       <c r="F37" t="n">
-        <v>0.01488825129394662</v>
+        <v>0.04408071982518927</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7356871571247714</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7607106135039415</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7951323883391281</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J37" t="n">
-        <v>0.8083983849259758</v>
+        <v>0.1351351351351351</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shots_conceded_pg</t>
+          <t>team_season_free_kick_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.742408906882591</v>
+        <v>0.004507291741950387</v>
       </c>
       <c r="C38" t="n">
-        <v>8.130678046467519</v>
+        <v>0.003338972907754803</v>
       </c>
       <c r="D38" t="n">
-        <v>1.311458228215239</v>
+        <v>34.99</v>
       </c>
       <c r="E38" t="n">
-        <v>1.032270146253836</v>
+        <v>0.001729628342794826</v>
       </c>
       <c r="F38" t="n">
-        <v>0.883244894642514</v>
+        <v>0.001238199826097087</v>
       </c>
       <c r="G38" t="n">
-        <v>4.921052631578948</v>
+        <v>0.00318979266347687</v>
       </c>
       <c r="H38" t="n">
-        <v>6.631578947368421</v>
+        <v>0.00163132137030995</v>
       </c>
       <c r="I38" t="n">
-        <v>7.435897435897436</v>
+        <v>0.0072463768115942</v>
       </c>
       <c r="J38" t="n">
-        <v>9.868421052631579</v>
+        <v>0.00569259962049336</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>team_season_deep_progressions_pg</t>
+          <t>team_season_throw_in_shot_ratio</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>43.27894736842105</v>
+        <v>0.002280491406148333</v>
       </c>
       <c r="C39" t="n">
-        <v>37.10820293978188</v>
+        <v>0.003402562032743012</v>
       </c>
       <c r="D39" t="n">
-        <v>1.309166798839535</v>
+        <v>-32.98</v>
       </c>
       <c r="E39" t="n">
-        <v>4.621179817549691</v>
+        <v>0.002765058205434782</v>
       </c>
       <c r="F39" t="n">
-        <v>3.929064734895229</v>
+        <v>0.002774196724203858</v>
       </c>
       <c r="G39" t="n">
-        <v>37.71052631578947</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>31.42105263157895</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>49.18421052631579</v>
+        <v>0.006396588486140725</v>
       </c>
       <c r="J39" t="n">
-        <v>42.02702702702702</v>
+        <v>0.009768009768009768</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_in_clear_conceded_pg</t>
+          <t>team_season_throw_in_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.631322537112011</v>
+        <v>0.002298837912154342</v>
       </c>
       <c r="C40" t="n">
-        <v>2.166666666666667</v>
+        <v>0.003425164477637998</v>
       </c>
       <c r="D40" t="n">
-        <v>1.275257679902617</v>
+        <v>-32.88</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3480861117648543</v>
+        <v>0.001159481637723464</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3746561212732519</v>
+        <v>0.001228210644603983</v>
       </c>
       <c r="G40" t="n">
-        <v>1.157894736842105</v>
+        <v>0.00102564102564103</v>
       </c>
       <c r="H40" t="n">
-        <v>1.447368421052632</v>
+        <v>0.00134952766531714</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>0.00352112676056338</v>
       </c>
       <c r="J40" t="n">
-        <v>2.945945945945946</v>
+        <v>0.00516129032258065</v>
       </c>
     </row>
     <row r="41">
@@ -1820,7 +1819,7 @@
         <v>0.1616936215567599</v>
       </c>
       <c r="D41" t="n">
-        <v>1.255525216062833</v>
+        <v>-32.72</v>
       </c>
       <c r="E41" t="n">
         <v>0.03692179416839327</v>
@@ -1844,477 +1843,477 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_xg_pg</t>
+          <t>team_season_goals_conceded_pg</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9263577340634768</v>
+        <v>0.8384278002699055</v>
       </c>
       <c r="C42" t="n">
-        <v>0.719339235021961</v>
+        <v>1.242342342342342</v>
       </c>
       <c r="D42" t="n">
-        <v>1.250885260626456</v>
+        <v>-32.51</v>
       </c>
       <c r="E42" t="n">
-        <v>0.179073667303241</v>
+        <v>0.1968755885998623</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1359640387540423</v>
+        <v>0.2014299709938821</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7049552894344455</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4760530807175918</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="I42" t="n">
-        <v>1.200391620397568</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9085548697291194</v>
+        <v>1.783783783783784</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_in_clear_pg</t>
+          <t>team_season_passes_inside_box_conceded_pg</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.394041835357625</v>
+        <v>1.296167341430499</v>
       </c>
       <c r="C43" t="n">
-        <v>1.906021811284969</v>
+        <v>1.889236605026078</v>
       </c>
       <c r="D43" t="n">
-        <v>1.240764170584125</v>
+        <v>-31.39</v>
       </c>
       <c r="E43" t="n">
-        <v>0.405655453686298</v>
+        <v>0.3264450880106423</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3319539022417608</v>
+        <v>0.3917283364360866</v>
       </c>
       <c r="G43" t="n">
-        <v>2.051282051282051</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="H43" t="n">
-        <v>1.289473684210526</v>
+        <v>1.105263157894737</v>
       </c>
       <c r="I43" t="n">
-        <v>3.078947368421053</v>
+        <v>1.82051282051282</v>
       </c>
       <c r="J43" t="n">
-        <v>2.5</v>
+        <v>2.368421052631579</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>team_season_total_dribbles_pg</t>
+          <t>team_season_deep_completions_conceded_pg</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.40067476383266</v>
+        <v>1.982010796221322</v>
       </c>
       <c r="C44" t="n">
-        <v>16.59573257467995</v>
+        <v>2.862731152204836</v>
       </c>
       <c r="D44" t="n">
-        <v>1.237929151580874</v>
+        <v>-30.77</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6138148972704661</v>
+        <v>0.4799483381750097</v>
       </c>
       <c r="F44" t="n">
-        <v>1.758793376709689</v>
+        <v>0.4630580198749262</v>
       </c>
       <c r="G44" t="n">
-        <v>13.82051282051282</v>
+        <v>1.657894736842105</v>
       </c>
       <c r="H44" t="n">
-        <v>13.8421052631579</v>
+        <v>1.921052631578947</v>
       </c>
       <c r="I44" t="n">
-        <v>15.10526315789474</v>
+        <v>2.820512820512821</v>
       </c>
       <c r="J44" t="n">
-        <v>19.86486486486486</v>
+        <v>3.552631578947369</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>team_season_completed_dribbles_pg</t>
+          <t>team_season_high_press_shots_pg</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7.792827260458838</v>
+        <v>2.729993252361674</v>
       </c>
       <c r="C45" t="n">
-        <v>9.055097202465623</v>
+        <v>2.116548127074443</v>
       </c>
       <c r="D45" t="n">
-        <v>1.233298103543762</v>
+        <v>28.98</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1645542790182732</v>
+        <v>0.5745392592983078</v>
       </c>
       <c r="F45" t="n">
-        <v>1.030513332148581</v>
+        <v>0.3173369792434439</v>
       </c>
       <c r="G45" t="n">
-        <v>7.564102564102564</v>
+        <v>1.923076923076923</v>
       </c>
       <c r="H45" t="n">
-        <v>7.631578947368421</v>
+        <v>1.68421052631579</v>
       </c>
       <c r="I45" t="n">
-        <v>7.948717948717949</v>
+        <v>3.157894736842105</v>
       </c>
       <c r="J45" t="n">
-        <v>10.81578947368421</v>
+        <v>2.736842105263158</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_xg_conceded_pg</t>
+          <t>team_season_op_xg_pg</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1923597344698249</v>
+        <v>0.926357734063477</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2558167033334209</v>
+        <v>0.719339235021961</v>
       </c>
       <c r="D46" t="n">
-        <v>1.232448344697513</v>
+        <v>28.78</v>
       </c>
       <c r="E46" t="n">
-        <v>0.05455468276913738</v>
+        <v>0.1790736673032411</v>
       </c>
       <c r="F46" t="n">
-        <v>0.04310791730069567</v>
+        <v>0.1359640387540423</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1260235384351721</v>
+        <v>0.7049552894344455</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1882464993303936</v>
+        <v>0.4760530807175918</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2730843623359807</v>
+        <v>1.200391620397568</v>
       </c>
       <c r="J46" t="n">
-        <v>0.3356767825684265</v>
+        <v>0.9085548697291194</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shots_pg</t>
+          <t>team_season_obv_defensive_action_pg</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>8.93448717948718</v>
+        <v>0.2334514962476596</v>
       </c>
       <c r="C47" t="n">
-        <v>7.387434803224278</v>
+        <v>0.326699207409697</v>
       </c>
       <c r="D47" t="n">
-        <v>1.219454560300107</v>
+        <v>-28.54</v>
       </c>
       <c r="E47" t="n">
-        <v>1.433330950994448</v>
+        <v>0.06905927823171398</v>
       </c>
       <c r="F47" t="n">
-        <v>1.034967373787691</v>
+        <v>0.07742141651197322</v>
       </c>
       <c r="G47" t="n">
-        <v>7.394736842105263</v>
+        <v>0.1548089453166253</v>
       </c>
       <c r="H47" t="n">
-        <v>5.605263157894737</v>
+        <v>0.2191494184203054</v>
       </c>
       <c r="I47" t="n">
-        <v>10.60526315789474</v>
+        <v>0.2975196187647107</v>
       </c>
       <c r="J47" t="n">
-        <v>9.210526315789474</v>
+        <v>0.5042453241583548</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xg_pg</t>
+          <t>team_season_sp_goals_pg_conceded</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.198259010744682</v>
+        <v>0.1854723346828609</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9483543925562272</v>
+        <v>0.2594120436225699</v>
       </c>
       <c r="D48" t="n">
-        <v>1.198328417370628</v>
+        <v>-28.5</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2466963656795867</v>
+        <v>0.07668880055948207</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1673709137930843</v>
+        <v>0.1060573747714544</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9753675176516959</v>
+        <v>0.0789473684210526</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6468112778996951</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="I48" t="n">
-        <v>1.620399290793821</v>
+        <v>0.263157894736842</v>
       </c>
       <c r="J48" t="n">
-        <v>1.191629360380926</v>
+        <v>0.594594594594595</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>team_season_corners_pg</t>
+          <t>team_season_op_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5.026929824561404</v>
+        <v>0.5977293458969587</v>
       </c>
       <c r="C49" t="n">
-        <v>4.258274063537222</v>
+        <v>0.8312676044235747</v>
       </c>
       <c r="D49" t="n">
-        <v>1.192174334734396</v>
+        <v>-28.09</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6679799811951361</v>
+        <v>0.1341107319990624</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5550851173680891</v>
+        <v>0.1338691556320369</v>
       </c>
       <c r="G49" t="n">
-        <v>4.447368421052632</v>
+        <v>0.4599138557126647</v>
       </c>
       <c r="H49" t="n">
-        <v>3.5</v>
+        <v>0.5783345022876012</v>
       </c>
       <c r="I49" t="n">
-        <v>6.078947368421052</v>
+        <v>0.7442681512389427</v>
       </c>
       <c r="J49" t="n">
-        <v>5.368421052631579</v>
+        <v>1.014662309071502</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_pass_pg</t>
+          <t>team_season_xg_per_direct_free_kick</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.8443029695672364</v>
+        <v>0.06321697770194575</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6735646379856113</v>
+        <v>0.04950892436289932</v>
       </c>
       <c r="D50" t="n">
-        <v>1.172425372237177</v>
+        <v>27.69</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1605770727198498</v>
+        <v>0.01732421443059217</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1229673944114415</v>
+        <v>0.01318992415958484</v>
       </c>
       <c r="G50" t="n">
-        <v>0.7220030819997192</v>
+        <v>0.0354030542075634</v>
       </c>
       <c r="H50" t="n">
-        <v>0.4820912465251781</v>
+        <v>0.03328370716836718</v>
       </c>
       <c r="I50" t="n">
-        <v>1.126052873699289</v>
+        <v>0.08085437119007111</v>
       </c>
       <c r="J50" t="n">
-        <v>0.910578160693771</v>
+        <v>0.07938470840454101</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>team_season_ppda</t>
+          <t>team_season_np_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>7.588421398550244</v>
+        <v>0.7900890802792631</v>
       </c>
       <c r="C51" t="n">
-        <v>9.033037926145138</v>
+        <v>1.087084305786557</v>
       </c>
       <c r="D51" t="n">
-        <v>1.148823375324149</v>
+        <v>-27.32</v>
       </c>
       <c r="E51" t="n">
-        <v>1.152785170561273</v>
+        <v>0.1829564401914798</v>
       </c>
       <c r="F51" t="n">
-        <v>1.149014114370752</v>
+        <v>0.1627320881483028</v>
       </c>
       <c r="G51" t="n">
-        <v>6.153729071537291</v>
+        <v>0.5859373945154642</v>
       </c>
       <c r="H51" t="n">
-        <v>7.187308868501529</v>
+        <v>0.7920600203307051</v>
       </c>
       <c r="I51" t="n">
-        <v>9.37046004842615</v>
+        <v>0.997960987381446</v>
       </c>
       <c r="J51" t="n">
-        <v>11.08775137111517</v>
+        <v>1.329671054273038</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_defensive_action_pg</t>
+          <t>team_season_shots_from_throw_ins_pg</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2334514962476597</v>
+        <v>0.05631578947368421</v>
       </c>
       <c r="C52" t="n">
-        <v>0.326699207409697</v>
+        <v>0.07743006164058795</v>
       </c>
       <c r="D52" t="n">
-        <v>1.132458890262349</v>
+        <v>-27.27</v>
       </c>
       <c r="E52" t="n">
-        <v>0.069059278231714</v>
+        <v>0.0678518836609824</v>
       </c>
       <c r="F52" t="n">
-        <v>0.07742141651197322</v>
+        <v>0.0608488959449207</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1548089453166253</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.2191494184203054</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.2975196187647107</v>
+        <v>0.15</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5042453241583548</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shots_conceded_pg</t>
+          <t>team_season_np_xg_pg</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.579251012145749</v>
+        <v>1.198259010744682</v>
       </c>
       <c r="C53" t="n">
-        <v>3.250782361308677</v>
+        <v>0.9483543925562273</v>
       </c>
       <c r="D53" t="n">
-        <v>1.126187753947558</v>
+        <v>26.35</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4956987809816248</v>
+        <v>0.2466963656795869</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5629780946025184</v>
+        <v>0.1673709137930843</v>
       </c>
       <c r="G53" t="n">
-        <v>1.710526315789474</v>
+        <v>0.9753675176516959</v>
       </c>
       <c r="H53" t="n">
-        <v>2.473684210526316</v>
+        <v>0.6468112778996951</v>
       </c>
       <c r="I53" t="n">
-        <v>2.868421052631579</v>
+        <v>1.620399290793821</v>
       </c>
       <c r="J53" t="n">
-        <v>4.868421052631579</v>
+        <v>1.191629360380926</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_sp_conceded</t>
+          <t>team_season_defensive_distance_ppda</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.004629527621200208</v>
+        <v>6.100330299537314</v>
       </c>
       <c r="C54" t="n">
-        <v>0.00587135420291127</v>
+        <v>4.841992817539686</v>
       </c>
       <c r="D54" t="n">
-        <v>1.116703655059175</v>
+        <v>25.99</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001492668237117839</v>
+        <v>1.022190935924643</v>
       </c>
       <c r="F54" t="n">
-        <v>0.000846746815264595</v>
+        <v>0.6985208736947924</v>
       </c>
       <c r="G54" t="n">
-        <v>0.00276016982900306</v>
+        <v>4.637701411333701</v>
       </c>
       <c r="H54" t="n">
-        <v>0.00441149846812035</v>
+        <v>3.693345540060551</v>
       </c>
       <c r="I54" t="n">
-        <v>0.00664812021338836</v>
+        <v>7.49487399914296</v>
       </c>
       <c r="J54" t="n">
-        <v>0.00737751254185974</v>
+        <v>6.24798606882488</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>team_season_high_press_shots_conceded_pg</t>
+          <t>team_season_obv_pass_conceded_pg</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1.954952766531714</v>
+        <v>0.5682314426708193</v>
       </c>
       <c r="C55" t="n">
-        <v>2.380654338549076</v>
+        <v>0.7675023980915768</v>
       </c>
       <c r="D55" t="n">
-        <v>1.114750725440961</v>
+        <v>-25.96</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3843383878365977</v>
+        <v>0.09456802845783564</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3429086287987191</v>
+        <v>0.1165472794096365</v>
       </c>
       <c r="G55" t="n">
-        <v>1.289473684210526</v>
+        <v>0.4136851480916927</v>
       </c>
       <c r="H55" t="n">
-        <v>1.868421052631579</v>
+        <v>0.6081617631548157</v>
       </c>
       <c r="I55" t="n">
-        <v>2.282051282051282</v>
+        <v>0.6650804212460151</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>0.9656319129469527</v>
       </c>
     </row>
     <row r="56">
@@ -2330,7 +2329,7 @@
         <v>1.868847795163585</v>
       </c>
       <c r="D56" t="n">
-        <v>1.09416476225492</v>
+        <v>-25.64</v>
       </c>
       <c r="E56" t="n">
         <v>0.3171548708235545</v>
@@ -2354,3639 +2353,3639 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_corners_pg</t>
+          <t>team_season_shots_in_clear_pg</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.057267206477733</v>
+        <v>2.394041835357625</v>
       </c>
       <c r="C57" t="n">
-        <v>1.643243243243243</v>
+        <v>1.906021811284969</v>
       </c>
       <c r="D57" t="n">
-        <v>1.084627885343685</v>
+        <v>25.6</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4467010645263259</v>
+        <v>0.4056554536862982</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3243921432709231</v>
+        <v>0.3319539022417609</v>
       </c>
       <c r="G57" t="n">
-        <v>1.675</v>
+        <v>2.051282051282051</v>
       </c>
       <c r="H57" t="n">
-        <v>1.18421052631579</v>
+        <v>1.289473684210526</v>
       </c>
       <c r="I57" t="n">
-        <v>2.815789473684211</v>
+        <v>3.078947368421053</v>
       </c>
       <c r="J57" t="n">
-        <v>2.263157894736842</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_shots_pg</t>
+          <t>team_season_obv_pass_pg</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>12.17318488529015</v>
+        <v>0.8443029695672365</v>
       </c>
       <c r="C58" t="n">
-        <v>10.41626363205311</v>
+        <v>0.6735646379856113</v>
       </c>
       <c r="D58" t="n">
-        <v>1.084617286398776</v>
+        <v>25.35</v>
       </c>
       <c r="E58" t="n">
-        <v>1.723216636808567</v>
+        <v>0.16057707271985</v>
       </c>
       <c r="F58" t="n">
-        <v>1.439871460933991</v>
+        <v>0.1229673944114415</v>
       </c>
       <c r="G58" t="n">
-        <v>10.68421052631579</v>
+        <v>0.7220030819997192</v>
       </c>
       <c r="H58" t="n">
-        <v>8.342105263157896</v>
+        <v>0.4820912465251781</v>
       </c>
       <c r="I58" t="n">
-        <v>14.73684210526316</v>
+        <v>1.126052873699289</v>
       </c>
       <c r="J58" t="n">
-        <v>13.18421052631579</v>
+        <v>0.910578160693771</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_shot_pg</t>
+          <t>team_season_sp_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.09642829212781127</v>
+        <v>0.004444633505581637</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.02045183753932134</v>
+        <v>0.005949094163206931</v>
       </c>
       <c r="D59" t="n">
-        <v>1.058225394707871</v>
+        <v>-25.29</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1060999402038555</v>
+        <v>0.001845229106258275</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1027212007109014</v>
+        <v>0.002366761557351394</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.02389112198725343</v>
+        <v>0.00172910662824207</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.295749404945889</v>
+        <v>0.00382409177820268</v>
       </c>
       <c r="I59" t="n">
-        <v>0.2425509344499845</v>
+        <v>0.00624219725343321</v>
       </c>
       <c r="J59" t="n">
-        <v>0.08254975614775169</v>
+        <v>0.0134803921568627</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shots_outside_box_pg</t>
+          <t>team_season_shots_from_corners_pg</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3.72966261808367</v>
+        <v>2.057267206477733</v>
       </c>
       <c r="C60" t="n">
-        <v>3.208345187292556</v>
+        <v>1.643243243243244</v>
       </c>
       <c r="D60" t="n">
-        <v>1.044559566749226</v>
+        <v>25.2</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5347406726330466</v>
+        <v>0.4467010645263261</v>
       </c>
       <c r="F60" t="n">
-        <v>0.4487009935122658</v>
+        <v>0.3243921432709231</v>
       </c>
       <c r="G60" t="n">
-        <v>3.128205128205128</v>
+        <v>1.675</v>
       </c>
       <c r="H60" t="n">
-        <v>2.368421052631579</v>
+        <v>1.18421052631579</v>
       </c>
       <c r="I60" t="n">
-        <v>4.435897435897436</v>
+        <v>2.815789473684211</v>
       </c>
       <c r="J60" t="n">
-        <v>4</v>
+        <v>2.263157894736842</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_shot_conceded_pg</t>
+          <t>team_season_goals_from_throw_ins_pg</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.08066632457957296</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="C61" t="n">
-        <v>0.04107616597335236</v>
+        <v>0.007017543859649122</v>
       </c>
       <c r="D61" t="n">
-        <v>1.035897733095005</v>
+        <v>-25</v>
       </c>
       <c r="E61" t="n">
-        <v>0.07668061557260533</v>
+        <v>0.01176877882894626</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1186642645224556</v>
+        <v>0.01204572916360693</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1653020683676004</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.09471209773695782</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.007248228941208277</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="J61" t="n">
-        <v>0.2778484193054405</v>
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shot_ratio_conceded</t>
+          <t>team_season_sp_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.06190606423036943</v>
+        <v>0.1923597344698249</v>
       </c>
       <c r="C62" t="n">
-        <v>0.07456103785302214</v>
+        <v>0.2558167033334209</v>
       </c>
       <c r="D62" t="n">
-        <v>1.034132839963143</v>
+        <v>-24.81</v>
       </c>
       <c r="E62" t="n">
-        <v>0.01431008328975958</v>
+        <v>0.05455468276913738</v>
       </c>
       <c r="F62" t="n">
-        <v>0.01060778150605305</v>
+        <v>0.04310791730069567</v>
       </c>
       <c r="G62" t="n">
-        <v>0.037463976945245</v>
+        <v>0.1260235384351721</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0609993510707333</v>
+        <v>0.1882464993303936</v>
       </c>
       <c r="I62" t="n">
-        <v>0.074</v>
+        <v>0.2730843623359807</v>
       </c>
       <c r="J62" t="n">
-        <v>0.106998264893002</v>
+        <v>0.3356767825684265</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_corners_conceded_pg</t>
+          <t>team_season_shots_in_clear_conceded_pg</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.07734143049932524</v>
+        <v>1.631322537112011</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1694642010431484</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D63" t="n">
-        <v>1.033146897297732</v>
+        <v>-24.71</v>
       </c>
       <c r="E63" t="n">
-        <v>0.05535849007509802</v>
+        <v>0.3480861117648545</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09060613990067799</v>
+        <v>0.3746561212732518</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1.157894736842105</v>
       </c>
       <c r="H63" t="n">
-        <v>0.07894736842105263</v>
+        <v>1.447368421052632</v>
       </c>
       <c r="I63" t="n">
-        <v>0.131578947368421</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>0.4324324324324325</v>
+        <v>2.945945945945946</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>team_season_fhalf_pressures_pg</t>
+          <t>team_season_obv_conceded_pg</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>69.74803643724697</v>
+        <v>1.28333636030282</v>
       </c>
       <c r="C64" t="n">
-        <v>64.21958274063537</v>
+        <v>1.681695000403559</v>
       </c>
       <c r="D64" t="n">
-        <v>1.01956783689787</v>
+        <v>-23.69</v>
       </c>
       <c r="E64" t="n">
-        <v>2.530211049380917</v>
+        <v>0.1466826074388953</v>
       </c>
       <c r="F64" t="n">
-        <v>5.655689141422176</v>
+        <v>0.257967975521916</v>
       </c>
       <c r="G64" t="n">
-        <v>65.33333333333333</v>
+        <v>1.098902865067909</v>
       </c>
       <c r="H64" t="n">
-        <v>54.23684210526316</v>
+        <v>1.313067628364814</v>
       </c>
       <c r="I64" t="n">
-        <v>71.81578947368421</v>
+        <v>1.439224595060715</v>
       </c>
       <c r="J64" t="n">
-        <v>77.29729729729729</v>
+        <v>2.246413158403861</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>team_season_pace_towards_goal</t>
+          <t>team_season_successful_passes_pg</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2.65184141881265</v>
+        <v>426.8917408906882</v>
       </c>
       <c r="C65" t="n">
-        <v>2.871442900712341</v>
+        <v>345.3349928876244</v>
       </c>
       <c r="D65" t="n">
-        <v>1.019483963450783</v>
+        <v>23.62</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2639877089735407</v>
+        <v>60.64238006532346</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1829092865727852</v>
+        <v>35.96492132828885</v>
       </c>
       <c r="G65" t="n">
-        <v>2.262326863842777</v>
+        <v>332.8157894736842</v>
       </c>
       <c r="H65" t="n">
-        <v>2.625415421407948</v>
+        <v>281.3783783783784</v>
       </c>
       <c r="I65" t="n">
-        <v>2.993898212357507</v>
+        <v>481.7179487179487</v>
       </c>
       <c r="J65" t="n">
-        <v>3.249054606472128</v>
+        <v>401.1052631578947</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>team_season_passing_ratio</t>
+          <t>team_season_goals_from_free_kicks_pg</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.8018822021280114</v>
+        <v>0.06249662618083671</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7726256546226381</v>
+        <v>0.05097202465623516</v>
       </c>
       <c r="D66" t="n">
-        <v>1.015931550794603</v>
+        <v>22.61</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0332822208469228</v>
+        <v>0.08461999053341354</v>
       </c>
       <c r="F66" t="n">
-        <v>0.02527787375848163</v>
+        <v>0.03504879475280529</v>
       </c>
       <c r="G66" t="n">
-        <v>0.7458276817833344</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.729419183072935</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.8330666178958438</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="J66" t="n">
-        <v>0.8095668349720967</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_xg_pg</t>
+          <t>team_season_xg_per_sp</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.184142127699494</v>
+        <v>0.006476850575012275</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1361979098304321</v>
+        <v>0.005286324095655273</v>
       </c>
       <c r="D67" t="n">
-        <v>1.015556083568278</v>
+        <v>22.52</v>
       </c>
       <c r="E67" t="n">
-        <v>0.06784290162835575</v>
+        <v>0.002308945534070532</v>
       </c>
       <c r="F67" t="n">
-        <v>0.03540053570582404</v>
+        <v>0.001148024273384705</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1406909122537726</v>
+        <v>0.00513547446175337</v>
       </c>
       <c r="H67" t="n">
-        <v>0.08344722318610079</v>
+        <v>0.00340519909277706</v>
       </c>
       <c r="I67" t="n">
-        <v>0.3024551306213987</v>
+        <v>0.0105907716099284</v>
       </c>
       <c r="J67" t="n">
-        <v>0.1834849621093756</v>
+        <v>0.00709348299906983</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_direct_free_kick_conceded</t>
+          <t>team_season_op_passes_pg</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.06865436946840503</v>
+        <v>479.7142105263158</v>
       </c>
       <c r="C68" t="n">
-        <v>0.04868069688139951</v>
+        <v>392.76951161688</v>
       </c>
       <c r="D68" t="n">
-        <v>1.014247979663471</v>
+        <v>22.14</v>
       </c>
       <c r="E68" t="n">
-        <v>0.03429895263820037</v>
+        <v>58.57010077347936</v>
       </c>
       <c r="F68" t="n">
-        <v>0.01053777744718556</v>
+        <v>33.65149227652195</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0432929566928319</v>
+        <v>390.421052631579</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0351177180806796</v>
+        <v>331.4864864864865</v>
       </c>
       <c r="I68" t="n">
-        <v>0.123735085129738</v>
+        <v>537.4358974358975</v>
       </c>
       <c r="J68" t="n">
-        <v>0.0689270636614631</v>
+        <v>444.9736842105263</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_corners_pg</t>
+          <t>team_season_obv_pg</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.2075775978407557</v>
+        <v>1.819633297045664</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1249407302038881</v>
+        <v>1.497479018401717</v>
       </c>
       <c r="D69" t="n">
-        <v>1.013380827760908</v>
+        <v>21.51</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1064429188240036</v>
+        <v>0.2069125522598691</v>
       </c>
       <c r="F69" t="n">
-        <v>0.06658266043932422</v>
+        <v>0.1907450000670586</v>
       </c>
       <c r="G69" t="n">
-        <v>0.075</v>
+        <v>1.574891624482055</v>
       </c>
       <c r="H69" t="n">
-        <v>0.02631578947368421</v>
+        <v>1.208470875985528</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3684210526315789</v>
+        <v>2.066048193919031</v>
       </c>
       <c r="J69" t="n">
-        <v>0.2105263157894737</v>
+        <v>1.825071405055688</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_throw_ins_conceded_pg</t>
+          <t>team_season_xg_per_sp_conceded</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.05143724696356274</v>
+        <v>0.004629527621200208</v>
       </c>
       <c r="C70" t="n">
-        <v>0.07923186344238976</v>
+        <v>0.00587135420291127</v>
       </c>
       <c r="D70" t="n">
-        <v>1.005420775644507</v>
+        <v>-21.15</v>
       </c>
       <c r="E70" t="n">
-        <v>0.02553706551220515</v>
+        <v>0.001492668237117839</v>
       </c>
       <c r="F70" t="n">
-        <v>0.02642923311882962</v>
+        <v>0.000846746815264595</v>
       </c>
       <c r="G70" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.00276016982900306</v>
       </c>
       <c r="H70" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.00441149846812035</v>
       </c>
       <c r="I70" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.00664812021338836</v>
       </c>
       <c r="J70" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.00737751254185974</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>team_season_failed_dribbles_pg</t>
+          <t>team_season_op_shots_pg</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>6.607847503373819</v>
+        <v>8.93448717948718</v>
       </c>
       <c r="C71" t="n">
-        <v>7.540635372214322</v>
+        <v>7.387434803224278</v>
       </c>
       <c r="D71" t="n">
-        <v>1.004713840243195</v>
+        <v>20.94</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6724631728336077</v>
+        <v>1.433330950994449</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9322507832009195</v>
+        <v>1.034967373787691</v>
       </c>
       <c r="G71" t="n">
-        <v>5.871794871794871</v>
+        <v>7.394736842105263</v>
       </c>
       <c r="H71" t="n">
-        <v>6.157894736842105</v>
+        <v>5.605263157894737</v>
       </c>
       <c r="I71" t="n">
-        <v>7.342105263157895</v>
+        <v>10.60526315789474</v>
       </c>
       <c r="J71" t="n">
-        <v>9.216216216216216</v>
+        <v>9.210526315789474</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_corner_conceded</t>
+          <t>team_season_direct_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.02772124220138026</v>
+        <v>0.4427597840755736</v>
       </c>
       <c r="C72" t="n">
-        <v>0.03462465457712586</v>
+        <v>0.5581792318634424</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9676509903417809</v>
+        <v>-20.68</v>
       </c>
       <c r="E72" t="n">
-        <v>0.008086417029458056</v>
+        <v>0.1482994740231086</v>
       </c>
       <c r="F72" t="n">
-        <v>0.006423508822120294</v>
+        <v>0.1184953111088033</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0186132846918321</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0250801051535257</v>
+        <v>0.421052631578947</v>
       </c>
       <c r="I72" t="n">
-        <v>0.036309326396269</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="J72" t="n">
-        <v>0.0450396374958317</v>
+        <v>0.815789473684211</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_shot_ratio</t>
+          <t>team_season_direct_free_kicks_pg</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1.14659090909091</v>
+        <v>0.442523616734143</v>
       </c>
       <c r="C73" t="n">
-        <v>1.056138179559233</v>
+        <v>0.5577999051683261</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9670757561276255</v>
+        <v>-20.67</v>
       </c>
       <c r="E73" t="n">
-        <v>0.07669402284725736</v>
+        <v>0.06032313941335437</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09287327012441843</v>
+        <v>0.2208390503393319</v>
       </c>
       <c r="G73" t="n">
-        <v>1.04545454545455</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="I73" t="n">
-        <v>1.25</v>
+        <v>0.55</v>
       </c>
       <c r="J73" t="n">
-        <v>1.3</v>
+        <v>1.105263157894737</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_goal_ratio</t>
+          <t>team_season_sp_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.007887360278845181</v>
+        <v>2.579251012145749</v>
       </c>
       <c r="C74" t="n">
-        <v>0.004878127662815072</v>
+        <v>3.250782361308677</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9596570138643242</v>
+        <v>-20.66</v>
       </c>
       <c r="E74" t="n">
-        <v>0.005072319692396551</v>
+        <v>0.4956987809816247</v>
       </c>
       <c r="F74" t="n">
-        <v>0.002066488544685695</v>
+        <v>0.5629780946025184</v>
       </c>
       <c r="G74" t="n">
-        <v>0.00409836065573771</v>
+        <v>1.710526315789474</v>
       </c>
       <c r="H74" t="n">
-        <v>0.00109769484083425</v>
+        <v>2.473684210526316</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0165892501658925</v>
+        <v>2.868421052631579</v>
       </c>
       <c r="J74" t="n">
-        <v>0.008426966292134829</v>
+        <v>4.868421052631579</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xg_per_shot_conceded</t>
+          <t>team_season_red_cards_pg</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.0848334225557235</v>
+        <v>0.06195006747638328</v>
       </c>
       <c r="C75" t="n">
-        <v>0.09547303011152364</v>
+        <v>0.07771455666192506</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9595633083807008</v>
+        <v>-20.29</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01307283235038108</v>
+        <v>0.05315593370575418</v>
       </c>
       <c r="F75" t="n">
-        <v>0.009822570070924588</v>
+        <v>0.04704583675149275</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0656268838892646</v>
+        <v>0.025</v>
       </c>
       <c r="H75" t="n">
-        <v>0.08069243955228668</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.09878294116954513</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="J75" t="n">
-        <v>0.1118132331154563</v>
+        <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_gk_pg</t>
+          <t>team_season_xg_per_corner_conceded</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.03576468206818689</v>
+        <v>0.02772124220138026</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.1159699449991</v>
+        <v>0.03462465457712586</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9537742800839926</v>
+        <v>-19.94</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0781889872652423</v>
+        <v>0.008086417029458056</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08143954020406399</v>
+        <v>0.006423508822120294</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.1605986437613243</v>
+        <v>0.0186132846918321</v>
       </c>
       <c r="H76" t="n">
-        <v>-0.2611667311897403</v>
+        <v>0.0250801051535257</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0379026513798414</v>
+        <v>0.036309326396269</v>
       </c>
       <c r="J76" t="n">
-        <v>0.01263494980766585</v>
+        <v>0.0450396374958317</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shot_distance_conceded</t>
+          <t>team_season_counter_attacking_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>18.85510597164794</v>
+        <v>0.8637989203778679</v>
       </c>
       <c r="C77" t="n">
-        <v>18.0609062942218</v>
+        <v>1.073352299668089</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9461321078995152</v>
+        <v>-19.52</v>
       </c>
       <c r="E77" t="n">
-        <v>1.075360880564892</v>
+        <v>0.2611537516593461</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7122148745848672</v>
+        <v>0.2196174532407413</v>
       </c>
       <c r="G77" t="n">
-        <v>17.93681196732955</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="H77" t="n">
-        <v>16.80299068210133</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="I77" t="n">
-        <v>20.57941664209905</v>
+        <v>1.205128205128205</v>
       </c>
       <c r="J77" t="n">
-        <v>18.92875992892976</v>
+        <v>1.567567567567568</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_goal_ratio_conceded</t>
+          <t>team_season_passes_pg</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01955765795831942</v>
+        <v>530.609048582996</v>
       </c>
       <c r="C78" t="n">
-        <v>0.03630363835623288</v>
+        <v>446.0417733522997</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9329703721246486</v>
+        <v>18.96</v>
       </c>
       <c r="E78" t="n">
-        <v>0.01420499044646966</v>
+        <v>56.22635281031803</v>
       </c>
       <c r="F78" t="n">
-        <v>0.01809631727425683</v>
+        <v>32.76013440005144</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>446.2368421052632</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0165745856353591</v>
+        <v>385.7567567567568</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0357142857142857</v>
+        <v>588.3846153846154</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0842105263157895</v>
+        <v>497.421052631579</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_direct_free_kick</t>
+          <t>team_season_sp_xg_pg</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.06321697770194575</v>
+        <v>0.2719012695304702</v>
       </c>
       <c r="C79" t="n">
-        <v>0.04950892436289932</v>
+        <v>0.2290151557447049</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9304758013028117</v>
+        <v>18.73</v>
       </c>
       <c r="E79" t="n">
-        <v>0.01732421443059217</v>
+        <v>0.08608677660169217</v>
       </c>
       <c r="F79" t="n">
-        <v>0.01318992415958484</v>
+        <v>0.04973530753037443</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0354030542075634</v>
+        <v>0.2099419057082672</v>
       </c>
       <c r="H79" t="n">
-        <v>0.03328370716836718</v>
+        <v>0.1632703541729011</v>
       </c>
       <c r="I79" t="n">
-        <v>0.08085437119007111</v>
+        <v>0.4200076660827586</v>
       </c>
       <c r="J79" t="n">
-        <v>0.07938470840454101</v>
+        <v>0.3144126627594233</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>team_season_aggression</t>
+          <t>team_season_shots_from_direct_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1992610516322046</v>
+        <v>0.4839271255060729</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1830576700062442</v>
+        <v>0.5933143669985774</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9303281743535529</v>
+        <v>-18.44</v>
       </c>
       <c r="E80" t="n">
-        <v>0.02148817883156271</v>
+        <v>0.1696721961106084</v>
       </c>
       <c r="F80" t="n">
-        <v>0.01520197726148563</v>
+        <v>0.1322678407798334</v>
       </c>
       <c r="G80" t="n">
-        <v>0.1786373103243082</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1616696061140506</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="I80" t="n">
-        <v>0.2234491489660993</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="J80" t="n">
-        <v>0.2127028441807712</v>
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>team_season_crosses_into_box_pg</t>
+          <t>team_season_np_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>9.229669365721998</v>
+        <v>9.321659919028338</v>
       </c>
       <c r="C81" t="n">
-        <v>8.201517306780465</v>
+        <v>11.3814604077762</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9288558103133049</v>
+        <v>-18.1</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6864835825988114</v>
+        <v>1.518472680797421</v>
       </c>
       <c r="F81" t="n">
-        <v>1.154354345899143</v>
+        <v>1.274770075888047</v>
       </c>
       <c r="G81" t="n">
-        <v>8.394736842105264</v>
+        <v>6.631578947368421</v>
       </c>
       <c r="H81" t="n">
-        <v>6.27027027027027</v>
+        <v>9.789473684210526</v>
       </c>
       <c r="I81" t="n">
-        <v>9.925000000000001</v>
+        <v>10.28205128205128</v>
       </c>
       <c r="J81" t="n">
-        <v>10.44736842105263</v>
+        <v>14.73684210526316</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_goals_pg</t>
+          <t>team_season_corners_pg</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.3270377867746288</v>
+        <v>5.026929824561404</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2110004741583689</v>
+        <v>4.258274063537222</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9196330802807207</v>
+        <v>18.05</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1931508901577061</v>
+        <v>0.6679799811951361</v>
       </c>
       <c r="F82" t="n">
-        <v>0.09207737303557217</v>
+        <v>0.5550851173680889</v>
       </c>
       <c r="G82" t="n">
-        <v>0.175</v>
+        <v>4.447368421052632</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0526315789473684</v>
+        <v>3.5</v>
       </c>
       <c r="I82" t="n">
-        <v>0.657894736842105</v>
+        <v>6.078947368421052</v>
       </c>
       <c r="J82" t="n">
-        <v>0.394736842105263</v>
+        <v>5.368421052631579</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_free_kicks_conceded_pg</t>
+          <t>team_season_high_press_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.06682186234817813</v>
+        <v>1.954952766531714</v>
       </c>
       <c r="C83" t="n">
-        <v>0.04935988620199147</v>
+        <v>2.380654338549076</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9174328195450633</v>
+        <v>-17.88</v>
       </c>
       <c r="E83" t="n">
-        <v>0.02229688142468864</v>
+        <v>0.3843383878365979</v>
       </c>
       <c r="F83" t="n">
-        <v>0.01714109907273685</v>
+        <v>0.3429086287987191</v>
       </c>
       <c r="G83" t="n">
-        <v>0.05128205128205128</v>
+        <v>1.289473684210526</v>
       </c>
       <c r="H83" t="n">
-        <v>0.02631578947368421</v>
+        <v>1.868421052631579</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1025641025641026</v>
+        <v>2.282051282051282</v>
       </c>
       <c r="J83" t="n">
-        <v>0.08108108108108109</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_shot_ratio_conceded</t>
+          <t>team_season_direct_free_kick_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.002298837912154342</v>
+        <v>0.07627268298623797</v>
       </c>
       <c r="C84" t="n">
-        <v>0.003425164477637998</v>
+        <v>0.0647366843738061</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9010049832320025</v>
+        <v>17.82</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001159481637723464</v>
+        <v>0.03323574253774159</v>
       </c>
       <c r="F84" t="n">
-        <v>0.001228210644603983</v>
+        <v>0.04544645737642762</v>
       </c>
       <c r="G84" t="n">
-        <v>0.00102564102564103</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="H84" t="n">
-        <v>0.00134952766531714</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.00352112676056338</v>
+        <v>0.125</v>
       </c>
       <c r="J84" t="n">
-        <v>0.00516129032258065</v>
+        <v>0.157894736842105</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kicks_conceded_pg</t>
+          <t>team_season_counter_attacking_shots_pg</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.4427597840755736</v>
+        <v>1.145040485829959</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5581792318634424</v>
+        <v>0.9773826458036986</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8924706468086049</v>
+        <v>17.15</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1482994740231086</v>
+        <v>0.3341398801489796</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1184953111088033</v>
+        <v>0.1362596661640797</v>
       </c>
       <c r="G85" t="n">
-        <v>0.210526315789474</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="H85" t="n">
-        <v>0.421052631578947</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="I85" t="n">
-        <v>0.58974358974359</v>
+        <v>1.552631578947368</v>
       </c>
       <c r="J85" t="n">
-        <v>0.815789473684211</v>
+        <v>1.236842105263158</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>team_season_counter_attacking_shots_conceded_pg</t>
+          <t>team_season_op_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.8637989203778677</v>
+        <v>6.742408906882591</v>
       </c>
       <c r="C86" t="n">
-        <v>1.073352299668089</v>
+        <v>8.130678046467519</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8884155107890688</v>
+        <v>-17.07</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2611537516593461</v>
+        <v>1.032270146253836</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2196174532407412</v>
+        <v>0.883244894642514</v>
       </c>
       <c r="G86" t="n">
-        <v>0.4736842105263158</v>
+        <v>4.921052631578948</v>
       </c>
       <c r="H86" t="n">
-        <v>0.8421052631578947</v>
+        <v>6.631578947368421</v>
       </c>
       <c r="I86" t="n">
-        <v>1.205128205128205</v>
+        <v>7.435897435897436</v>
       </c>
       <c r="J86" t="n">
-        <v>1.567567567567568</v>
+        <v>9.868421052631579</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_xg_conceded_pg</t>
+          <t>team_season_sp_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.001864027887640594</v>
+        <v>0.06190606423036943</v>
       </c>
       <c r="C87" t="n">
-        <v>0.004582985396324292</v>
+        <v>0.07456103785302214</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8869604275376458</v>
+        <v>-16.97</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0009172301422593595</v>
+        <v>0.01431008328975958</v>
       </c>
       <c r="F87" t="n">
-        <v>0.003347228088232239</v>
+        <v>0.01060778150605305</v>
       </c>
       <c r="G87" t="n">
-        <v>0.000788165403431968</v>
+        <v>0.037463976945245</v>
       </c>
       <c r="H87" t="n">
-        <v>0.000561041267294633</v>
+        <v>0.0609993510707333</v>
       </c>
       <c r="I87" t="n">
-        <v>0.00329413549043238</v>
+        <v>0.074</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0110827645679054</v>
+        <v>0.106998264893002</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_shot_distance_conceded</t>
+          <t>team_season_np_shots_pg</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>17.85245527254049</v>
+        <v>12.17318488529015</v>
       </c>
       <c r="C88" t="n">
-        <v>17.27151297495019</v>
+        <v>10.41626363205311</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8815906028027034</v>
+        <v>16.87</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9600889255660366</v>
+        <v>1.723216636808569</v>
       </c>
       <c r="F88" t="n">
-        <v>0.5163166249893929</v>
+        <v>1.439871460933991</v>
       </c>
       <c r="G88" t="n">
-        <v>17.03692530071925</v>
+        <v>10.68421052631579</v>
       </c>
       <c r="H88" t="n">
-        <v>16.36988192471591</v>
+        <v>8.342105263157896</v>
       </c>
       <c r="I88" t="n">
-        <v>19.44913519385027</v>
+        <v>14.73684210526316</v>
       </c>
       <c r="J88" t="n">
-        <v>18.1710254168063</v>
+        <v>13.18421052631579</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_goal_ratio</t>
+          <t>team_season_deep_progressions_pg</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.04079142557975032</v>
+        <v>43.27894736842105</v>
       </c>
       <c r="C89" t="n">
-        <v>0.02816721422214759</v>
+        <v>37.10820293978188</v>
       </c>
       <c r="D89" t="n">
-        <v>0.8801320637606793</v>
+        <v>16.63</v>
       </c>
       <c r="E89" t="n">
-        <v>0.01702207106361531</v>
+        <v>4.621179817549691</v>
       </c>
       <c r="F89" t="n">
-        <v>0.01297827923263622</v>
+        <v>3.929064734895228</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01421800947867299</v>
+        <v>37.71052631578947</v>
       </c>
       <c r="H89" t="n">
-        <v>0.007518796992481203</v>
+        <v>31.42105263157895</v>
       </c>
       <c r="I89" t="n">
-        <v>0.06060606060606061</v>
+        <v>49.18421052631579</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0446927374301676</v>
+        <v>42.02702702702702</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_goal_ratio_conceded</t>
+          <t>team_season_corners_conceded_pg</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.004507291741950387</v>
+        <v>3.882739541160594</v>
       </c>
       <c r="C90" t="n">
-        <v>0.003338972907754803</v>
+        <v>4.649122807017545</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8415300499744354</v>
+        <v>-16.48</v>
       </c>
       <c r="E90" t="n">
-        <v>0.001729628342794826</v>
+        <v>0.297966564822842</v>
       </c>
       <c r="F90" t="n">
-        <v>0.001238199826097087</v>
+        <v>0.4486973053369678</v>
       </c>
       <c r="G90" t="n">
-        <v>0.00318979266347687</v>
+        <v>3.5</v>
       </c>
       <c r="H90" t="n">
-        <v>0.00163132137030995</v>
+        <v>3.86842105263158</v>
       </c>
       <c r="I90" t="n">
-        <v>0.0072463768115942</v>
+        <v>4.25641025641026</v>
       </c>
       <c r="J90" t="n">
-        <v>0.00569259962049336</v>
+        <v>5.44736842105263</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shot_distance</t>
+          <t>team_season_deep_progressions_conceded_pg</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>14.5469123781394</v>
+        <v>33.75834008097166</v>
       </c>
       <c r="C91" t="n">
-        <v>15.60732250012961</v>
+        <v>40.34286391654813</v>
       </c>
       <c r="D91" t="n">
-        <v>0.8325119127004061</v>
+        <v>-16.32</v>
       </c>
       <c r="E91" t="n">
-        <v>1.568777523356743</v>
+        <v>3.021653363500963</v>
       </c>
       <c r="F91" t="n">
-        <v>1.14603822414624</v>
+        <v>3.529883968686681</v>
       </c>
       <c r="G91" t="n">
-        <v>12.37917604871616</v>
+        <v>30.02631578947368</v>
       </c>
       <c r="H91" t="n">
-        <v>14.18405638622636</v>
+        <v>34.39473684210526</v>
       </c>
       <c r="I91" t="n">
-        <v>16.71035899286685</v>
+        <v>38.30769230769231</v>
       </c>
       <c r="J91" t="n">
-        <v>18.60080035665761</v>
+        <v>46.26315789473684</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>team_season_counter_attacking_shots_pg</t>
+          <t>team_season_op_shots_outside_box_pg</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1.14504048582996</v>
+        <v>3.72966261808367</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9773826458036985</v>
+        <v>3.208345187292556</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8321021669947412</v>
+        <v>16.25</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3341398801489797</v>
+        <v>0.5347406726330466</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1362596661640797</v>
+        <v>0.4487009935122658</v>
       </c>
       <c r="G92" t="n">
-        <v>0.6923076923076923</v>
+        <v>3.128205128205128</v>
       </c>
       <c r="H92" t="n">
-        <v>0.8157894736842105</v>
+        <v>2.368421052631579</v>
       </c>
       <c r="I92" t="n">
-        <v>1.552631578947368</v>
+        <v>4.435897435897436</v>
       </c>
       <c r="J92" t="n">
-        <v>1.236842105263158</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_throw_in_conceded</t>
+          <t>team_season_ppda</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>8.339398868230323e-05</v>
+        <v>7.588421398550244</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0001962899957342735</v>
+        <v>9.033037926145138</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8316636981899359</v>
+        <v>-15.99</v>
       </c>
       <c r="E93" t="n">
-        <v>4.077749054463114e-05</v>
+        <v>1.152785170561273</v>
       </c>
       <c r="F93" t="n">
-        <v>0.000149785346599824</v>
+        <v>1.149014114370751</v>
       </c>
       <c r="G93" t="n">
-        <v>3.0718241364528e-05</v>
+        <v>6.153729071537291</v>
       </c>
       <c r="H93" t="n">
-        <v>2.87713470407504e-05</v>
+        <v>7.187308868501529</v>
       </c>
       <c r="I93" t="n">
-        <v>0.000142295275599601</v>
+        <v>9.37046004842615</v>
       </c>
       <c r="J93" t="n">
-        <v>0.000522262680886397</v>
+        <v>11.08775137111517</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>team_season_possessions</t>
+          <t>team_season_penalty_goals_pg</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>192.2685222672065</v>
+        <v>0.09798920377867745</v>
       </c>
       <c r="C94" t="n">
-        <v>195.5511142721669</v>
+        <v>0.08449502133712659</v>
       </c>
       <c r="D94" t="n">
-        <v>0.8265750028000006</v>
+        <v>15.97</v>
       </c>
       <c r="E94" t="n">
-        <v>2.896484125129153</v>
+        <v>0.07157314472401939</v>
       </c>
       <c r="F94" t="n">
-        <v>4.152976802407943</v>
+        <v>0.04246562155179719</v>
       </c>
       <c r="G94" t="n">
-        <v>187.875</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H94" t="n">
-        <v>186.6052631578947</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I94" t="n">
-        <v>195.2564102564102</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="J94" t="n">
-        <v>201.3947368421053</v>
+        <v>0.1842105263157895</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>team_season_successful_box_cross_ratio</t>
+          <t>team_season_penalty_goals_conceded_pg</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.2501791862384243</v>
+        <v>0.07774628879892036</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2859824589407454</v>
+        <v>0.0914651493598862</v>
       </c>
       <c r="D95" t="n">
-        <v>0.809470529744429</v>
+        <v>-15</v>
       </c>
       <c r="E95" t="n">
-        <v>0.02486415393163433</v>
+        <v>0.02731870356059873</v>
       </c>
       <c r="F95" t="n">
-        <v>0.04769454865238072</v>
+        <v>0.05047625263361611</v>
       </c>
       <c r="G95" t="n">
-        <v>0.2161290322580645</v>
+        <v>0.05</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2334801762114538</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I95" t="n">
-        <v>0.2779369627507163</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J95" t="n">
-        <v>0.3962848297213623</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_sp</t>
+          <t>team_season_possession</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.006476850575012275</v>
+        <v>0.550890268323271</v>
       </c>
       <c r="C96" t="n">
-        <v>0.005286324095655273</v>
+        <v>0.4826017925326531</v>
       </c>
       <c r="D96" t="n">
-        <v>0.7928792595405905</v>
+        <v>14.15</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002308945534070532</v>
+        <v>0.04289243894874803</v>
       </c>
       <c r="F96" t="n">
-        <v>0.001148024273384705</v>
+        <v>0.02544229698377876</v>
       </c>
       <c r="G96" t="n">
-        <v>0.00513547446175337</v>
+        <v>0.4979002759028556</v>
       </c>
       <c r="H96" t="n">
-        <v>0.00340519909277706</v>
+        <v>0.4367541259571595</v>
       </c>
       <c r="I96" t="n">
-        <v>0.0105907716099284</v>
+        <v>0.6063871581500708</v>
       </c>
       <c r="J96" t="n">
-        <v>0.00709348299906983</v>
+        <v>0.5271755916827701</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_direct_free_kicks_conceded_pg</t>
+          <t>team_season_xg_per_corner</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.4839271255060729</v>
+        <v>0.03613222334362541</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5933143669985774</v>
+        <v>0.03166291025382578</v>
       </c>
       <c r="D97" t="n">
-        <v>0.7687403141572683</v>
+        <v>14.12</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1696721961106084</v>
+        <v>0.009084068994120655</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1322678407798334</v>
+        <v>0.005515590091867702</v>
       </c>
       <c r="G97" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.02734650254814546</v>
       </c>
       <c r="H97" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.02072545593860103</v>
       </c>
       <c r="I97" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.04975451845111269</v>
       </c>
       <c r="J97" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.03915389168341428</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_goals_pg</t>
+          <t>team_season_shots_from_free_kicks_pg</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.05170040485829959</v>
+        <v>0.6206410256410256</v>
       </c>
       <c r="C98" t="n">
-        <v>0.02807017543859649</v>
+        <v>0.7220483641536272</v>
       </c>
       <c r="D98" t="n">
-        <v>0.7586977586747119</v>
+        <v>-14.04</v>
       </c>
       <c r="E98" t="n">
-        <v>0.01887737899021421</v>
+        <v>0.1332698636203924</v>
       </c>
       <c r="F98" t="n">
-        <v>0.03368107754853602</v>
+        <v>0.1843952456212761</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.475</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="I98" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1052631578947368</v>
+        <v>1.026315789473684</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xg_per_shot</t>
+          <t>team_season_successful_crosses_into_box_pg</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.09798854132972043</v>
+        <v>2.462327935222672</v>
       </c>
       <c r="C99" t="n">
-        <v>0.09092886403635123</v>
+        <v>2.159933617828355</v>
       </c>
       <c r="D99" t="n">
-        <v>0.7537280824929902</v>
+        <v>14</v>
       </c>
       <c r="E99" t="n">
-        <v>0.008483835355882994</v>
+        <v>0.4197122405178632</v>
       </c>
       <c r="F99" t="n">
-        <v>0.009560970246982832</v>
+        <v>0.5350340838034146</v>
       </c>
       <c r="G99" t="n">
-        <v>0.08971453743505571</v>
+        <v>1.763157894736842</v>
       </c>
       <c r="H99" t="n">
-        <v>0.07201718143298866</v>
+        <v>1.432432432432432</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1099556582314627</v>
+        <v>2.815789473684211</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1084342309606006</v>
+        <v>3.368421052631579</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_dribble_carry_conceded_pg</t>
+          <t>team_season_completed_dribbles_pg</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.6106592772459905</v>
+        <v>7.792827260458838</v>
       </c>
       <c r="C100" t="n">
-        <v>0.6562354241413471</v>
+        <v>9.055097202465623</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7476996702898955</v>
+        <v>-13.94</v>
       </c>
       <c r="E100" t="n">
-        <v>0.07280130747816523</v>
+        <v>0.1645542790182732</v>
       </c>
       <c r="F100" t="n">
-        <v>0.05689655069839145</v>
+        <v>1.030513332148581</v>
       </c>
       <c r="G100" t="n">
-        <v>0.513841051804392</v>
+        <v>7.564102564102564</v>
       </c>
       <c r="H100" t="n">
-        <v>0.550296938701256</v>
+        <v>7.631578947368421</v>
       </c>
       <c r="I100" t="n">
-        <v>0.7117111582595569</v>
+        <v>7.948717948717949</v>
       </c>
       <c r="J100" t="n">
-        <v>0.7179678330492032</v>
+        <v>10.81578947368421</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_goals_pg_conceded</t>
+          <t>team_season_shots_from_direct_free_kicks_pg</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.1854723346828609</v>
+        <v>0.5044736842105263</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2594120436225699</v>
+        <v>0.5861071597913703</v>
       </c>
       <c r="D101" t="n">
-        <v>0.7366387990439274</v>
+        <v>-13.93</v>
       </c>
       <c r="E101" t="n">
-        <v>0.07668880055948207</v>
+        <v>0.04254028501647242</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1060573747714544</v>
+        <v>0.2308010818054662</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0789473684210526</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="H101" t="n">
-        <v>0.157894736842105</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="I101" t="n">
-        <v>0.263157894736842</v>
+        <v>0.575</v>
       </c>
       <c r="J101" t="n">
-        <v>0.594594594594595</v>
+        <v>1.157894736842105</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_shot_distance</t>
+          <t>team_season_own_goals_pg</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>17.01694276372657</v>
+        <v>0.02591767881241565</v>
       </c>
       <c r="C102" t="n">
-        <v>17.56506528806393</v>
+        <v>0.02987197724039829</v>
       </c>
       <c r="D102" t="n">
-        <v>0.7309829368897441</v>
+        <v>-13.24</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7645263134055762</v>
+        <v>0.01861743604072793</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7454935304161213</v>
+        <v>0.01955025573884892</v>
       </c>
       <c r="G102" t="n">
-        <v>15.78048793247768</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>16.10360271610014</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>17.73719571486052</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J102" t="n">
-        <v>18.85024605545343</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_xg_pg</t>
+          <t>team_season_total_dribbles_pg</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.2719012695304702</v>
+        <v>14.40067476383266</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2290151557447049</v>
+        <v>16.59573257467995</v>
       </c>
       <c r="D103" t="n">
-        <v>0.7189182424602577</v>
+        <v>-13.23</v>
       </c>
       <c r="E103" t="n">
-        <v>0.08608677660169221</v>
+        <v>0.6138148972704665</v>
       </c>
       <c r="F103" t="n">
-        <v>0.04973530753037442</v>
+        <v>1.758793376709688</v>
       </c>
       <c r="G103" t="n">
-        <v>0.2099419057082672</v>
+        <v>13.82051282051282</v>
       </c>
       <c r="H103" t="n">
-        <v>0.1632703541729011</v>
+        <v>13.8421052631579</v>
       </c>
       <c r="I103" t="n">
-        <v>0.4200076660827586</v>
+        <v>15.10526315789474</v>
       </c>
       <c r="J103" t="n">
-        <v>0.3144126627594233</v>
+        <v>19.86486486486486</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_corner</t>
+          <t>team_season_free_kicks_pg</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.03613222334362541</v>
+        <v>13.49228744939271</v>
       </c>
       <c r="C104" t="n">
-        <v>0.03166291025382578</v>
+        <v>15.48022759601707</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6933999175780289</v>
+        <v>-12.84</v>
       </c>
       <c r="E104" t="n">
-        <v>0.009084068994120653</v>
+        <v>1.198719092853261</v>
       </c>
       <c r="F104" t="n">
-        <v>0.005515590091867703</v>
+        <v>1.326297479894937</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02734650254814546</v>
+        <v>12.10526315789474</v>
       </c>
       <c r="H104" t="n">
-        <v>0.02072545593860103</v>
+        <v>13.71052631578947</v>
       </c>
       <c r="I104" t="n">
-        <v>0.04975451845111269</v>
+        <v>15.31578947368421</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03915389168341428</v>
+        <v>18.60526315789474</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_shot_ratio_conceded</t>
+          <t>team_season_successful_passes_conceded_pg</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.3560592125245786</v>
+        <v>330.2283468286099</v>
       </c>
       <c r="C105" t="n">
-        <v>0.3987763519428118</v>
+        <v>378.3987197724039</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6853579482402548</v>
+        <v>-12.73</v>
       </c>
       <c r="E105" t="n">
-        <v>0.07053433390714692</v>
+        <v>37.6945056452285</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0603282319358385</v>
+        <v>24.51680657525146</v>
       </c>
       <c r="G105" t="n">
-        <v>0.24812030075188</v>
+        <v>275.2631578947368</v>
       </c>
       <c r="H105" t="n">
-        <v>0.298780487804878</v>
+        <v>330.3243243243243</v>
       </c>
       <c r="I105" t="n">
-        <v>0.431372549019608</v>
+        <v>381.1538461538461</v>
       </c>
       <c r="J105" t="n">
-        <v>0.55609756097561</v>
+        <v>413.4736842105263</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_goal_ratio_conceded</t>
+          <t>team_season_crosses_into_box_pg</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.004444633505581637</v>
+        <v>9.229669365721998</v>
       </c>
       <c r="C106" t="n">
-        <v>0.005949094163206931</v>
+        <v>8.201517306780465</v>
       </c>
       <c r="D106" t="n">
-        <v>0.6710424174964209</v>
+        <v>12.54</v>
       </c>
       <c r="E106" t="n">
-        <v>0.001845229106258275</v>
+        <v>0.6864835825988114</v>
       </c>
       <c r="F106" t="n">
-        <v>0.002366761557351394</v>
+        <v>1.154354345899143</v>
       </c>
       <c r="G106" t="n">
-        <v>0.00172910662824207</v>
+        <v>8.394736842105264</v>
       </c>
       <c r="H106" t="n">
-        <v>0.00382409177820268</v>
+        <v>6.27027027027027</v>
       </c>
       <c r="I106" t="n">
-        <v>0.00624219725343321</v>
+        <v>9.925000000000001</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0134803921568627</v>
+        <v>10.44736842105263</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shots_conceded_outside_box_pg</t>
+          <t>team_season_successful_box_cross_ratio</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3.083286099865048</v>
+        <v>0.2501791862384243</v>
       </c>
       <c r="C107" t="n">
-        <v>3.427121858700807</v>
+        <v>0.2859824589407455</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6538200906159815</v>
+        <v>-12.52</v>
       </c>
       <c r="E107" t="n">
-        <v>0.7890431740531725</v>
+        <v>0.02486415393163429</v>
       </c>
       <c r="F107" t="n">
-        <v>0.4307351384177693</v>
+        <v>0.04769454865238073</v>
       </c>
       <c r="G107" t="n">
-        <v>1.868421052631579</v>
+        <v>0.2161290322580645</v>
       </c>
       <c r="H107" t="n">
-        <v>2.736842105263158</v>
+        <v>0.2334801762114538</v>
       </c>
       <c r="I107" t="n">
-        <v>3.947368421052631</v>
+        <v>0.2779369627507163</v>
       </c>
       <c r="J107" t="n">
-        <v>4.263157894736842</v>
+        <v>0.3962848297213623</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>team_season_defensive_action_regains_pg</t>
+          <t>team_season_failed_dribbles_pg</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>49.87765856950067</v>
+        <v>6.607847503373819</v>
       </c>
       <c r="C108" t="n">
-        <v>51.95410146989094</v>
+        <v>7.540635372214319</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6304713170243622</v>
+        <v>-12.37</v>
       </c>
       <c r="E108" t="n">
-        <v>3.718846973320991</v>
+        <v>0.6724631728336075</v>
       </c>
       <c r="F108" t="n">
-        <v>3.223263561717185</v>
+        <v>0.9322507832009196</v>
       </c>
       <c r="G108" t="n">
-        <v>43.36842105263158</v>
+        <v>5.871794871794871</v>
       </c>
       <c r="H108" t="n">
-        <v>45.39473684210526</v>
+        <v>6.157894736842105</v>
       </c>
       <c r="I108" t="n">
-        <v>52.5</v>
+        <v>7.342105263157895</v>
       </c>
       <c r="J108" t="n">
-        <v>58.02702702702702</v>
+        <v>9.216216216216216</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_gk_conceded_pg</t>
+          <t>team_season_direct_free_kick_goals_conceded_pg</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.1396838789670438</v>
+        <v>0.03104588394062078</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.07987683501803734</v>
+        <v>0.0352773826458037</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6251588903268168</v>
+        <v>-11.99</v>
       </c>
       <c r="E109" t="n">
-        <v>0.1578513151302365</v>
+        <v>0.01207573726208192</v>
       </c>
       <c r="F109" t="n">
-        <v>0.07069140386665274</v>
+        <v>0.0239460371334788</v>
       </c>
       <c r="G109" t="n">
-        <v>-0.3648999816198882</v>
+        <v>0.025</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.1965850032620916</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.07342373192108967</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J109" t="n">
-        <v>0.06949659600551869</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>team_season_ball_in_play_time</t>
+          <t>team_season_free_kick_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>52.7635936</v>
+        <v>0.05507700850730248</v>
       </c>
       <c r="C110" t="n">
-        <v>51.7257286</v>
+        <v>0.06250706889100051</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6247893688693348</v>
+        <v>-11.89</v>
       </c>
       <c r="E110" t="n">
-        <v>2.343041648639925</v>
+        <v>0.02133193352978316</v>
       </c>
       <c r="F110" t="n">
-        <v>1.443933990606061</v>
+        <v>0.02374189812715511</v>
       </c>
       <c r="G110" t="n">
-        <v>49.59622</v>
+        <v>0.0340393848570162</v>
       </c>
       <c r="H110" t="n">
-        <v>49.011845</v>
+        <v>0.0281106775479489</v>
       </c>
       <c r="I110" t="n">
-        <v>55.590843</v>
+        <v>0.08493125004072979</v>
       </c>
       <c r="J110" t="n">
-        <v>53.63584</v>
+        <v>0.0990994850075559</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_dribble_carry_pg</t>
+          <t>team_season_fhalf_pressures_ratio</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.6804818746692145</v>
+        <v>0.4779079432821404</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6325371648467134</v>
+        <v>0.4293512262796032</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6111767785437808</v>
+        <v>11.31</v>
       </c>
       <c r="E111" t="n">
-        <v>0.1196083941432018</v>
+        <v>0.03656865007370138</v>
       </c>
       <c r="F111" t="n">
-        <v>0.06393771851376098</v>
+        <v>0.02587354164030143</v>
       </c>
       <c r="G111" t="n">
-        <v>0.4923866561761028</v>
+        <v>0.4357045143638851</v>
       </c>
       <c r="H111" t="n">
-        <v>0.5381548236075201</v>
+        <v>0.380327868852459</v>
       </c>
       <c r="I111" t="n">
-        <v>0.8164950502224457</v>
+        <v>0.5270917097453571</v>
       </c>
       <c r="J111" t="n">
-        <v>0.7451192386247016</v>
+        <v>0.4793831713040563</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>team_season_successful_crosses_into_box_pg</t>
+          <t>team_season_np_xg_per_shot_conceded</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2.462327935222672</v>
+        <v>0.0848334225557235</v>
       </c>
       <c r="C112" t="n">
-        <v>2.159933617828355</v>
+        <v>0.09547303011152362</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6014774275041179</v>
+        <v>-11.14</v>
       </c>
       <c r="E112" t="n">
-        <v>0.419712240517863</v>
+        <v>0.01307283235038108</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5350340838034146</v>
+        <v>0.00982257007092459</v>
       </c>
       <c r="G112" t="n">
-        <v>1.763157894736842</v>
+        <v>0.0656268838892646</v>
       </c>
       <c r="H112" t="n">
-        <v>1.432432432432432</v>
+        <v>0.08069243955228668</v>
       </c>
       <c r="I112" t="n">
-        <v>2.815789473684211</v>
+        <v>0.09878294116954513</v>
       </c>
       <c r="J112" t="n">
-        <v>3.368421052631579</v>
+        <v>0.1118132331154563</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kicks_pg</t>
+          <t>team_season_op_passes_conceded_pg</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.442523616734143</v>
+        <v>379.5404183535763</v>
       </c>
       <c r="C113" t="n">
-        <v>0.557799905168326</v>
+        <v>427.0165955429113</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5964119753874196</v>
+        <v>-11.12</v>
       </c>
       <c r="E113" t="n">
-        <v>0.06032313941335434</v>
+        <v>39.80374757206337</v>
       </c>
       <c r="F113" t="n">
-        <v>0.2208390503393319</v>
+        <v>24.72604431542252</v>
       </c>
       <c r="G113" t="n">
-        <v>0.4102564102564102</v>
+        <v>318.8684210526316</v>
       </c>
       <c r="H113" t="n">
-        <v>0.2631578947368421</v>
+        <v>378.972972972973</v>
       </c>
       <c r="I113" t="n">
-        <v>0.55</v>
+        <v>428.8717948717949</v>
       </c>
       <c r="J113" t="n">
-        <v>1.105263157894737</v>
+        <v>462.2368421052632</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_free_kicks_pg</t>
+          <t>team_season_corner_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.6206410256410256</v>
+        <v>0.3560592125245786</v>
       </c>
       <c r="C114" t="n">
-        <v>0.7220483641536272</v>
+        <v>0.3987763519428118</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5926156970826721</v>
+        <v>-10.71</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1332698636203924</v>
+        <v>0.07053433390714692</v>
       </c>
       <c r="F114" t="n">
-        <v>0.1843952456212761</v>
+        <v>0.0603282319358385</v>
       </c>
       <c r="G114" t="n">
-        <v>0.475</v>
+        <v>0.24812030075188</v>
       </c>
       <c r="H114" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.298780487804878</v>
       </c>
       <c r="I114" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.431372549019608</v>
       </c>
       <c r="J114" t="n">
-        <v>1.026315789473684</v>
+        <v>0.55609756097561</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shot_ratio</t>
+          <t>team_season_xg_per_free_kick_conceded</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.0770463198182994</v>
+        <v>0.003724205389623976</v>
       </c>
       <c r="C115" t="n">
-        <v>0.06982046082675625</v>
+        <v>0.004167442068899712</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5916903923255169</v>
+        <v>-10.64</v>
       </c>
       <c r="E115" t="n">
-        <v>0.01577306544285294</v>
+        <v>0.0016165111552317</v>
       </c>
       <c r="F115" t="n">
-        <v>0.01131312078174039</v>
+        <v>0.001535896182968151</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0673302107728337</v>
+        <v>0.00208965526451394</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0523221634332745</v>
+        <v>0.00218446976324288</v>
       </c>
       <c r="I115" t="n">
-        <v>0.104180491041805</v>
+        <v>0.00600057710771975</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0919610231425091</v>
+        <v>0.00667691568956307</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>team_season_gk_pass_distance</t>
+          <t>team_season_counterpressure_regains_pg</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>41.91080498115398</v>
+        <v>3.823454790823212</v>
       </c>
       <c r="C116" t="n">
-        <v>44.01364684220866</v>
+        <v>3.462399241346609</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5850528758987361</v>
+        <v>10.43</v>
       </c>
       <c r="E116" t="n">
-        <v>6.161535949472192</v>
+        <v>0.4269170821797028</v>
       </c>
       <c r="F116" t="n">
-        <v>2.534562441625311</v>
+        <v>0.7562153935923964</v>
       </c>
       <c r="G116" t="n">
-        <v>32.42383122519841</v>
+        <v>3.384615384615385</v>
       </c>
       <c r="H116" t="n">
-        <v>40.57152106353591</v>
+        <v>1.921052631578947</v>
       </c>
       <c r="I116" t="n">
-        <v>49.00303903967868</v>
+        <v>4.358974358974359</v>
       </c>
       <c r="J116" t="n">
-        <v>50.63002328856152</v>
+        <v>5.162162162162162</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shot_distance</t>
+          <t>team_season_sp_shot_ratio</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>17.94825884533643</v>
+        <v>0.0770463198182994</v>
       </c>
       <c r="C117" t="n">
-        <v>18.38194562126602</v>
+        <v>0.06982046082675625</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5457052084981907</v>
+        <v>10.35</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5338016994555087</v>
+        <v>0.01577306544285294</v>
       </c>
       <c r="F117" t="n">
-        <v>0.8777704635904616</v>
+        <v>0.01131312078174039</v>
       </c>
       <c r="G117" t="n">
-        <v>17.10556204443238</v>
+        <v>0.0673302107728337</v>
       </c>
       <c r="H117" t="n">
-        <v>16.51326465229743</v>
+        <v>0.0523221634332745</v>
       </c>
       <c r="I117" t="n">
-        <v>18.51567365435943</v>
+        <v>0.104180491041805</v>
       </c>
       <c r="J117" t="n">
-        <v>19.75203890413851</v>
+        <v>0.0919610231425091</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>team_season_penalties_won_pg</t>
+          <t>team_season_op_shots_conceded_outside_box_pg</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.13889338731444</v>
+        <v>3.083286099865048</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1003319108582266</v>
+        <v>3.427121858700806</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5359115444276829</v>
+        <v>-10.03</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1125327820782731</v>
+        <v>0.7890431740531724</v>
       </c>
       <c r="F118" t="n">
-        <v>0.05813747338549872</v>
+        <v>0.4307351384177691</v>
       </c>
       <c r="G118" t="n">
-        <v>0.05263157894736842</v>
+        <v>1.868421052631579</v>
       </c>
       <c r="H118" t="n">
-        <v>0.02631578947368421</v>
+        <v>2.736842105263158</v>
       </c>
       <c r="I118" t="n">
-        <v>0.3333333333333333</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2368421052631579</v>
+        <v>4.263157894736842</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>team_season_counterpressure_regains_pg</t>
+          <t>team_season_passes_conceded_pg</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>3.823454790823212</v>
+        <v>432.2491767881241</v>
       </c>
       <c r="C119" t="n">
-        <v>3.462399241346609</v>
+        <v>479.6787577050735</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5316557653202806</v>
+        <v>-9.890000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>0.4269170821797029</v>
+        <v>38.48181184672535</v>
       </c>
       <c r="F119" t="n">
-        <v>0.7562153935923963</v>
+        <v>23.54878227685404</v>
       </c>
       <c r="G119" t="n">
-        <v>3.384615384615385</v>
+        <v>374.1578947368421</v>
       </c>
       <c r="H119" t="n">
-        <v>1.921052631578947</v>
+        <v>432.9459459459459</v>
       </c>
       <c r="I119" t="n">
-        <v>4.358974358974359</v>
+        <v>479.3589743589744</v>
       </c>
       <c r="J119" t="n">
-        <v>5.162162162162162</v>
+        <v>513.2894736842105</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>team_season_fhalf_counterpressures_pg</t>
+          <t>team_season_obv_defensive_action_conceded_pg</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>23.61336707152497</v>
+        <v>0.3243431458028986</v>
       </c>
       <c r="C120" t="n">
-        <v>22.30711237553343</v>
+        <v>0.2957828986991485</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5237024957178777</v>
+        <v>9.66</v>
       </c>
       <c r="E120" t="n">
-        <v>1.625720577809868</v>
+        <v>0.04808406948917982</v>
       </c>
       <c r="F120" t="n">
-        <v>2.770469511356176</v>
+        <v>0.07188222850179174</v>
       </c>
       <c r="G120" t="n">
-        <v>21.30769230769231</v>
+        <v>0.2576282177215967</v>
       </c>
       <c r="H120" t="n">
-        <v>19.65789473684211</v>
+        <v>0.1632175965626773</v>
       </c>
       <c r="I120" t="n">
-        <v>25.21052631578947</v>
+        <v>0.3889468626047556</v>
       </c>
       <c r="J120" t="n">
-        <v>30.13513513513514</v>
+        <v>0.3908229517309289</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_shot_ratio_conceded</t>
+          <t>team_season_aggression</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1.092835829984166</v>
+        <v>0.1992610516322046</v>
       </c>
       <c r="C121" t="n">
-        <v>1.062573224120813</v>
+        <v>0.1830576700062442</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4929363735262829</v>
+        <v>8.85</v>
       </c>
       <c r="E121" t="n">
-        <v>0.054695244237237</v>
+        <v>0.02148817883156273</v>
       </c>
       <c r="F121" t="n">
-        <v>0.06545456702080467</v>
+        <v>0.01520197726148563</v>
       </c>
       <c r="G121" t="n">
-        <v>1.04761904761905</v>
+        <v>0.1786373103243082</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0.1616696061140506</v>
       </c>
       <c r="I121" t="n">
-        <v>1.17391304347826</v>
+        <v>0.2234491489660993</v>
       </c>
       <c r="J121" t="n">
-        <v>1.22222222222222</v>
+        <v>0.2127028441807712</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_shot_ratio</t>
+          <t>team_season_fhalf_pressures_pg</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.4087194463184513</v>
+        <v>69.74803643724697</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3851402809853095</v>
+        <v>64.21958274063537</v>
       </c>
       <c r="D122" t="n">
-        <v>0.4760081806384765</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>0.05862912395947725</v>
+        <v>2.530211049380917</v>
       </c>
       <c r="F122" t="n">
-        <v>0.04872688506607367</v>
+        <v>5.655689141422177</v>
       </c>
       <c r="G122" t="n">
-        <v>0.3175355450236967</v>
+        <v>65.33333333333333</v>
       </c>
       <c r="H122" t="n">
-        <v>0.281437125748503</v>
+        <v>54.23684210526316</v>
       </c>
       <c r="I122" t="n">
-        <v>0.4632034632034632</v>
+        <v>71.81578947368421</v>
       </c>
       <c r="J122" t="n">
-        <v>0.4540229885057471</v>
+        <v>77.29729729729729</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_throw_in</t>
+          <t>team_season_direct_free_kick_shot_ratio</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.0001079745566636045</v>
+        <v>1.14659090909091</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0001899140825330491</v>
+        <v>1.056138179559233</v>
       </c>
       <c r="D123" t="n">
-        <v>0.4618302915260203</v>
+        <v>8.56</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0001607656409357142</v>
+        <v>0.07669402284725736</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0001891751756512218</v>
+        <v>0.09287327012441843</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>1.04545454545455</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>0.0003814738887205307</v>
+        <v>1.25</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0005361980335278944</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_pg_conceded</t>
+          <t>team_season_free_kick_xg_pg</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>42.09585020242916</v>
+        <v>0.05692076141545712</v>
       </c>
       <c r="C124" t="n">
-        <v>43.53352299668089</v>
+        <v>0.06202411557275726</v>
       </c>
       <c r="D124" t="n">
-        <v>0.4599344684970391</v>
+        <v>-8.23</v>
       </c>
       <c r="E124" t="n">
-        <v>2.648744225382269</v>
+        <v>0.02425299705571426</v>
       </c>
       <c r="F124" t="n">
-        <v>3.376397710993406</v>
+        <v>0.01887388618630545</v>
       </c>
       <c r="G124" t="n">
-        <v>38.4615384615385</v>
+        <v>0.03052614299723735</v>
       </c>
       <c r="H124" t="n">
-        <v>37.0526315789474</v>
+        <v>0.02735947055350009</v>
       </c>
       <c r="I124" t="n">
-        <v>45.6578947368421</v>
+        <v>0.09053589285988557</v>
       </c>
       <c r="J124" t="n">
-        <v>49.1052631578947</v>
+        <v>0.08771039540634344</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>team_season_yellow_cards_pg</t>
+          <t>team_season_shots_from_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1.715398110661268</v>
+        <v>0.6541835357624831</v>
       </c>
       <c r="C125" t="n">
-        <v>1.832053105737316</v>
+        <v>0.7093883357041252</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4554971511001779</v>
+        <v>-7.78</v>
       </c>
       <c r="E125" t="n">
-        <v>0.2514507146267743</v>
+        <v>0.1588767947309874</v>
       </c>
       <c r="F125" t="n">
-        <v>0.2683084320978222</v>
+        <v>0.2158157407895815</v>
       </c>
       <c r="G125" t="n">
-        <v>1.461538461538461</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="H125" t="n">
-        <v>1.210526315789474</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="I125" t="n">
-        <v>2.05</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="J125" t="n">
-        <v>2.184210526315789</v>
+        <v>1.105263157894737</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_defensive_action_conceded_pg</t>
+          <t>team_season_np_xg_per_shot</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.3243431458028986</v>
+        <v>0.09798854132972043</v>
       </c>
       <c r="C126" t="n">
-        <v>0.2957828986991485</v>
+        <v>0.09092886403635123</v>
       </c>
       <c r="D126" t="n">
-        <v>0.4390095600545553</v>
+        <v>7.76</v>
       </c>
       <c r="E126" t="n">
-        <v>0.04808406948917983</v>
+        <v>0.008483835355882976</v>
       </c>
       <c r="F126" t="n">
-        <v>0.07188222850179173</v>
+        <v>0.009560970246982837</v>
       </c>
       <c r="G126" t="n">
-        <v>0.2576282177215967</v>
+        <v>0.08971453743505571</v>
       </c>
       <c r="H126" t="n">
-        <v>0.1632175965626773</v>
+        <v>0.07201718143298866</v>
       </c>
       <c r="I126" t="n">
-        <v>0.3889468626047556</v>
+        <v>0.1099556582314627</v>
       </c>
       <c r="J126" t="n">
-        <v>0.3908229517309289</v>
+        <v>0.1084342309606006</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>team_season_box_cross_ratio</t>
+          <t>team_season_pace_towards_goal</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.3146670386906131</v>
+        <v>2.65184141881265</v>
       </c>
       <c r="C127" t="n">
-        <v>0.3259221362755724</v>
+        <v>2.871442900712341</v>
       </c>
       <c r="D127" t="n">
-        <v>0.438108900166273</v>
+        <v>-7.65</v>
       </c>
       <c r="E127" t="n">
-        <v>0.01628486278954462</v>
+        <v>0.2639877089735406</v>
       </c>
       <c r="F127" t="n">
-        <v>0.02886406923169875</v>
+        <v>0.1829092865727852</v>
       </c>
       <c r="G127" t="n">
-        <v>0.3015332197614992</v>
+        <v>2.262326863842777</v>
       </c>
       <c r="H127" t="n">
-        <v>0.2866300366300366</v>
+        <v>2.625415421407948</v>
       </c>
       <c r="I127" t="n">
-        <v>0.3378723404255319</v>
+        <v>2.993898212357507</v>
       </c>
       <c r="J127" t="n">
-        <v>0.3938492063492063</v>
+        <v>3.249054606472128</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_throw_ins_conceded_pg</t>
+          <t>team_season_free_kick_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.01026315789473684</v>
+        <v>0.04353134247079564</v>
       </c>
       <c r="C128" t="n">
-        <v>0.005310573731626364</v>
+        <v>0.04712763291096028</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4364477732379577</v>
+        <v>-7.63</v>
       </c>
       <c r="E128" t="n">
-        <v>0.01406110527093952</v>
+        <v>0.01102818417208833</v>
       </c>
       <c r="F128" t="n">
-        <v>0.01099502757997121</v>
+        <v>0.01249091528785177</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>0.0295748613678373</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>0.0294659300184162</v>
       </c>
       <c r="I128" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.0561594202898551</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.07011686143572619</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_goal_ratio</t>
+          <t>team_season_obv_dribble_carry_pg</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.004965984035224914</v>
+        <v>0.6804818746692145</v>
       </c>
       <c r="C129" t="n">
-        <v>0.003344740631704283</v>
+        <v>0.6325371648467134</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4304042130055393</v>
+        <v>7.58</v>
       </c>
       <c r="E129" t="n">
-        <v>0.007070358905944224</v>
+        <v>0.1196083941432018</v>
       </c>
       <c r="F129" t="n">
-        <v>0.002298415853196976</v>
+        <v>0.06393771851376098</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>0.4923866561761028</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>0.5381548236075201</v>
       </c>
       <c r="I129" t="n">
-        <v>0.01739130434782609</v>
+        <v>0.8164950502224457</v>
       </c>
       <c r="J129" t="n">
-        <v>0.006872852233676976</v>
+        <v>0.7451192386247016</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>team_season_second_yellow_cards_pg</t>
+          <t>team_season_obv_dribble_carry_conceded_pg</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.03091093117408907</v>
+        <v>0.6106592772459905</v>
       </c>
       <c r="C130" t="n">
-        <v>0.04760550023707918</v>
+        <v>0.6562354241413471</v>
       </c>
       <c r="D130" t="n">
-        <v>0.4299522099984271</v>
+        <v>-6.95</v>
       </c>
       <c r="E130" t="n">
-        <v>0.02182295667333708</v>
+        <v>0.07280130747816523</v>
       </c>
       <c r="F130" t="n">
-        <v>0.04408071982518928</v>
+        <v>0.05689655069839145</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>0.513841051804392</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>0.550296938701256</v>
       </c>
       <c r="I130" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.7117111582595569</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1351351351351351</v>
+        <v>0.7179678330492032</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_goal_ratio_conceded</t>
+          <t>team_season_sp_shots_pg</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.000450724505419848</v>
+        <v>3.238697705802969</v>
       </c>
       <c r="C131" t="n">
-        <v>0.00023554660467449</v>
+        <v>3.028828828828829</v>
       </c>
       <c r="D131" t="n">
-        <v>0.428458670946194</v>
+        <v>6.93</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0006180702081460998</v>
+        <v>0.5272812274521664</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0004886352856782744</v>
+        <v>0.5095801599849946</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>2.871794871794872</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2.342105263157895</v>
       </c>
       <c r="I131" t="n">
-        <v>0.00117370892018779</v>
+        <v>4.131578947368421</v>
       </c>
       <c r="J131" t="n">
-        <v>0.00124378109452736</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_xg_pg</t>
+          <t>team_season_sp_shot_distance</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.002625752584518571</v>
+        <v>14.5469123781394</v>
       </c>
       <c r="C132" t="n">
-        <v>0.004310803803548592</v>
+        <v>15.60732250012961</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4235884631953045</v>
+        <v>-6.79</v>
       </c>
       <c r="E132" t="n">
-        <v>0.00380052344697543</v>
+        <v>1.568777523356746</v>
       </c>
       <c r="F132" t="n">
-        <v>0.004209446458640798</v>
+        <v>1.14603822414624</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>12.37917604871616</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>14.18405638622636</v>
       </c>
       <c r="I132" t="n">
-        <v>0.008945562783628703</v>
+        <v>16.71035899286685</v>
       </c>
       <c r="J132" t="n">
-        <v>0.01241721722640489</v>
+        <v>18.60080035665761</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shots_pg</t>
+          <t>team_season_direct_free_kick_xg_pg</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>3.238697705802969</v>
+        <v>0.02821263080803105</v>
       </c>
       <c r="C133" t="n">
-        <v>3.028828828828829</v>
+        <v>0.02648232635523507</v>
       </c>
       <c r="D133" t="n">
-        <v>0.4234517200950347</v>
+        <v>6.53</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5272812274521664</v>
+        <v>0.009554344130146015</v>
       </c>
       <c r="F133" t="n">
-        <v>0.5095801599849946</v>
+        <v>0.009025996952654061</v>
       </c>
       <c r="G133" t="n">
-        <v>2.871794871794872</v>
+        <v>0.01490654965470496</v>
       </c>
       <c r="H133" t="n">
-        <v>2.342105263157895</v>
+        <v>0.01552731286440241</v>
       </c>
       <c r="I133" t="n">
-        <v>4.131578947368421</v>
+        <v>0.04066517212195322</v>
       </c>
       <c r="J133" t="n">
-        <v>4</v>
+        <v>0.04291065336783995</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_shot_ratio</t>
+          <t>team_season_yellow_cards_pg</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.002280491406148333</v>
+        <v>1.715398110661268</v>
       </c>
       <c r="C134" t="n">
-        <v>0.003402562032743012</v>
+        <v>1.832053105737316</v>
       </c>
       <c r="D134" t="n">
-        <v>0.419557365189306</v>
+        <v>-6.37</v>
       </c>
       <c r="E134" t="n">
-        <v>0.002765058205434782</v>
+        <v>0.2514507146267743</v>
       </c>
       <c r="F134" t="n">
-        <v>0.002774196724203858</v>
+        <v>0.2683084320978222</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>1.461538461538461</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1.210526315789474</v>
       </c>
       <c r="I134" t="n">
-        <v>0.006396588486140725</v>
+        <v>2.05</v>
       </c>
       <c r="J134" t="n">
-        <v>0.009768009768009768</v>
+        <v>2.184210526315789</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>team_season_opposition_own_goals_pg</t>
+          <t>team_season_corner_shot_ratio</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.0360391363022942</v>
+        <v>0.4087194463184513</v>
       </c>
       <c r="C135" t="n">
-        <v>0.02636320531057373</v>
+        <v>0.3851402809853095</v>
       </c>
       <c r="D135" t="n">
-        <v>0.4159528291637459</v>
+        <v>6.12</v>
       </c>
       <c r="E135" t="n">
-        <v>0.02324157881258421</v>
+        <v>0.05862912395947723</v>
       </c>
       <c r="F135" t="n">
-        <v>0.02436437892030772</v>
+        <v>0.04872688506607368</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>0.3175355450236967</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>0.281437125748503</v>
       </c>
       <c r="I135" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.4632034632034632</v>
       </c>
       <c r="J135" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.4540229885057471</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_direct_free_kicks_pg</t>
+          <t>team_season_fhalf_counterpressures_ratio</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.5044736842105262</v>
+        <v>0.7367914450050373</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5861071597913703</v>
+        <v>0.6952144699430729</v>
       </c>
       <c r="D136" t="n">
-        <v>0.413899016850877</v>
+        <v>5.98</v>
       </c>
       <c r="E136" t="n">
-        <v>0.04254028501647244</v>
+        <v>0.02208862322275619</v>
       </c>
       <c r="F136" t="n">
-        <v>0.2308010818054663</v>
+        <v>0.02696866410642184</v>
       </c>
       <c r="G136" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.712082262210797</v>
       </c>
       <c r="H136" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.6461937716262975</v>
       </c>
       <c r="I136" t="n">
-        <v>0.575</v>
+        <v>0.7657873701039168</v>
       </c>
       <c r="J136" t="n">
-        <v>1.157894736842105</v>
+        <v>0.7398805573988055</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_pg</t>
+          <t>team_season_fhalf_counterpressures_pg</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>42.37522267206479</v>
+        <v>23.61336707152497</v>
       </c>
       <c r="C137" t="n">
-        <v>43.43124703651019</v>
+        <v>22.30711237553343</v>
       </c>
       <c r="D137" t="n">
-        <v>0.3966412863699045</v>
+        <v>5.86</v>
       </c>
       <c r="E137" t="n">
-        <v>3.655732434480587</v>
+        <v>1.625720577809865</v>
       </c>
       <c r="F137" t="n">
-        <v>2.451381195817097</v>
+        <v>2.770469511356177</v>
       </c>
       <c r="G137" t="n">
-        <v>38.9230769230769</v>
+        <v>21.30769230769231</v>
       </c>
       <c r="H137" t="n">
-        <v>38.9473684210526</v>
+        <v>19.65789473684211</v>
       </c>
       <c r="I137" t="n">
-        <v>48.2105263157895</v>
+        <v>25.21052631578947</v>
       </c>
       <c r="J137" t="n">
-        <v>47.9473684210526</v>
+        <v>30.13513513513514</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>team_season_pressures_pg</t>
+          <t>team_season_defensive_distance</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>146.404358974359</v>
+        <v>45.35638489101138</v>
       </c>
       <c r="C138" t="n">
-        <v>149.5352773826458</v>
+        <v>43.00171569288157</v>
       </c>
       <c r="D138" t="n">
-        <v>0.3750625268166121</v>
+        <v>5.48</v>
       </c>
       <c r="E138" t="n">
-        <v>8.448628299607757</v>
+        <v>1.194146743342785</v>
       </c>
       <c r="F138" t="n">
-        <v>8.748112687102278</v>
+        <v>1.13961343134625</v>
       </c>
       <c r="G138" t="n">
-        <v>133.9230769230769</v>
+        <v>43.45739579143202</v>
       </c>
       <c r="H138" t="n">
-        <v>137.1842105263158</v>
+        <v>40.95089707580848</v>
       </c>
       <c r="I138" t="n">
-        <v>157.15</v>
+        <v>46.48390896851699</v>
       </c>
       <c r="J138" t="n">
-        <v>165</v>
+        <v>44.90620568273906</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_throw_ins_pg</t>
+          <t>team_season_opp_final_third_pass_ratio</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.05631578947368421</v>
+        <v>0.5849607651107553</v>
       </c>
       <c r="C139" t="n">
-        <v>0.07743006164058795</v>
+        <v>0.6178172313999398</v>
       </c>
       <c r="D139" t="n">
-        <v>0.3520915286996119</v>
+        <v>-5.32</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0678518836609824</v>
+        <v>0.01492266790690864</v>
       </c>
       <c r="F139" t="n">
-        <v>0.06084889594492069</v>
+        <v>0.02118564007098061</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>0.5682683158896289</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>0.5643170051772203</v>
       </c>
       <c r="I139" t="n">
-        <v>0.15</v>
+        <v>0.6055701919458035</v>
       </c>
       <c r="J139" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.6498266468548787</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>team_season_red_cards_pg</t>
+          <t>team_season_xg_per_free_kick</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.06195006747638328</v>
+        <v>0.004270763208160233</v>
       </c>
       <c r="C140" t="n">
-        <v>0.07771455666192507</v>
+        <v>0.004063397033010101</v>
       </c>
       <c r="D140" t="n">
-        <v>0.3391173071869628</v>
+        <v>5.1</v>
       </c>
       <c r="E140" t="n">
-        <v>0.05315593370575416</v>
+        <v>0.002005802673782669</v>
       </c>
       <c r="F140" t="n">
-        <v>0.04704583675149276</v>
+        <v>0.001360144642286228</v>
       </c>
       <c r="G140" t="n">
-        <v>0.025</v>
+        <v>0.002216982441907489</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>0.001470522968232885</v>
       </c>
       <c r="I140" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.007479052958281144</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1891891891891892</v>
+        <v>0.006194014924501503</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>team_season_opposition_dribble_ratio</t>
+          <t>team_season_gk_pass_distance</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.551369378</v>
+        <v>41.91080498115398</v>
       </c>
       <c r="C141" t="n">
-        <v>0.542547972</v>
+        <v>44.01364684220865</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3388141732425104</v>
+        <v>-4.78</v>
       </c>
       <c r="E141" t="n">
-        <v>0.02783420632858014</v>
+        <v>6.161535949472195</v>
       </c>
       <c r="F141" t="n">
-        <v>0.02694810192021249</v>
+        <v>2.534562441625309</v>
       </c>
       <c r="G141" t="n">
-        <v>0.53521127</v>
+        <v>32.42383122519841</v>
       </c>
       <c r="H141" t="n">
-        <v>0.49679488</v>
+        <v>40.57152106353591</v>
       </c>
       <c r="I141" t="n">
-        <v>0.6009693</v>
+        <v>49.00303903967868</v>
       </c>
       <c r="J141" t="n">
-        <v>0.5966102</v>
+        <v>50.63002328856152</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_xg_conceded_pg</t>
+          <t>team_season_op_shot_distance_conceded</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.05507700850730248</v>
+        <v>18.85510597164794</v>
       </c>
       <c r="C142" t="n">
-        <v>0.06250706889100051</v>
+        <v>18.0609062942218</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3336411620066056</v>
+        <v>4.4</v>
       </c>
       <c r="E142" t="n">
-        <v>0.02133193352978316</v>
+        <v>1.07536088056489</v>
       </c>
       <c r="F142" t="n">
-        <v>0.02374189812715511</v>
+        <v>0.7122148745848667</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0340393848570162</v>
+        <v>17.93681196732955</v>
       </c>
       <c r="H142" t="n">
-        <v>0.0281106775479489</v>
+        <v>16.80299068210133</v>
       </c>
       <c r="I142" t="n">
-        <v>0.08493125004072979</v>
+        <v>20.57941664209905</v>
       </c>
       <c r="J142" t="n">
-        <v>0.0990994850075559</v>
+        <v>18.92875992892976</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>team_season_aggressive_actions_pg</t>
+          <t>team_season_defensive_action_regains_pg</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>85.66145074224022</v>
+        <v>49.87765856950067</v>
       </c>
       <c r="C143" t="n">
-        <v>87.64376481744902</v>
+        <v>51.95410146989094</v>
       </c>
       <c r="D143" t="n">
-        <v>0.3238427553242445</v>
+        <v>-4</v>
       </c>
       <c r="E143" t="n">
-        <v>6.608172047441241</v>
+        <v>3.718846973320991</v>
       </c>
       <c r="F143" t="n">
-        <v>6.324442673508451</v>
+        <v>3.223263561717183</v>
       </c>
       <c r="G143" t="n">
-        <v>76.97435897435898</v>
+        <v>43.36842105263158</v>
       </c>
       <c r="H143" t="n">
-        <v>78.5</v>
+        <v>45.39473684210526</v>
       </c>
       <c r="I143" t="n">
-        <v>94.675</v>
+        <v>52.5</v>
       </c>
       <c r="J143" t="n">
-        <v>102.5789473684211</v>
+        <v>58.02702702702702</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>team_season_penalty_goals_conceded_pg</t>
+          <t>team_season_penalties_conceded_pg</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.07774628879892037</v>
+        <v>0.1133940620782726</v>
       </c>
       <c r="C144" t="n">
-        <v>0.0914651493598862</v>
+        <v>0.1090564248458985</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3092432594211937</v>
+        <v>3.98</v>
       </c>
       <c r="E144" t="n">
-        <v>0.02731870356059875</v>
+        <v>0.01383903444119033</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0504762526336161</v>
+        <v>0.05686766731725925</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="H144" t="n">
         <v>0.02631578947368421</v>
       </c>
       <c r="I144" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_shot_ratio_conceded</t>
+          <t>team_season_passing_ratio</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.04353134247079564</v>
+        <v>0.8018822021280114</v>
       </c>
       <c r="C145" t="n">
-        <v>0.04712763291096028</v>
+        <v>0.7726256546226381</v>
       </c>
       <c r="D145" t="n">
-        <v>0.3084187786442235</v>
+        <v>3.79</v>
       </c>
       <c r="E145" t="n">
-        <v>0.01102818417208833</v>
+        <v>0.0332822208469228</v>
       </c>
       <c r="F145" t="n">
-        <v>0.01249091528785177</v>
+        <v>0.02527787375848163</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0295748613678373</v>
+        <v>0.7458276817833344</v>
       </c>
       <c r="H145" t="n">
-        <v>0.0294659300184162</v>
+        <v>0.729419183072935</v>
       </c>
       <c r="I145" t="n">
-        <v>0.0561594202898551</v>
+        <v>0.8330666178958438</v>
       </c>
       <c r="J145" t="n">
-        <v>0.07011686143572619</v>
+        <v>0.8095668349720967</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_ins_conceded_pg</t>
+          <t>team_season_box_cross_ratio</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>22.70732793522266</v>
+        <v>0.3146670386906131</v>
       </c>
       <c r="C146" t="n">
-        <v>23.37776197249882</v>
+        <v>0.3259221362755724</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2982042759486022</v>
+        <v>-3.45</v>
       </c>
       <c r="E146" t="n">
-        <v>2.008101994084564</v>
+        <v>0.01628486278954459</v>
       </c>
       <c r="F146" t="n">
-        <v>2.438910563879793</v>
+        <v>0.02886406923169875</v>
       </c>
       <c r="G146" t="n">
-        <v>20.0769230769231</v>
+        <v>0.3015332197614992</v>
       </c>
       <c r="H146" t="n">
-        <v>19.5</v>
+        <v>0.2866300366300366</v>
       </c>
       <c r="I146" t="n">
-        <v>25.6578947368421</v>
+        <v>0.3378723404255319</v>
       </c>
       <c r="J146" t="n">
-        <v>27.8157894736842</v>
+        <v>0.3938492063492063</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_free_kick_conceded</t>
+          <t>team_season_np_shot_distance_conceded</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.003724205389623976</v>
+        <v>17.85245527254049</v>
       </c>
       <c r="C147" t="n">
-        <v>0.004167442068899712</v>
+        <v>17.27151297495019</v>
       </c>
       <c r="D147" t="n">
-        <v>0.2981032404346489</v>
+        <v>3.36</v>
       </c>
       <c r="E147" t="n">
-        <v>0.0016165111552317</v>
+        <v>0.9600889255660372</v>
       </c>
       <c r="F147" t="n">
-        <v>0.001535896182968151</v>
+        <v>0.5163166249893929</v>
       </c>
       <c r="G147" t="n">
-        <v>0.00208965526451394</v>
+        <v>17.03692530071925</v>
       </c>
       <c r="H147" t="n">
-        <v>0.00218446976324288</v>
+        <v>16.36988192471591</v>
       </c>
       <c r="I147" t="n">
-        <v>0.00600057710771975</v>
+        <v>19.44913519385027</v>
       </c>
       <c r="J147" t="n">
-        <v>0.00667691568956307</v>
+        <v>18.1710254168063</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_free_kicks_conceded_pg</t>
+          <t>team_season_sp_pg_conceded</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.6541835357624831</v>
+        <v>42.09585020242916</v>
       </c>
       <c r="C148" t="n">
-        <v>0.7093883357041252</v>
+        <v>43.53352299668089</v>
       </c>
       <c r="D148" t="n">
-        <v>0.2823662627681787</v>
+        <v>-3.3</v>
       </c>
       <c r="E148" t="n">
-        <v>0.1588767947309874</v>
+        <v>2.648744225382269</v>
       </c>
       <c r="F148" t="n">
-        <v>0.2158157407895815</v>
+        <v>3.376397710993406</v>
       </c>
       <c r="G148" t="n">
-        <v>0.4102564102564102</v>
+        <v>38.4615384615385</v>
       </c>
       <c r="H148" t="n">
-        <v>0.3947368421052632</v>
+        <v>37.0526315789474</v>
       </c>
       <c r="I148" t="n">
-        <v>0.7948717948717948</v>
+        <v>45.6578947368421</v>
       </c>
       <c r="J148" t="n">
-        <v>1.105263157894737</v>
+        <v>49.1052631578947</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_goal_ratio_conceded</t>
+          <t>team_season_opp_passing_ratio</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.07627268298623797</v>
+        <v>0.7626498666686146</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0647366843738061</v>
+        <v>0.7883165369442861</v>
       </c>
       <c r="D149" t="n">
-        <v>0.2804794287874978</v>
+        <v>-3.26</v>
       </c>
       <c r="E149" t="n">
-        <v>0.03323574253774159</v>
+        <v>0.02225153593196714</v>
       </c>
       <c r="F149" t="n">
-        <v>0.04544645737642762</v>
+        <v>0.01488825129394662</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.7356871571247714</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>0.7607106135039415</v>
       </c>
       <c r="I149" t="n">
-        <v>0.125</v>
+        <v>0.7951323883391281</v>
       </c>
       <c r="J149" t="n">
-        <v>0.157894736842105</v>
+        <v>0.8083983849259758</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>team_season_penalty_goals_pg</t>
+          <t>team_season_np_shot_distance</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.09798920377867745</v>
+        <v>17.01694276372656</v>
       </c>
       <c r="C150" t="n">
-        <v>0.08449502133712659</v>
+        <v>17.56506528806393</v>
       </c>
       <c r="D150" t="n">
-        <v>0.2800964044464875</v>
+        <v>-3.12</v>
       </c>
       <c r="E150" t="n">
-        <v>0.07157314472401941</v>
+        <v>0.7645263134055755</v>
       </c>
       <c r="F150" t="n">
-        <v>0.04246562155179719</v>
+        <v>0.7454935304161212</v>
       </c>
       <c r="G150" t="n">
-        <v>0.02631578947368421</v>
+        <v>15.78048793247768</v>
       </c>
       <c r="H150" t="n">
-        <v>0.02631578947368421</v>
+        <v>16.10360271610014</v>
       </c>
       <c r="I150" t="n">
-        <v>0.2051282051282051</v>
+        <v>17.73719571486052</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1842105263157895</v>
+        <v>18.85024605545343</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>team_season_completed_dribbles_conceded_pg</t>
+          <t>team_season_throw_ins_conceded_pg</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>8.902935222672065</v>
+        <v>22.70732793522266</v>
       </c>
       <c r="C151" t="n">
-        <v>8.669084874348032</v>
+        <v>23.37776197249882</v>
       </c>
       <c r="D151" t="n">
-        <v>0.2743021008175187</v>
+        <v>-2.87</v>
       </c>
       <c r="E151" t="n">
-        <v>0.6543180179616166</v>
+        <v>2.008101994084564</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9493793037822441</v>
+        <v>2.438910563879793</v>
       </c>
       <c r="G151" t="n">
-        <v>8</v>
+        <v>20.0769230769231</v>
       </c>
       <c r="H151" t="n">
-        <v>7.052631578947368</v>
+        <v>19.5</v>
       </c>
       <c r="I151" t="n">
-        <v>9.538461538461538</v>
+        <v>25.6578947368421</v>
       </c>
       <c r="J151" t="n">
-        <v>10.31578947368421</v>
+        <v>27.8157894736842</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_xg_pg</t>
+          <t>team_season_direct_free_kick_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.05692076141545712</v>
+        <v>1.092835829984166</v>
       </c>
       <c r="C152" t="n">
-        <v>0.06202411557275726</v>
+        <v>1.062573224120813</v>
       </c>
       <c r="D152" t="n">
-        <v>0.2646387864850334</v>
+        <v>2.85</v>
       </c>
       <c r="E152" t="n">
-        <v>0.02425299705571426</v>
+        <v>0.054695244237237</v>
       </c>
       <c r="F152" t="n">
-        <v>0.01887388618630545</v>
+        <v>0.06545456702080467</v>
       </c>
       <c r="G152" t="n">
-        <v>0.03052614299723735</v>
+        <v>1.04761904761905</v>
       </c>
       <c r="H152" t="n">
-        <v>0.02735947055350009</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>0.09053589285988557</v>
+        <v>1.17391304347826</v>
       </c>
       <c r="J152" t="n">
-        <v>0.08771039540634344</v>
+        <v>1.22222222222222</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_goal_ratio</t>
+          <t>team_season_gk_long_pass_ratio</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.0001877934272300469</v>
+        <v>0.4350846065153859</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0003098892954471841</v>
+        <v>0.4234627973618956</v>
       </c>
       <c r="D153" t="n">
-        <v>0.2505073491041857</v>
+        <v>2.74</v>
       </c>
       <c r="E153" t="n">
-        <v>0.0004199188690140451</v>
+        <v>0.07368219366130251</v>
       </c>
       <c r="F153" t="n">
-        <v>0.0005338428738211818</v>
+        <v>0.0438615713547266</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>0.3534743202416918</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>0.3477124183006536</v>
       </c>
       <c r="I153" t="n">
-        <v>0.0009389671361502347</v>
+        <v>0.5465686274509803</v>
       </c>
       <c r="J153" t="n">
-        <v>0.001254705144291092</v>
+        <v>0.4869976359338061</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_free_kicks_pg</t>
+          <t>team_season_completed_dribbles_conceded_pg</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.0624966261808367</v>
+        <v>8.902935222672065</v>
       </c>
       <c r="C154" t="n">
-        <v>0.05097202465623516</v>
+        <v>8.669084874348032</v>
       </c>
       <c r="D154" t="n">
-        <v>0.2394263114140151</v>
+        <v>2.7</v>
       </c>
       <c r="E154" t="n">
-        <v>0.08461999053341351</v>
+        <v>0.6543180179616166</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0350487947528053</v>
+        <v>0.9493793037822437</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>7.052631578947368</v>
       </c>
       <c r="I154" t="n">
-        <v>0.2105263157894737</v>
+        <v>9.538461538461538</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1052631578947368</v>
+        <v>10.31578947368421</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>team_season_gk_long_pass_ratio</t>
+          <t>team_season_sp_pg</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.4350846065153859</v>
+        <v>42.37522267206479</v>
       </c>
       <c r="C155" t="n">
-        <v>0.4234627973618956</v>
+        <v>43.43124703651019</v>
       </c>
       <c r="D155" t="n">
-        <v>0.234421976067241</v>
+        <v>-2.43</v>
       </c>
       <c r="E155" t="n">
-        <v>0.07368219366130248</v>
+        <v>3.655732434480587</v>
       </c>
       <c r="F155" t="n">
-        <v>0.04386157135472663</v>
+        <v>2.451381195817097</v>
       </c>
       <c r="G155" t="n">
-        <v>0.3534743202416918</v>
+        <v>38.9230769230769</v>
       </c>
       <c r="H155" t="n">
-        <v>0.3477124183006536</v>
+        <v>38.9473684210526</v>
       </c>
       <c r="I155" t="n">
-        <v>0.5465686274509803</v>
+        <v>48.2105263157895</v>
       </c>
       <c r="J155" t="n">
-        <v>0.4869976359338061</v>
+        <v>47.9473684210526</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>team_season_own_goals_pg</t>
+          <t>team_season_op_shot_distance</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.02591767881241565</v>
+        <v>17.94825884533642</v>
       </c>
       <c r="C156" t="n">
-        <v>0.02987197724039829</v>
+        <v>18.38194562126602</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2145142947330362</v>
+        <v>-2.36</v>
       </c>
       <c r="E156" t="n">
-        <v>0.01861743604072793</v>
+        <v>0.5338016994555097</v>
       </c>
       <c r="F156" t="n">
-        <v>0.01955025573884892</v>
+        <v>0.8777704635904615</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>17.10556204443238</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>16.51326465229743</v>
       </c>
       <c r="I156" t="n">
-        <v>0.05263157894736842</v>
+        <v>18.51567365435943</v>
       </c>
       <c r="J156" t="n">
-        <v>0.05263157894736842</v>
+        <v>19.75203890413851</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_goals_conceded_pg</t>
+          <t>team_season_aggressive_actions_pg</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.03104588394062078</v>
+        <v>85.66145074224022</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0352773826458037</v>
+        <v>87.64376481744902</v>
       </c>
       <c r="D157" t="n">
-        <v>0.2031392983516858</v>
+        <v>-2.26</v>
       </c>
       <c r="E157" t="n">
-        <v>0.01207573726208192</v>
+        <v>6.608172047441241</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0239460371334788</v>
+        <v>6.324442673508458</v>
       </c>
       <c r="G157" t="n">
-        <v>0.025</v>
+        <v>76.97435897435898</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>78.5</v>
       </c>
       <c r="I157" t="n">
-        <v>0.05263157894736842</v>
+        <v>94.675</v>
       </c>
       <c r="J157" t="n">
-        <v>0.08108108108108109</v>
+        <v>102.5789473684211</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_xg_pg</t>
+          <t>team_season_pressures_pg</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.02821263080803104</v>
+        <v>146.404358974359</v>
       </c>
       <c r="C158" t="n">
-        <v>0.02648232635523507</v>
+        <v>149.5352773826458</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1986802761615885</v>
+        <v>-2.09</v>
       </c>
       <c r="E158" t="n">
-        <v>0.009554344130146015</v>
+        <v>8.448628299607773</v>
       </c>
       <c r="F158" t="n">
-        <v>0.009025996952654061</v>
+        <v>8.748112687102278</v>
       </c>
       <c r="G158" t="n">
-        <v>0.01490654965470496</v>
+        <v>133.9230769230769</v>
       </c>
       <c r="H158" t="n">
-        <v>0.01552731286440241</v>
+        <v>137.1842105263158</v>
       </c>
       <c r="I158" t="n">
-        <v>0.04066517212195322</v>
+        <v>157.15</v>
       </c>
       <c r="J158" t="n">
-        <v>0.04291065336783995</v>
+        <v>165</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>team_season_directness</t>
+          <t>team_season_ball_in_play_time</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.8652773618911078</v>
+        <v>52.7635936</v>
       </c>
       <c r="C159" t="n">
-        <v>0.8675129458985338</v>
+        <v>51.7257286</v>
       </c>
       <c r="D159" t="n">
-        <v>0.1711906264281823</v>
+        <v>2.01</v>
       </c>
       <c r="E159" t="n">
-        <v>0.01251363547963737</v>
+        <v>2.343041648639925</v>
       </c>
       <c r="F159" t="n">
-        <v>0.01405514797133368</v>
+        <v>1.443933990606061</v>
       </c>
       <c r="G159" t="n">
-        <v>0.8513061397373659</v>
+        <v>49.59622</v>
       </c>
       <c r="H159" t="n">
-        <v>0.8454262269202945</v>
+        <v>49.011845</v>
       </c>
       <c r="I159" t="n">
-        <v>0.8843172884059471</v>
+        <v>55.590843</v>
       </c>
       <c r="J159" t="n">
-        <v>0.8988229546185537</v>
+        <v>53.63584</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_ins_pg</t>
+          <t>team_season_possessions</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>23.41348178137652</v>
+        <v>192.2685222672065</v>
       </c>
       <c r="C160" t="n">
-        <v>23.13494547178758</v>
+        <v>195.5511142721669</v>
       </c>
       <c r="D160" t="n">
-        <v>0.1588502257367511</v>
+        <v>-1.68</v>
       </c>
       <c r="E160" t="n">
-        <v>2.882509667937712</v>
+        <v>2.896484125129142</v>
       </c>
       <c r="F160" t="n">
-        <v>1.413342647959478</v>
+        <v>4.152976802407935</v>
       </c>
       <c r="G160" t="n">
-        <v>20.8974358974359</v>
+        <v>187.875</v>
       </c>
       <c r="H160" t="n">
-        <v>20.55263157894737</v>
+        <v>186.6052631578947</v>
       </c>
       <c r="I160" t="n">
-        <v>28.02631578947368</v>
+        <v>195.2564102564102</v>
       </c>
       <c r="J160" t="n">
-        <v>25.39473684210526</v>
+        <v>201.3947368421053</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_throw_ins_pg</t>
+          <t>team_season_opposition_dribble_ratio</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.005263157894736842</v>
+        <v>0.551369378</v>
       </c>
       <c r="C161" t="n">
-        <v>0.007017543859649122</v>
+        <v>0.542547972</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1539600717839001</v>
+        <v>1.63</v>
       </c>
       <c r="E161" t="n">
-        <v>0.01176877882894626</v>
+        <v>0.02783420632858014</v>
       </c>
       <c r="F161" t="n">
-        <v>0.01204572916360693</v>
+        <v>0.02694810192021249</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>0.53521127</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>0.49679488</v>
       </c>
       <c r="I161" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.6009693</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.5966102</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>team_season_dribble_ratio</t>
+          <t>team_season_direct_free_kick_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.542015828</v>
+        <v>0.02663453044152382</v>
       </c>
       <c r="C162" t="n">
-        <v>0.5458494473333334</v>
+        <v>0.02703302819418711</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1526243037991419</v>
+        <v>-1.47</v>
       </c>
       <c r="E162" t="n">
-        <v>0.02806256943475187</v>
+        <v>0.00516047681427126</v>
       </c>
       <c r="F162" t="n">
-        <v>0.02593005496588672</v>
+        <v>0.007530366190686477</v>
       </c>
       <c r="G162" t="n">
-        <v>0.51138353</v>
+        <v>0.0215025489218533</v>
       </c>
       <c r="H162" t="n">
-        <v>0.47217807</v>
+        <v>0.0152887852715426</v>
       </c>
       <c r="I162" t="n">
-        <v>0.57513916</v>
+        <v>0.0351488482541381</v>
       </c>
       <c r="J162" t="n">
-        <v>0.5796897</v>
+        <v>0.0456878484324797</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_free_kick</t>
+          <t>team_season_throw_ins_pg</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.004270763208160232</v>
+        <v>23.41348178137652</v>
       </c>
       <c r="C163" t="n">
-        <v>0.004063397033010101</v>
+        <v>23.13494547178758</v>
       </c>
       <c r="D163" t="n">
-        <v>0.1428343971499126</v>
+        <v>1.2</v>
       </c>
       <c r="E163" t="n">
-        <v>0.002005802673782669</v>
+        <v>2.88250966793771</v>
       </c>
       <c r="F163" t="n">
-        <v>0.001360144642286228</v>
+        <v>1.413342647959477</v>
       </c>
       <c r="G163" t="n">
-        <v>0.002216982441907489</v>
+        <v>20.8974358974359</v>
       </c>
       <c r="H163" t="n">
-        <v>0.001470522968232885</v>
+        <v>20.55263157894737</v>
       </c>
       <c r="I163" t="n">
-        <v>0.007479052958281144</v>
+        <v>28.02631578947368</v>
       </c>
       <c r="J163" t="n">
-        <v>0.006194014924501503</v>
+        <v>25.39473684210526</v>
       </c>
     </row>
     <row r="164">
@@ -6002,10 +6001,10 @@
         <v>15.98345187292556</v>
       </c>
       <c r="D164" t="n">
-        <v>0.118443488718684</v>
+        <v>1.04</v>
       </c>
       <c r="E164" t="n">
-        <v>0.9668687774827177</v>
+        <v>0.966868777482719</v>
       </c>
       <c r="F164" t="n">
         <v>1.598614845457701</v>
@@ -6026,205 +6025,205 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>team_season_penalties_conceded_pg</t>
+          <t>team_season_failed_dribbles_conceded_pg</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.1133940620782726</v>
+        <v>7.247226720647774</v>
       </c>
       <c r="C165" t="n">
-        <v>0.1090564248458985</v>
+        <v>7.314366998577525</v>
       </c>
       <c r="D165" t="n">
-        <v>0.09033640010921858</v>
+        <v>-0.92</v>
       </c>
       <c r="E165" t="n">
-        <v>0.01383903444119035</v>
+        <v>0.6521606704127868</v>
       </c>
       <c r="F165" t="n">
-        <v>0.05686766731725924</v>
+        <v>0.8634446076648581</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1025641025641026</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="H165" t="n">
-        <v>0.02631578947368421</v>
+        <v>5.710526315789473</v>
       </c>
       <c r="I165" t="n">
-        <v>0.131578947368421</v>
+        <v>7.975</v>
       </c>
       <c r="J165" t="n">
-        <v>0.2105263157894737</v>
+        <v>8.486486486486486</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kicks_conceded_pg</t>
+          <t>team_season_free_kick_shot_ratio</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>15.06302294197032</v>
+        <v>0.04643866040683807</v>
       </c>
       <c r="C166" t="n">
-        <v>14.94845898530108</v>
+        <v>0.0468543765871102</v>
       </c>
       <c r="D166" t="n">
-        <v>0.08791253149128378</v>
+        <v>-0.89</v>
       </c>
       <c r="E166" t="n">
-        <v>1.238114097010811</v>
+        <v>0.01222554365377121</v>
       </c>
       <c r="F166" t="n">
-        <v>1.408735844655925</v>
+        <v>0.01252283228872296</v>
       </c>
       <c r="G166" t="n">
-        <v>13.8717948717949</v>
+        <v>0.03538175046554935</v>
       </c>
       <c r="H166" t="n">
-        <v>11.9210526315789</v>
+        <v>0.02425373134328358</v>
       </c>
       <c r="I166" t="n">
-        <v>16.5</v>
+        <v>0.06739130434782609</v>
       </c>
       <c r="J166" t="n">
-        <v>16.7027027027027</v>
+        <v>0.06607142857142857</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>team_season_failed_dribbles_conceded_pg</t>
+          <t>team_season_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>7.247226720647774</v>
+        <v>15.06302294197032</v>
       </c>
       <c r="C167" t="n">
-        <v>7.314366998577525</v>
+        <v>14.94845898530108</v>
       </c>
       <c r="D167" t="n">
-        <v>0.08612092158493619</v>
+        <v>0.77</v>
       </c>
       <c r="E167" t="n">
-        <v>0.6521606704127869</v>
+        <v>1.238114097010811</v>
       </c>
       <c r="F167" t="n">
-        <v>0.863444607664858</v>
+        <v>1.408735844655925</v>
       </c>
       <c r="G167" t="n">
-        <v>6.333333333333333</v>
+        <v>13.8717948717949</v>
       </c>
       <c r="H167" t="n">
-        <v>5.710526315789473</v>
+        <v>11.9210526315789</v>
       </c>
       <c r="I167" t="n">
-        <v>7.975</v>
+        <v>16.5</v>
       </c>
       <c r="J167" t="n">
-        <v>8.486486486486486</v>
+        <v>16.7027027027027</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>team_season_pressure_regains_pg</t>
+          <t>team_season_dribble_ratio</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>29.06888663967612</v>
+        <v>0.542015828</v>
       </c>
       <c r="C168" t="n">
-        <v>29.2325746799431</v>
+        <v>0.5458494473333334</v>
       </c>
       <c r="D168" t="n">
-        <v>0.07297993555292702</v>
+        <v>-0.7</v>
       </c>
       <c r="E168" t="n">
-        <v>1.489921438979488</v>
+        <v>0.02806256943475187</v>
       </c>
       <c r="F168" t="n">
-        <v>2.55837167424816</v>
+        <v>0.02593005496588672</v>
       </c>
       <c r="G168" t="n">
-        <v>27.05263157894737</v>
+        <v>0.51138353</v>
       </c>
       <c r="H168" t="n">
-        <v>25.05263157894737</v>
+        <v>0.47217807</v>
       </c>
       <c r="I168" t="n">
-        <v>31.10526315789474</v>
+        <v>0.57513916</v>
       </c>
       <c r="J168" t="n">
-        <v>33.56756756756756</v>
+        <v>0.5796897</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_xg_conceded_pg</t>
+          <t>team_season_pressure_regains_pg</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.02663453044152382</v>
+        <v>29.06888663967612</v>
       </c>
       <c r="C169" t="n">
-        <v>0.02703302819418711</v>
+        <v>29.2325746799431</v>
       </c>
       <c r="D169" t="n">
-        <v>0.05937131889741232</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="E169" t="n">
-        <v>0.00516047681427126</v>
+        <v>1.489921438979488</v>
       </c>
       <c r="F169" t="n">
-        <v>0.007530366190686477</v>
+        <v>2.558371674248161</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0215025489218533</v>
+        <v>27.05263157894737</v>
       </c>
       <c r="H169" t="n">
-        <v>0.0152887852715426</v>
+        <v>25.05263157894737</v>
       </c>
       <c r="I169" t="n">
-        <v>0.0351488482541381</v>
+        <v>31.10526315789474</v>
       </c>
       <c r="J169" t="n">
-        <v>0.0456878484324797</v>
+        <v>33.56756756756756</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_shot_ratio</t>
+          <t>team_season_directness</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.04643866040683808</v>
+        <v>0.8652773618911078</v>
       </c>
       <c r="C170" t="n">
-        <v>0.0468543765871102</v>
+        <v>0.8675129458985338</v>
       </c>
       <c r="D170" t="n">
-        <v>0.03517211973285044</v>
+        <v>-0.26</v>
       </c>
       <c r="E170" t="n">
-        <v>0.01222554365377121</v>
+        <v>0.01251363547963737</v>
       </c>
       <c r="F170" t="n">
-        <v>0.01252283228872295</v>
+        <v>0.01405514797133368</v>
       </c>
       <c r="G170" t="n">
-        <v>0.03538175046554935</v>
+        <v>0.8513061397373659</v>
       </c>
       <c r="H170" t="n">
-        <v>0.02425373134328358</v>
+        <v>0.8454262269202945</v>
       </c>
       <c r="I170" t="n">
-        <v>0.06739130434782609</v>
+        <v>0.8843172884059471</v>
       </c>
       <c r="J170" t="n">
-        <v>0.06607142857142857</v>
+        <v>0.8988229546185537</v>
       </c>
     </row>
     <row r="171">
@@ -6240,10 +6239,10 @@
         <v>32.04774774774775</v>
       </c>
       <c r="D171" t="n">
-        <v>0.006116974319914932</v>
+        <v>-0.05</v>
       </c>
       <c r="E171" t="n">
-        <v>1.586156732386431</v>
+        <v>1.586156732386433</v>
       </c>
       <c r="F171" t="n">
         <v>3.272761722762894</v>
@@ -6274,13 +6273,13 @@
         <v>15.22243710346092</v>
       </c>
       <c r="D172" t="n">
-        <v>0.004810960481021864</v>
+        <v>-0.03</v>
       </c>
       <c r="E172" t="n">
         <v>1.209083639344046</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9095012272718603</v>
+        <v>0.9095012272718591</v>
       </c>
       <c r="G172" t="n">
         <v>13.95862916138795</v>
